--- a/AfDD_2023_Annex_Table_Tab05.xlsx
+++ b/AfDD_2023_Annex_Table_Tab05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>

--- a/AfDD_2023_Annex_Table_Tab05.xlsx
+++ b/AfDD_2023_Annex_Table_Tab05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85C8C5F1-2C1A-4F98-A98B-A3E48D093AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF0BDF7B-89D0-4DDA-ADEF-D296688D0192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E94CD53F-7C44-4AFA-9D28-883B0482A783}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{5BD0B1D1-910F-45A6-A279-DC25B96CED7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab05'!$A$2:$L$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab05'!$A$1:$L$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -544,7 +546,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Source: United Nations Department of Economic and Social Affairs Population Division World Population Prospects: the 2022 Revision and World Urbanization Prospects: the 2018 revision.</t>
+    <t>Source: United Nations Department of Economic and Social Affairs Population Division World Population Prospects: the 2022 Revision and World Urbanization Prospects 2018.</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -570,7 +572,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000000000000_);\(#,##0.0000000000000\)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -703,18 +705,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0F793D"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE1F0DE"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -723,9 +725,55 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
       </right>
       <top/>
       <bottom/>
@@ -733,25 +781,47 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF0F793D"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,60 +829,47 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </right>
       <top style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </left>
       <right style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </right>
-      <top style="medium">
-        <color rgb="FF0F793D"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </left>
-      <right style="medium">
-        <color rgb="FF0F793D"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0F793D"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0F793D"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,54 +878,19 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0F793D"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0F793D"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0F793D"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0F793D"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0F793D"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0F793D"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0F793D"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -877,7 +899,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -886,13 +908,13 @@
     <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -901,162 +923,200 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="37" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1064,11 +1124,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1384,11 +1443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A523B9A-62DF-4B8A-AA15-A6E656D2FBE1}">
-  <sheetPr codeName="Sheet14">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B8C36B-7682-43CF-A45C-70A39C1EA5C7}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1396,71 +1455,72 @@
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="11.26953125" style="65" customWidth="1"/>
-    <col min="13" max="13" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.36328125" style="78" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" style="79" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="12.36328125" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" ht="74" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>33428.485999999997</v>
       </c>
       <c r="D3" s="12">
@@ -1469,7 +1529,7 @@
       <c r="E3" s="13">
         <v>11089.900230499999</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>5223.9184326896902</v>
       </c>
       <c r="G3" s="12">
@@ -1490,16 +1550,15 @@
       <c r="L3" s="15">
         <v>91.925987056840796</v>
       </c>
-      <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>2546.402</v>
       </c>
       <c r="D4" s="18">
@@ -1508,7 +1567,7 @@
       <c r="E4" s="19">
         <v>741.58865446000004</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="18" t="s">
@@ -1530,8 +1589,8 @@
         <v>58.025993820215298</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -1540,36 +1599,36 @@
       <c r="C5" s="23">
         <v>1180.655</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="24">
         <v>285.37612005</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="25">
         <v>895.27887995000003</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="25">
+      <c r="G5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="26">
         <v>6.5135523754560696</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="26">
         <v>58.468540351102703</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="27">
         <v>64.982092726558804</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -1578,36 +1637,36 @@
       <c r="C6" s="23">
         <v>2254.1</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="24">
         <v>654.32014800000002</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="25">
         <v>1599.7798519999999</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="25">
+      <c r="G6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="26">
         <v>6.8404265592053397</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="26">
         <v>55.598553538253597</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="27">
         <v>62.438980097458902</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -1616,36 +1675,36 @@
       <c r="C7" s="23">
         <v>19377.061000000002</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="24">
         <v>3376.84042047</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="25">
         <v>16000.22057953</v>
       </c>
       <c r="F7" s="23">
         <v>890.59318735643399</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="24">
         <v>1</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="24">
         <v>1071.58193569997</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="25">
         <v>1</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="26">
         <v>5.21467440730604</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="26">
         <v>81.7596590336166</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="27">
         <v>86.974333440922607</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -1654,36 +1713,36 @@
       <c r="C8" s="23">
         <v>31178.239000000001</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="24">
         <v>11559.02032686</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="25">
         <v>19619.21867314</v>
       </c>
       <c r="F8" s="23">
         <v>2536.5292190913801</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="24">
         <v>5</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="24">
         <v>2717.7785990878801</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="25">
         <v>2</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="26">
         <v>4.8567719628864703</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="26">
         <v>81.932084345612694</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="27">
         <v>86.788856308499106</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -1692,36 +1751,36 @@
       <c r="C9" s="23">
         <v>2489.098</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="24">
         <v>1295.1523623400001</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="25">
         <v>1193.9456376600001</v>
       </c>
       <c r="F9" s="23">
         <v>398.00190902553902</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="24">
         <v>1</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="25">
-        <v>6.7478905279461303</v>
-      </c>
-      <c r="K9" s="25">
+      <c r="H9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="26">
+        <v>6.7478905279461401</v>
+      </c>
+      <c r="K9" s="26">
         <v>60.577946941870501</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="27">
         <v>67.325837469816705</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -1730,42 +1789,42 @@
       <c r="C10" s="23">
         <v>58801.925999999999</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="24">
         <v>39605.449238039997</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="25">
         <v>19196.476761959999</v>
       </c>
       <c r="F10" s="23">
         <v>5724.6252066198103</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="24">
         <v>9</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="24">
         <v>21301.517201197999</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="25">
         <v>6</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="26">
         <v>9.19484424043603</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="26">
         <v>44.038859524111302</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="27">
         <v>53.2337037645474</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>18927.715</v>
       </c>
       <c r="D11" s="18">
@@ -1774,7 +1833,7 @@
       <c r="E11" s="19">
         <v>10480.46507265</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>1244.74126424219</v>
       </c>
       <c r="G11" s="18">
@@ -1796,84 +1855,84 @@
         <v>83.184551720507002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="23">
         <v>15669.665999999999</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="24">
         <v>5052.21371172</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="25">
         <v>10617.452288279999</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="23">
         <v>908.10770928479496</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="24">
         <v>2</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="24">
         <v>1355.9222230139301</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="25">
         <v>1</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="26">
         <v>6.0868926919504096</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="26">
         <v>74.198369136892495</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="27">
         <v>80.285261828842906</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="30">
         <v>185853.348</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="31">
         <v>94419.021369869995</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="32">
         <v>91434.326630130003</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="30">
         <v>16926.5169283098</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="31">
         <v>28</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="31">
         <v>37740.150547427402</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="32">
         <v>12</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="33">
         <v>5.9202302904770097</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="33">
         <v>67.596329532943898</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="34">
         <v>73.516559823421005</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -1882,36 +1941,36 @@
       <c r="C14" s="23">
         <v>12220.226000000001</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="24">
         <v>1675.1485800800001</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="25">
         <v>10545.07741992</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="23">
+      <c r="G14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="24">
         <v>1036.8376492963901</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="25">
         <v>1</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="26">
         <v>4.8545413903679897</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="26">
         <v>91.945520579554</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="27">
         <v>96.800061969921998</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="22" t="s">
@@ -1920,36 +1979,36 @@
       <c r="C15" s="23">
         <v>26491.087</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="24">
         <v>15248.2696772</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="25">
         <v>11242.8173228</v>
       </c>
       <c r="F15" s="23">
         <v>2333.2667239245202</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="24">
         <v>5</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="24">
         <v>7812.8027869170701</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="25">
         <v>2</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="26">
         <v>5.0093193650865597</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="26">
         <v>78.013981051200105</v>
       </c>
-      <c r="L15" s="26">
-        <v>83.023300416286602</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="L15" s="27">
+        <v>83.023300416286702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -1958,118 +2017,118 @@
       <c r="C16" s="23">
         <v>5343.02</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="24">
         <v>2254.6475796</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="25">
         <v>3088.3724204</v>
       </c>
       <c r="F16" s="23">
         <v>965.51233275532104</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="24">
         <v>1</v>
       </c>
-      <c r="H16" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="25">
+      <c r="H16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="26">
         <v>5.0270097734655597</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="26">
         <v>97.760691850992103</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="27">
         <v>102.78770162445799</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="36">
         <v>16644.701000000001</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="37">
         <v>3914.8336752</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="38">
         <v>12729.8673248</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="12">
+      <c r="F17" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="37">
         <v>1453.95973320183</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="38">
         <v>1</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="39">
         <v>4.0531061974201599</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="39">
         <v>95.346193586645001</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="40">
         <v>99.399299784065207</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="36">
         <v>5702.174</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="37">
         <v>3867.7276024600001</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="38">
         <v>1834.4463975399999</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="12">
+      <c r="F18" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="37">
         <v>3612.0355290140501</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="38">
         <v>2</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="39">
         <v>4.7551796046678403</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="39">
         <v>74.841078790211398</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="40">
         <v>79.5962583948793</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>92853.164000000004</v>
       </c>
       <c r="D19" s="18">
@@ -2078,7 +2137,7 @@
       <c r="E19" s="19">
         <v>50476.83701368</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="17">
         <v>5903.6138361724898</v>
       </c>
       <c r="G19" s="18">
@@ -2101,83 +2160,83 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="36">
         <v>1596.049</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="37">
         <v>1166.7118190000001</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="38">
         <v>429.33718099999999</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="36">
         <v>471.30818061125802</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="37">
         <v>1</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="14">
+      <c r="H20" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="39">
         <v>5.4620059739170603</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="39">
         <v>67.018315113318593</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="40">
         <v>72.480321087235595</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="36">
         <v>2292.5729999999999</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="37">
         <v>2065.4248671599998</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="38">
         <v>227.14813283999999</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="36">
         <v>888.98960897024995</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="37">
         <v>1</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="14">
+      <c r="H21" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="39">
         <v>6.55498342178951</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="39">
         <v>61.320120558152603</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="40">
         <v>67.875103979942097</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -2186,74 +2245,74 @@
       <c r="C22" s="23">
         <v>218.64099999999999</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="24">
         <v>162.56832914</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="25">
         <v>56.072670860000002</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="25">
+      <c r="G22" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="26">
         <v>6.8196775255018096</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="26">
         <v>73.050345508390905</v>
       </c>
-      <c r="L22" s="26">
+      <c r="L22" s="27">
         <v>79.870023033892707</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="30">
         <v>163361.63500000001</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="31">
         <v>72731.659116159994</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="32">
         <v>90629.975883840001</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="30">
         <v>10562.6906824338</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="31">
         <v>18</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="31">
         <v>37925.0063180301</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="32">
         <v>12</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="33">
         <v>5.3863566162035097</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="33">
         <v>81.261518621060503</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="34">
         <v>86.647875237264003</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B24" s="22" t="s">
@@ -2262,36 +2321,36 @@
       <c r="C24" s="23">
         <v>806.16600000000005</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="24">
         <v>236.85157079999999</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="25">
         <v>569.31442919999995</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="25">
+      <c r="G24" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="26">
         <v>7.57856383786247</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24" s="26">
         <v>67.261055325424607</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L24" s="27">
         <v>74.839619163286997</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="22" t="s">
@@ -2300,36 +2359,36 @@
       <c r="C25" s="23">
         <v>1090.1559999999999</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="24">
         <v>850.99757671999998</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="25">
         <v>239.15842327999999</v>
       </c>
       <c r="F25" s="23">
         <v>628.16445510196502</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="24">
         <v>1</v>
       </c>
-      <c r="H25" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="25">
+      <c r="H25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="26">
         <v>6.9275528414954701</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="26">
         <v>48.469777572512797</v>
       </c>
-      <c r="L25" s="26">
+      <c r="L25" s="27">
         <v>55.397330414008202</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -2338,36 +2397,36 @@
       <c r="C26" s="23">
         <v>3555.8679999999999</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="24">
         <v>1470.2447419600001</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="25">
         <v>2085.6232580400001</v>
       </c>
       <c r="F26" s="23">
         <v>630.35923939327904</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="24">
         <v>1</v>
       </c>
-      <c r="H26" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="25">
+      <c r="H26" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="26">
         <v>7.1909738263024297</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="26">
         <v>72.734867279563801</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L26" s="27">
         <v>79.925841105866198</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="22" t="s">
@@ -2376,36 +2435,36 @@
       <c r="C27" s="23">
         <v>117190.91099999999</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="24">
         <v>25424.56814145</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="25">
         <v>91766.342858549993</v>
       </c>
       <c r="F27" s="23">
         <v>1737.8653325465</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="24">
         <v>4</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="24">
         <v>4982.1087817573298</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="25">
         <v>1</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="26">
         <v>5.5344435598381496</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K27" s="26">
         <v>71.279233549259899</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L27" s="27">
         <v>76.813677109097995</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B28" s="22" t="s">
@@ -2414,36 +2473,36 @@
       <c r="C28" s="23">
         <v>51985.78</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="24">
         <v>14553.419110999999</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="25">
         <v>37432.360889000003</v>
       </c>
       <c r="F28" s="23">
         <v>1478.7585243201399</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="24">
         <v>4</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="24">
         <v>5861.0732283868301</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="25">
         <v>2</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="26">
         <v>4.8143079502940296</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="26">
         <v>66.936454096584896</v>
       </c>
-      <c r="L28" s="26">
+      <c r="L28" s="27">
         <v>71.750762046878904</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="22" t="s">
@@ -2452,36 +2511,36 @@
       <c r="C29" s="23">
         <v>28225.177</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="24">
         <v>10876.289705179999</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="25">
         <v>17348.887294820001</v>
       </c>
       <c r="F29" s="23">
         <v>805.47991505011896</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="24">
         <v>2</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="24">
         <v>3433.5921942208001</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="25">
         <v>1</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="26">
         <v>5.6916850250640003</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29" s="26">
         <v>69.641872104297306</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L29" s="27">
         <v>75.333557129361296</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -2490,36 +2549,36 @@
       <c r="C30" s="23">
         <v>1297.828</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="24">
         <v>528.99469280000005</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="25">
         <v>768.83330720000004</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="25">
+      <c r="G30" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="26">
         <v>16.5523489344476</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K30" s="26">
         <v>23.922622571807999</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="27">
         <v>40.474971506255599</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B31" s="22" t="s">
@@ -2528,36 +2587,36 @@
       <c r="C31" s="23">
         <v>13146.361999999999</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="24">
         <v>2291.6738238399998</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="25">
         <v>10854.68817616</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="23">
+      <c r="G31" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="24">
         <v>1137.22112228225</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="25">
         <v>1</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31" s="26">
         <v>5.3883325112859204</v>
       </c>
-      <c r="K31" s="25">
+      <c r="K31" s="26">
         <v>68.310092051252994</v>
       </c>
-      <c r="L31" s="26">
+      <c r="L31" s="27">
         <v>73.698424562538904</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -2566,36 +2625,36 @@
       <c r="C32" s="23">
         <v>105.53</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="24">
         <v>60.728293800000003</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="25">
         <v>44.801706199999998</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="25">
+      <c r="G32" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="26">
         <v>11.0635906293265</v>
       </c>
-      <c r="K32" s="25">
+      <c r="K32" s="26">
         <v>33.615714657783997</v>
       </c>
-      <c r="L32" s="26">
+      <c r="L32" s="27">
         <v>44.679305287110502</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B33" s="22" t="s">
@@ -2604,42 +2663,42 @@
       <c r="C33" s="23">
         <v>16537.016</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="24">
         <v>7630.34455256</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="25">
         <v>8906.6714474399996</v>
       </c>
       <c r="F33" s="23">
         <v>1680.79161953792</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="24">
         <v>3</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="24">
         <v>3358.4257864336</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="25">
         <v>2</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="26">
         <v>5.2270471532981899</v>
       </c>
-      <c r="K33" s="25">
+      <c r="K33" s="26">
         <v>94.595351926047996</v>
       </c>
-      <c r="L33" s="26">
+      <c r="L33" s="27">
         <v>99.822399079346198</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <v>10606.227000000001</v>
       </c>
       <c r="D34" s="18">
@@ -2648,7 +2707,7 @@
       <c r="E34" s="19">
         <v>8463.8752082699993</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="17">
         <v>314.22392507255898</v>
       </c>
       <c r="G34" s="18">
@@ -2671,7 +2730,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B35" s="22" t="s">
@@ -2680,36 +2739,36 @@
       <c r="C35" s="23">
         <v>44440.485999999997</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="24">
         <v>15666.60452958</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="25">
         <v>28773.881470420001</v>
       </c>
       <c r="F35" s="23">
         <v>3044.0473367310001</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="24">
         <v>6</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="24">
         <v>5949.2449564378803</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="25">
         <v>1</v>
       </c>
-      <c r="J35" s="25">
+      <c r="J35" s="26">
         <v>6.0160794759570297</v>
       </c>
-      <c r="K35" s="25">
+      <c r="K35" s="26">
         <v>74.214868324146195</v>
       </c>
-      <c r="L35" s="26">
+      <c r="L35" s="27">
         <v>80.230947800103195</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B36" s="22" t="s">
@@ -2718,36 +2777,36 @@
       <c r="C36" s="23">
         <v>61704.517999999996</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="24">
         <v>21736.65055586</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="25">
         <v>39967.86744414</v>
       </c>
       <c r="F36" s="23">
         <v>2482.5301079723599</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="24">
         <v>5</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="24">
         <v>7688.7392364331199</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="25">
         <v>2</v>
       </c>
-      <c r="J36" s="25">
+      <c r="J36" s="26">
         <v>5.9018553849514896</v>
       </c>
-      <c r="K36" s="25">
+      <c r="K36" s="26">
         <v>82.795392919619403</v>
       </c>
-      <c r="L36" s="26">
+      <c r="L36" s="27">
         <v>88.697248304570905</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B37" s="22" t="s">
@@ -2756,112 +2815,112 @@
       <c r="C37" s="23">
         <v>44404.610999999997</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="24">
         <v>11080.72662894</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="25">
         <v>33323.884371059998</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="23">
+      <c r="G37" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="24">
         <v>3103.8291979671899</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="25">
         <v>1</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="26">
         <v>3.1611430532088001</v>
       </c>
-      <c r="K37" s="25">
+      <c r="K37" s="26">
         <v>86.718034485834494</v>
       </c>
-      <c r="L37" s="26">
+      <c r="L37" s="27">
         <v>89.879177539043297</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="30">
         <v>395096.636</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="31">
         <v>114550.44571622</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="32">
         <v>280546.19028377999</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="30">
         <v>12802.220455725799</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="31">
         <v>27</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="31">
         <v>35514.234503918997</v>
       </c>
-      <c r="I38" s="35">
+      <c r="I38" s="32">
         <v>11</v>
       </c>
-      <c r="J38" s="36">
+      <c r="J38" s="33">
         <v>6.8903434999976199</v>
       </c>
-      <c r="K38" s="36">
+      <c r="K38" s="33">
         <v>67.749654622490098</v>
       </c>
-      <c r="L38" s="37">
+      <c r="L38" s="34">
         <v>74.639998122487796</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="36">
         <v>43451.665999999997</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="37">
         <v>32038.216891780001</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="38">
         <v>11413.44910822</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="36">
         <v>3299.2889580177598</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="37">
         <v>7</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="37">
         <v>2775.2238176713499</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="38">
         <v>1</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="39">
         <v>9.5009623257473095</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="39">
         <v>48.3885117996685</v>
       </c>
-      <c r="L39" s="15">
+      <c r="L39" s="40">
         <v>57.889474125415802</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B40" s="22" t="s">
@@ -2870,112 +2929,112 @@
       <c r="C40" s="23">
         <v>107465.13400000001</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="24">
         <v>45976.80827922</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="25">
         <v>61488.325720779998</v>
       </c>
       <c r="F40" s="23">
         <v>5450.76932558517</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="24">
         <v>11</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="24">
         <v>27331.7749519709</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="25">
         <v>2</v>
       </c>
-      <c r="J40" s="25">
+      <c r="J40" s="26">
         <v>7.58476465394632</v>
       </c>
-      <c r="K40" s="25">
+      <c r="K40" s="26">
         <v>53.494836225872703</v>
       </c>
-      <c r="L40" s="26">
+      <c r="L40" s="27">
         <v>61.079600879818997</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="36">
         <v>6653.942</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="37">
         <v>5369.1323392200002</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="38">
         <v>1284.8096607800001</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="36">
         <v>1703.18613986848</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="37">
         <v>2</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="37">
         <v>1163.64555754857</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="38">
         <v>1</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="39">
         <v>7.3030862927141298</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="39">
         <v>44.683895804700398</v>
       </c>
-      <c r="L41" s="15">
+      <c r="L41" s="40">
         <v>51.986982097414497</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="36">
         <v>4498.6040000000003</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="37">
         <v>2488.9426350799999</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="38">
         <v>2009.6613649200001</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="12">
+      <c r="F42" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="37">
         <v>1236.26982002761</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="38">
         <v>1</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="39">
         <v>6.0842150235594801</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="39">
         <v>78.013072505260695</v>
       </c>
-      <c r="L42" s="15">
+      <c r="L42" s="40">
         <v>84.097287528820203</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B43" s="22" t="s">
@@ -2984,36 +3043,36 @@
       <c r="C43" s="23">
         <v>36688.771999999997</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="24">
         <v>23309.110627040001</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="25">
         <v>13379.661372959999</v>
       </c>
       <c r="F43" s="23">
         <v>4219.8010442725199</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="24">
         <v>7</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="24">
         <v>7976.1270641983301</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="25">
         <v>4</v>
       </c>
-      <c r="J43" s="25">
+      <c r="J43" s="26">
         <v>10.875299372530099</v>
       </c>
-      <c r="K43" s="25">
+      <c r="K43" s="26">
         <v>41.199604069725503</v>
       </c>
-      <c r="L43" s="26">
+      <c r="L43" s="27">
         <v>52.074903442255597</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -3022,74 +3081,74 @@
       <c r="C44" s="23">
         <v>12161.723</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="24">
         <v>8460.6674566399997</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="25">
         <v>3701.0555433599998</v>
       </c>
       <c r="F44" s="23">
         <v>643.86509500731597</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G44" s="24">
         <v>1</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="24">
         <v>2416.5832769887702</v>
       </c>
-      <c r="I44" s="24">
+      <c r="I44" s="25">
         <v>1</v>
       </c>
-      <c r="J44" s="25">
+      <c r="J44" s="26">
         <v>12.905515055471399</v>
       </c>
-      <c r="K44" s="25">
+      <c r="K44" s="26">
         <v>37.535024123365602</v>
       </c>
-      <c r="L44" s="26">
+      <c r="L44" s="27">
         <v>50.440539178837</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45" s="30">
         <v>210919.84099999999</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="31">
         <v>117642.87822898</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="32">
         <v>93276.96277102</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="30">
         <v>15316.9105627512</v>
       </c>
-      <c r="G45" s="34">
+      <c r="G45" s="31">
         <v>28</v>
       </c>
-      <c r="H45" s="34">
+      <c r="H45" s="31">
         <v>42899.624488405498</v>
       </c>
-      <c r="I45" s="35">
+      <c r="I45" s="32">
         <v>10</v>
       </c>
-      <c r="J45" s="36">
+      <c r="J45" s="33">
         <v>9.0423071206614605</v>
       </c>
-      <c r="K45" s="36">
+      <c r="K45" s="33">
         <v>50.5524907547656</v>
       </c>
-      <c r="L45" s="37">
+      <c r="L45" s="34">
         <v>59.594797875426998</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -3098,36 +3157,36 @@
       <c r="C46" s="23">
         <v>12643.123</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="24">
         <v>6121.1680004500004</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="25">
         <v>6521.9549995500001</v>
       </c>
       <c r="F46" s="23">
         <v>1453.05883109152</v>
       </c>
-      <c r="G46" s="23">
+      <c r="G46" s="24">
         <v>3</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="24">
         <v>1101.7666739767501</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I46" s="25">
         <v>1</v>
       </c>
-      <c r="J46" s="25">
+      <c r="J46" s="26">
         <v>5.6991902226045097</v>
       </c>
-      <c r="K46" s="25">
+      <c r="K46" s="26">
         <v>78.807893961467698</v>
       </c>
-      <c r="L46" s="26">
+      <c r="L46" s="27">
         <v>84.507084184072198</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B47" s="22" t="s">
@@ -3136,74 +3195,74 @@
       <c r="C47" s="23">
         <v>21522.626</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="24">
         <v>6587.4301398199996</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="25">
         <v>14935.19586018</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="23">
+      <c r="G47" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="24">
         <v>3863.6249627430502</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="25">
         <v>2</v>
       </c>
-      <c r="J47" s="25">
+      <c r="J47" s="26">
         <v>4.83278799182097</v>
       </c>
-      <c r="K47" s="25">
+      <c r="K47" s="26">
         <v>83.842652354100196</v>
       </c>
-      <c r="L47" s="26">
+      <c r="L47" s="27">
         <v>88.675440345921203</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="36">
         <v>582.64</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="37">
         <v>388.34121279999999</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="38">
         <v>194.29878719999999</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="14">
+      <c r="F48" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="39">
         <v>7.9441542512804801</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K48" s="39">
         <v>40.011020850738603</v>
       </c>
-      <c r="L48" s="15">
+      <c r="L48" s="40">
         <v>47.955175102019098</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B49" s="22" t="s">
@@ -3212,36 +3271,36 @@
       <c r="C49" s="23">
         <v>26811.79</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="24">
         <v>13863.3041374</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="25">
         <v>12948.4858626</v>
       </c>
       <c r="F49" s="23">
         <v>585.861442893196</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49" s="24">
         <v>1</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="24">
         <v>5329.9975035670104</v>
       </c>
-      <c r="I49" s="24">
+      <c r="I49" s="25">
         <v>1</v>
       </c>
-      <c r="J49" s="25">
+      <c r="J49" s="26">
         <v>4.3417468914270803</v>
       </c>
-      <c r="K49" s="25">
+      <c r="K49" s="26">
         <v>75.900801289646395</v>
       </c>
-      <c r="L49" s="26">
+      <c r="L49" s="27">
         <v>80.242548181073502</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>105</v>
       </c>
       <c r="B50" s="22" t="s">
@@ -3250,42 +3309,42 @@
       <c r="C50" s="23">
         <v>2573.9949999999999</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="24">
         <v>1610.8575509</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="25">
         <v>963.13744910000003</v>
       </c>
       <c r="F50" s="23">
         <v>505.80979865863998</v>
       </c>
-      <c r="G50" s="23">
+      <c r="G50" s="24">
         <v>1</v>
       </c>
-      <c r="H50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="25">
+      <c r="H50" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="26">
         <v>4.5790110906868504</v>
       </c>
-      <c r="K50" s="25">
+      <c r="K50" s="26">
         <v>81.920521212288094</v>
       </c>
-      <c r="L50" s="26">
+      <c r="L50" s="27">
         <v>86.499532302974899</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="17">
         <v>32180.401999999998</v>
       </c>
       <c r="D51" s="18">
@@ -3294,7 +3353,7 @@
       <c r="E51" s="19">
         <v>13725.26325702</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="17">
         <v>1662.1508028179401</v>
       </c>
       <c r="G51" s="18">
@@ -3317,7 +3376,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B52" s="22" t="s">
@@ -3326,36 +3385,36 @@
       <c r="C52" s="23">
         <v>13205.152</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="24">
         <v>4869.3998000000001</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="25">
         <v>8335.7522000000008</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="23">
+      <c r="G52" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="24">
         <v>1861.35555619306</v>
       </c>
-      <c r="I52" s="24">
+      <c r="I52" s="25">
         <v>1</v>
       </c>
-      <c r="J52" s="25">
+      <c r="J52" s="26">
         <v>6.2139127677716601</v>
       </c>
-      <c r="K52" s="25">
+      <c r="K52" s="26">
         <v>77.259414862510596</v>
       </c>
-      <c r="L52" s="26">
+      <c r="L52" s="27">
         <v>83.473327630282199</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>111</v>
       </c>
       <c r="B53" s="22" t="s">
@@ -3364,36 +3423,36 @@
       <c r="C53" s="23">
         <v>2015.828</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="24">
         <v>890.91534288000003</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="25">
         <v>1124.9126571199999</v>
       </c>
       <c r="F53" s="23">
         <v>604.25046168579502</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="24">
         <v>1</v>
       </c>
-      <c r="H53" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="25">
+      <c r="H53" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="26">
         <v>4.98028235630475</v>
       </c>
-      <c r="K53" s="25">
+      <c r="K53" s="26">
         <v>72.901101170175394</v>
       </c>
-      <c r="L53" s="26">
+      <c r="L53" s="27">
         <v>77.881383526480107</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B54" s="22" t="s">
@@ -3402,36 +3461,36 @@
       <c r="C54" s="23">
         <v>5087.5839999999998</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="24">
         <v>2650.0716297600002</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="25">
         <v>2437.5123702400001</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="23">
+      <c r="G54" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="24">
         <v>1512.39867414677</v>
       </c>
-      <c r="I54" s="24">
+      <c r="I54" s="25">
         <v>1</v>
       </c>
-      <c r="J54" s="25">
+      <c r="J54" s="26">
         <v>6.1181473685410701</v>
       </c>
-      <c r="K54" s="25">
+      <c r="K54" s="26">
         <v>75.145721073476196</v>
       </c>
-      <c r="L54" s="26">
+      <c r="L54" s="27">
         <v>81.263868442017298</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>115</v>
       </c>
       <c r="B55" s="22" t="s">
@@ -3440,36 +3499,36 @@
       <c r="C55" s="23">
         <v>21224.04</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="24">
         <v>9319.2637235999991</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="25">
         <v>11904.7762764</v>
       </c>
       <c r="F55" s="23">
         <v>404.159307326202</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G55" s="24">
         <v>1</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="24">
         <v>2738.9755154726499</v>
       </c>
-      <c r="I55" s="24">
+      <c r="I55" s="25">
         <v>1</v>
       </c>
-      <c r="J55" s="25">
+      <c r="J55" s="26">
         <v>5.0021940565854104</v>
       </c>
-      <c r="K55" s="25">
+      <c r="K55" s="26">
         <v>95.414199828460397</v>
       </c>
-      <c r="L55" s="26">
+      <c r="L55" s="27">
         <v>100.41639388504601</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B56" s="22" t="s">
@@ -3478,74 +3537,74 @@
       <c r="C56" s="23">
         <v>24333.638999999999</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="24">
         <v>4045.7108201400001</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="25">
         <v>20287.928179859999</v>
       </c>
       <c r="F56" s="23">
         <v>494.43957016365698</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="24">
         <v>1</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="24">
         <v>1305.7430420762601</v>
       </c>
-      <c r="I56" s="24">
+      <c r="I56" s="25">
         <v>1</v>
       </c>
-      <c r="J56" s="25">
+      <c r="J56" s="26">
         <v>5.0099467237011996</v>
       </c>
-      <c r="K56" s="25">
+      <c r="K56" s="26">
         <v>100.683971446893</v>
       </c>
-      <c r="L56" s="26">
+      <c r="L56" s="27">
         <v>105.693918170594</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="36">
         <v>208327.40400000001</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="37">
         <v>108242.75257031999</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="38">
         <v>100084.65142968</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="36">
         <v>22075.4164354485</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="37">
         <v>39</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="37">
         <v>36117.612111671202</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="38">
         <v>11</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="39">
         <v>5.6126728760559699</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K57" s="39">
         <v>81.318650258438794</v>
       </c>
-      <c r="L57" s="15">
+      <c r="L57" s="40">
         <v>86.931323134494704</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B58" s="22" t="s">
@@ -3554,36 +3613,36 @@
       <c r="C58" s="23">
         <v>16436.12</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="24">
         <v>7909.3896664000004</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="25">
         <v>8526.7303336000004</v>
       </c>
       <c r="F58" s="23">
         <v>692.39497888914298</v>
       </c>
-      <c r="G58" s="23">
+      <c r="G58" s="24">
         <v>2</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="24">
         <v>3000.9429895244002</v>
       </c>
-      <c r="I58" s="24">
+      <c r="I58" s="25">
         <v>1</v>
       </c>
-      <c r="J58" s="25">
+      <c r="J58" s="26">
         <v>5.7944330601548204</v>
       </c>
-      <c r="K58" s="25">
+      <c r="K58" s="26">
         <v>76.814757239097204</v>
       </c>
-      <c r="L58" s="26">
+      <c r="L58" s="27">
         <v>82.609190299252006</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B59" s="22" t="s">
@@ -3592,42 +3651,42 @@
       <c r="C59" s="23">
         <v>8233.9699999999993</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="24">
         <v>3534.2669430999999</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="25">
         <v>4699.7030568999999</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G59" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="23">
+      <c r="G59" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="24">
         <v>1229.83638644348</v>
       </c>
-      <c r="I59" s="24">
+      <c r="I59" s="25">
         <v>1</v>
       </c>
-      <c r="J59" s="25">
+      <c r="J59" s="26">
         <v>5.5148004750861697</v>
       </c>
-      <c r="K59" s="25">
+      <c r="K59" s="26">
         <v>69.715746348588993</v>
       </c>
-      <c r="L59" s="26">
+      <c r="L59" s="27">
         <v>75.230546823675198</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="17">
         <v>8442.58</v>
       </c>
       <c r="D60" s="18">
@@ -3636,7 +3695,7 @@
       <c r="E60" s="19">
         <v>4829.1557599999996</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G60" s="18" t="s">
@@ -3659,1526 +3718,1683 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="34">
+      <c r="C61" s="30">
         <v>403620.89299999998</v>
       </c>
-      <c r="D61" s="34">
+      <c r="D61" s="31">
         <v>192101.43452055001</v>
       </c>
-      <c r="E61" s="35">
+      <c r="E61" s="32">
         <v>211519.45847945</v>
       </c>
-      <c r="F61" s="34">
+      <c r="F61" s="30">
         <v>28477.541628974599</v>
       </c>
-      <c r="G61" s="34">
+      <c r="G61" s="31">
         <v>51</v>
       </c>
-      <c r="H61" s="34">
+      <c r="H61" s="31">
         <v>66040.8353701874</v>
       </c>
-      <c r="I61" s="35">
+      <c r="I61" s="32">
         <v>24</v>
       </c>
-      <c r="J61" s="36">
+      <c r="J61" s="33">
         <v>5.5221431923928304</v>
       </c>
-      <c r="K61" s="36">
+      <c r="K61" s="33">
         <v>76.344591749927304</v>
       </c>
-      <c r="L61" s="37">
+      <c r="L61" s="34">
         <v>81.866734942320207</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="42">
+      <c r="C62" s="44">
         <v>1358852.3529999999</v>
       </c>
-      <c r="D62" s="42">
+      <c r="D62" s="45">
         <v>591445.43895177997</v>
       </c>
-      <c r="E62" s="43">
+      <c r="E62" s="46">
         <v>767406.91404822003</v>
       </c>
-      <c r="F62" s="42">
+      <c r="F62" s="44">
         <v>84085.880258195393</v>
       </c>
-      <c r="G62" s="42">
+      <c r="G62" s="45">
         <v>152</v>
       </c>
-      <c r="H62" s="42">
+      <c r="H62" s="45">
         <v>220119.85122796899</v>
       </c>
-      <c r="I62" s="43">
+      <c r="I62" s="46">
         <v>69</v>
       </c>
-      <c r="J62" s="44">
+      <c r="J62" s="47">
         <v>6.31907985297092</v>
       </c>
-      <c r="K62" s="44">
+      <c r="K62" s="47">
         <v>70.449924970580497</v>
       </c>
-      <c r="L62" s="45">
+      <c r="L62" s="48">
         <v>76.769004823551398</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="42">
+      <c r="C63" s="50">
         <v>6435230.0760000004</v>
       </c>
-      <c r="D63" s="42">
+      <c r="D63" s="51">
         <v>3767649.6978215701</v>
       </c>
-      <c r="E63" s="43">
+      <c r="E63" s="52">
         <v>2667580.3781784298</v>
       </c>
-      <c r="F63" s="42">
+      <c r="F63" s="50">
         <v>597320.96619894297</v>
       </c>
-      <c r="G63" s="42">
+      <c r="G63" s="51">
         <v>1115</v>
       </c>
-      <c r="H63" s="42">
+      <c r="H63" s="51">
         <v>1653770.86026795</v>
       </c>
-      <c r="I63" s="43">
+      <c r="I63" s="52">
         <v>508</v>
       </c>
-      <c r="J63" s="44">
+      <c r="J63" s="53">
         <v>17.3287530523729</v>
       </c>
-      <c r="K63" s="44">
+      <c r="K63" s="53">
         <v>35.285476782358302</v>
       </c>
-      <c r="L63" s="45">
+      <c r="L63" s="54">
         <v>52.614229834731297</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="48">
+      <c r="C64" s="44">
         <v>646831.90099999995</v>
       </c>
-      <c r="D64" s="48">
+      <c r="D64" s="45">
         <v>524206.43205131002</v>
       </c>
-      <c r="E64" s="49">
+      <c r="E64" s="46">
         <v>122625.46894869</v>
       </c>
-      <c r="F64" s="48">
+      <c r="F64" s="44">
         <v>70265.776135291293</v>
       </c>
-      <c r="G64" s="48">
+      <c r="G64" s="45">
         <v>133</v>
       </c>
-      <c r="H64" s="48">
+      <c r="H64" s="45">
         <v>240923.214438417</v>
       </c>
-      <c r="I64" s="49">
+      <c r="I64" s="46">
         <v>72</v>
       </c>
-      <c r="J64" s="50">
+      <c r="J64" s="47">
         <v>12.813497223087399</v>
       </c>
-      <c r="K64" s="50">
+      <c r="K64" s="47">
         <v>36.650098763589902</v>
       </c>
-      <c r="L64" s="51">
+      <c r="L64" s="48">
         <v>49.463595986677198</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="46" t="s">
+      <c r="A65" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="52" t="s">
+      <c r="B65" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="53">
+      <c r="C65" s="57">
         <v>4255472.66</v>
       </c>
-      <c r="D65" s="53">
+      <c r="D65" s="58">
         <v>2040218.00165573</v>
       </c>
-      <c r="E65" s="54">
+      <c r="E65" s="59">
         <v>2215254.6583442702</v>
       </c>
-      <c r="F65" s="53">
+      <c r="F65" s="57">
         <v>321068.36454404599</v>
       </c>
-      <c r="G65" s="53">
+      <c r="G65" s="58">
         <v>580</v>
       </c>
-      <c r="H65" s="53">
+      <c r="H65" s="58">
         <v>890126.51799300802</v>
       </c>
-      <c r="I65" s="54">
+      <c r="I65" s="59">
         <v>269</v>
       </c>
-      <c r="J65" s="55">
+      <c r="J65" s="60">
         <v>9.3570018025028094</v>
       </c>
-      <c r="K65" s="55">
+      <c r="K65" s="60">
         <v>45.9084341565529</v>
       </c>
-      <c r="L65" s="56">
+      <c r="L65" s="61">
         <v>55.265435959055701</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="46" t="s">
+      <c r="A66" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="58">
+      <c r="C66" s="63">
         <v>7794082.4289999995</v>
       </c>
-      <c r="D66" s="58">
+      <c r="D66" s="64">
         <v>4359095.1367733497</v>
       </c>
-      <c r="E66" s="59">
+      <c r="E66" s="65">
         <v>3434987.2922266498</v>
       </c>
-      <c r="F66" s="58">
+      <c r="F66" s="63">
         <v>681406.84645713796</v>
       </c>
-      <c r="G66" s="58">
+      <c r="G66" s="64">
         <v>1267</v>
       </c>
-      <c r="H66" s="58">
+      <c r="H66" s="64">
         <v>1873890.7114959201</v>
       </c>
-      <c r="I66" s="59">
+      <c r="I66" s="65">
         <v>577</v>
       </c>
-      <c r="J66" s="60">
+      <c r="J66" s="66">
         <v>14.248326354094701</v>
       </c>
-      <c r="K66" s="60">
+      <c r="K66" s="66">
         <v>45.124234306524102</v>
       </c>
-      <c r="L66" s="61">
+      <c r="L66" s="67">
         <v>59.372560660618802</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="46" t="s">
+      <c r="A67" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="52" t="s">
+      <c r="B67" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="53">
+      <c r="C67" s="69">
         <v>609295.17700000003</v>
       </c>
-      <c r="D67" s="53">
+      <c r="D67" s="70">
         <v>211691.20718970001</v>
       </c>
-      <c r="E67" s="54">
+      <c r="E67" s="71">
         <v>397603.96981029998</v>
       </c>
-      <c r="F67" s="53">
+      <c r="F67" s="69">
         <v>26750.342980197802</v>
       </c>
-      <c r="G67" s="53">
+      <c r="G67" s="70">
         <v>50</v>
       </c>
-      <c r="H67" s="53">
+      <c r="H67" s="70">
         <v>89022.241589473706</v>
       </c>
-      <c r="I67" s="54">
+      <c r="I67" s="71">
         <v>23</v>
       </c>
-      <c r="J67" s="55">
+      <c r="J67" s="72">
         <v>6.8913965733272802</v>
       </c>
-      <c r="K67" s="55">
+      <c r="K67" s="72">
         <v>66.278995970978301</v>
       </c>
-      <c r="L67" s="56">
+      <c r="L67" s="73">
         <v>73.1703925443055</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="53">
+      <c r="C68" s="57">
         <v>653836.25699999998</v>
       </c>
-      <c r="D68" s="53">
+      <c r="D68" s="58">
         <v>306692.20724160998</v>
       </c>
-      <c r="E68" s="54">
+      <c r="E68" s="59">
         <v>347144.04975839</v>
       </c>
-      <c r="F68" s="53">
+      <c r="F68" s="57">
         <v>47444.0382172276</v>
       </c>
-      <c r="G68" s="53">
+      <c r="G68" s="58">
         <v>84</v>
       </c>
-      <c r="H68" s="53">
+      <c r="H68" s="58">
         <v>115414.467842848</v>
       </c>
-      <c r="I68" s="54">
+      <c r="I68" s="59">
         <v>36</v>
       </c>
-      <c r="J68" s="55">
+      <c r="J68" s="60">
         <v>6.22172239080375</v>
       </c>
-      <c r="K68" s="55">
+      <c r="K68" s="60">
         <v>73.412854916758107</v>
       </c>
-      <c r="L68" s="56">
+      <c r="L68" s="61">
         <v>79.634577307561898</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="46" t="s">
+      <c r="A69" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="52" t="s">
+      <c r="B69" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="53">
+      <c r="C69" s="57">
         <v>194067.72399999999</v>
       </c>
-      <c r="D69" s="53">
+      <c r="D69" s="58">
         <v>53479.970491450003</v>
       </c>
-      <c r="E69" s="54">
+      <c r="E69" s="59">
         <v>140587.75350855</v>
       </c>
-      <c r="F69" s="53">
+      <c r="F69" s="57">
         <v>4275.5125573650603</v>
       </c>
-      <c r="G69" s="53">
+      <c r="G69" s="58">
         <v>10</v>
       </c>
-      <c r="H69" s="53">
+      <c r="H69" s="58">
         <v>18827.700434365801</v>
       </c>
-      <c r="I69" s="54">
+      <c r="I69" s="59">
         <v>7</v>
       </c>
-      <c r="J69" s="55">
+      <c r="J69" s="60">
         <v>4.9228441844571398</v>
       </c>
-      <c r="K69" s="55">
+      <c r="K69" s="60">
         <v>80.784220330595204</v>
       </c>
-      <c r="L69" s="56">
+      <c r="L69" s="61">
         <v>85.707064515052295</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A70" s="46" t="s">
+      <c r="A70" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="53">
+      <c r="C70" s="57">
         <v>209936.48300000001</v>
       </c>
-      <c r="D70" s="53">
+      <c r="D70" s="58">
         <v>97361.918709499994</v>
       </c>
-      <c r="E70" s="54">
+      <c r="E70" s="59">
         <v>112574.5642905</v>
       </c>
-      <c r="F70" s="53">
+      <c r="F70" s="57">
         <v>15786.6091151235</v>
       </c>
-      <c r="G70" s="53">
+      <c r="G70" s="58">
         <v>26</v>
       </c>
-      <c r="H70" s="53">
+      <c r="H70" s="58">
         <v>47544.547920871599</v>
       </c>
-      <c r="I70" s="54">
+      <c r="I70" s="59">
         <v>14</v>
       </c>
-      <c r="J70" s="55">
+      <c r="J70" s="60">
         <v>5.3487638892856797</v>
       </c>
-      <c r="K70" s="55">
+      <c r="K70" s="60">
         <v>80.601716906601197</v>
       </c>
-      <c r="L70" s="56">
+      <c r="L70" s="61">
         <v>85.950480795886904</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" s="46" t="s">
+      <c r="A71" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="53">
+      <c r="C71" s="57">
         <v>403620.89299999998</v>
       </c>
-      <c r="D71" s="53">
+      <c r="D71" s="58">
         <v>192101.43452055001</v>
       </c>
-      <c r="E71" s="54">
+      <c r="E71" s="59">
         <v>211519.45847945</v>
       </c>
-      <c r="F71" s="53">
+      <c r="F71" s="57">
         <v>28477.541628974599</v>
       </c>
-      <c r="G71" s="53">
+      <c r="G71" s="58">
         <v>51</v>
       </c>
-      <c r="H71" s="53">
+      <c r="H71" s="58">
         <v>66040.8353701874</v>
       </c>
-      <c r="I71" s="54">
+      <c r="I71" s="59">
         <v>24</v>
       </c>
-      <c r="J71" s="55">
+      <c r="J71" s="60">
         <v>5.5221431923928304</v>
       </c>
-      <c r="K71" s="55">
+      <c r="K71" s="60">
         <v>76.344591749927304</v>
       </c>
-      <c r="L71" s="56">
+      <c r="L71" s="61">
         <v>81.866734942320207</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="46" t="s">
+      <c r="A72" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="52" t="s">
+      <c r="B72" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="53">
+      <c r="C72" s="57">
         <v>289811.05499999999</v>
       </c>
-      <c r="D72" s="53">
+      <c r="D72" s="58">
         <v>78819.257073939996</v>
       </c>
-      <c r="E72" s="54">
+      <c r="E72" s="59">
         <v>210991.79792606001</v>
       </c>
-      <c r="F72" s="53">
+      <c r="F72" s="57">
         <v>9514.2104327033703</v>
       </c>
-      <c r="G72" s="53">
+      <c r="G72" s="58">
         <v>20</v>
       </c>
-      <c r="H72" s="53">
+      <c r="H72" s="58">
         <v>23254.681950982798</v>
       </c>
-      <c r="I72" s="54">
+      <c r="I72" s="59">
         <v>7</v>
       </c>
-      <c r="J72" s="55">
+      <c r="J72" s="60">
         <v>5.5360540846285797</v>
       </c>
-      <c r="K72" s="55">
+      <c r="K72" s="60">
         <v>75.368551885584395</v>
       </c>
-      <c r="L72" s="56">
+      <c r="L72" s="61">
         <v>80.904605970212998</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B73" s="52" t="s">
+      <c r="B73" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="53">
+      <c r="C73" s="57">
         <v>370845.73100000003</v>
       </c>
-      <c r="D73" s="53">
+      <c r="D73" s="58">
         <v>170234.86317463001</v>
       </c>
-      <c r="E73" s="54">
+      <c r="E73" s="59">
         <v>200610.86782536999</v>
       </c>
-      <c r="F73" s="53">
+      <c r="F73" s="57">
         <v>26118.140787504799</v>
       </c>
-      <c r="G73" s="53">
+      <c r="G73" s="58">
         <v>45</v>
       </c>
-      <c r="H73" s="53">
+      <c r="H73" s="58">
         <v>72871.852597682097</v>
       </c>
-      <c r="I73" s="54">
+      <c r="I73" s="59">
         <v>21</v>
       </c>
-      <c r="J73" s="55">
+      <c r="J73" s="60">
         <v>6.9957333131273298</v>
       </c>
-      <c r="K73" s="55">
+      <c r="K73" s="60">
         <v>65.328585841215798</v>
       </c>
-      <c r="L73" s="56">
+      <c r="L73" s="61">
         <v>72.324319154343101</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" s="46" t="s">
+      <c r="A74" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="52" t="s">
+      <c r="B74" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="C74" s="53">
+      <c r="C74" s="57">
         <v>103454.70699999999</v>
       </c>
-      <c r="D74" s="53">
+      <c r="D74" s="58">
         <v>71666.06994976</v>
       </c>
-      <c r="E74" s="54">
+      <c r="E74" s="59">
         <v>31788.637050239999</v>
       </c>
-      <c r="F74" s="53">
+      <c r="F74" s="57">
         <v>9866.1412371660808</v>
       </c>
-      <c r="G74" s="53">
-        <v>17</v>
-      </c>
-      <c r="H74" s="53">
+      <c r="G74" s="58">
+        <v>17</v>
+      </c>
+      <c r="H74" s="58">
         <v>15567.8495364346</v>
       </c>
-      <c r="I74" s="54">
+      <c r="I74" s="59">
         <v>8</v>
       </c>
-      <c r="J74" s="55">
+      <c r="J74" s="60">
         <v>9.3338156140044894</v>
       </c>
-      <c r="K74" s="55">
+      <c r="K74" s="60">
         <v>49.964021660544098</v>
       </c>
-      <c r="L74" s="56">
+      <c r="L74" s="61">
         <v>59.297837274548598</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="C75" s="58">
-        <v>69019.883000000002</v>
-      </c>
-      <c r="D75" s="58">
-        <v>36506.142800180001</v>
-      </c>
-      <c r="E75" s="59">
-        <v>32513.74019982</v>
-      </c>
-      <c r="F75" s="58">
-        <v>8836.0062940781208</v>
-      </c>
-      <c r="G75" s="58">
-        <v>15</v>
-      </c>
-      <c r="H75" s="58">
+      <c r="C75" s="63">
+        <v>67423.834000000003</v>
+      </c>
+      <c r="D75" s="64">
+        <v>35339.430981179998</v>
+      </c>
+      <c r="E75" s="65">
+        <v>32084.403018820001</v>
+      </c>
+      <c r="F75" s="63">
+        <v>8364.6981134668604</v>
+      </c>
+      <c r="G75" s="64">
+        <v>14</v>
+      </c>
+      <c r="H75" s="64">
         <v>11200.099079647</v>
       </c>
-      <c r="I75" s="59">
+      <c r="I75" s="65">
         <v>3</v>
       </c>
-      <c r="J75" s="60">
-        <v>5.8389587991525902</v>
-      </c>
-      <c r="K75" s="60">
-        <v>70.311332220008694</v>
-      </c>
-      <c r="L75" s="61">
-        <v>76.150291019161301</v>
+      <c r="J75" s="66">
+        <v>5.9143493641997003</v>
+      </c>
+      <c r="K75" s="66">
+        <v>70.969935641346694</v>
+      </c>
+      <c r="L75" s="67">
+        <v>76.884285005546403</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="46" t="s">
+      <c r="A76" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B76" s="52" t="s">
+      <c r="B76" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="53">
+      <c r="C76" s="69">
         <v>668864.34100000001</v>
       </c>
-      <c r="D76" s="53">
+      <c r="D76" s="70">
         <v>335157.77365083998</v>
       </c>
-      <c r="E76" s="54">
+      <c r="E76" s="71">
         <v>333706.56734915997</v>
       </c>
-      <c r="F76" s="53">
+      <c r="F76" s="69">
         <v>45865.698790888302</v>
       </c>
-      <c r="G76" s="53">
+      <c r="G76" s="70">
         <v>86</v>
       </c>
-      <c r="H76" s="53">
+      <c r="H76" s="70">
         <v>111911.025125888</v>
       </c>
-      <c r="I76" s="54">
+      <c r="I76" s="71">
         <v>34</v>
       </c>
-      <c r="J76" s="55">
+      <c r="J76" s="72">
         <v>10.956319054145199</v>
       </c>
-      <c r="K76" s="55">
+      <c r="K76" s="72">
         <v>35.453312508884899</v>
       </c>
-      <c r="L76" s="56">
+      <c r="L76" s="73">
         <v>46.409631563030203</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" s="46" t="s">
+      <c r="A77" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="52" t="s">
+      <c r="B77" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="C77" s="53">
+      <c r="C77" s="57">
         <v>431235.32699999999</v>
       </c>
-      <c r="D77" s="53">
+      <c r="D77" s="58">
         <v>364411.14120646002</v>
       </c>
-      <c r="E77" s="54">
+      <c r="E77" s="59">
         <v>66824.185793540004</v>
       </c>
-      <c r="F77" s="53">
+      <c r="F77" s="57">
         <v>43671.465281224897</v>
       </c>
-      <c r="G77" s="53">
+      <c r="G77" s="58">
         <v>87</v>
       </c>
-      <c r="H77" s="53">
+      <c r="H77" s="58">
         <v>174367.11460417099</v>
       </c>
-      <c r="I77" s="54">
+      <c r="I77" s="59">
         <v>48</v>
       </c>
-      <c r="J77" s="55">
+      <c r="J77" s="60">
         <v>13.2792324407827</v>
       </c>
-      <c r="K77" s="55">
+      <c r="K77" s="60">
         <v>38.4019397252221</v>
       </c>
-      <c r="L77" s="56">
+      <c r="L77" s="61">
         <v>51.681172166004799</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="46" t="s">
+      <c r="A78" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="C78" s="53">
+      <c r="C78" s="57">
         <v>445290.45299999998</v>
       </c>
-      <c r="D78" s="53">
+      <c r="D78" s="58">
         <v>333483.72905378003</v>
       </c>
-      <c r="E78" s="54">
+      <c r="E78" s="59">
         <v>111806.72394621999</v>
       </c>
-      <c r="F78" s="53">
+      <c r="F78" s="57">
         <v>51631.3883686154</v>
       </c>
-      <c r="G78" s="53">
+      <c r="G78" s="58">
         <v>102</v>
       </c>
-      <c r="H78" s="53">
+      <c r="H78" s="58">
         <v>76189.000616365694</v>
       </c>
-      <c r="I78" s="54">
+      <c r="I78" s="59">
         <v>32</v>
       </c>
-      <c r="J78" s="55">
+      <c r="J78" s="60">
         <v>30.5787280185951</v>
       </c>
-      <c r="K78" s="55">
+      <c r="K78" s="60">
         <v>23.822110727002499</v>
       </c>
-      <c r="L78" s="56">
+      <c r="L78" s="61">
         <v>54.400838745597703</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="46" t="s">
+      <c r="A79" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="C79" s="58">
+      <c r="C79" s="63">
         <v>1370360.7169999999</v>
       </c>
-      <c r="D79" s="58">
+      <c r="D79" s="64">
         <v>1110142.32269731</v>
       </c>
-      <c r="E79" s="59">
+      <c r="E79" s="65">
         <v>260218.39430268999</v>
       </c>
-      <c r="F79" s="58">
+      <c r="F79" s="63">
         <v>185807.068443492</v>
       </c>
-      <c r="G79" s="58">
+      <c r="G79" s="64">
         <v>352</v>
       </c>
-      <c r="H79" s="58">
+      <c r="H79" s="64">
         <v>515462.19508173002</v>
       </c>
-      <c r="I79" s="59">
+      <c r="I79" s="65">
         <v>152</v>
       </c>
-      <c r="J79" s="60">
+      <c r="J79" s="66">
         <v>27.617446965291201</v>
       </c>
-      <c r="K79" s="60">
+      <c r="K79" s="66">
         <v>26.1442230705292</v>
       </c>
-      <c r="L79" s="61">
+      <c r="L79" s="67">
         <v>53.761670035820401</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" s="46" t="s">
+      <c r="A80" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="52" t="s">
+      <c r="B80" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="53">
+      <c r="C80" s="69">
         <v>323178.239</v>
       </c>
-      <c r="D80" s="53">
+      <c r="D80" s="70">
         <v>181880.66938251999</v>
       </c>
-      <c r="E80" s="54">
+      <c r="E80" s="71">
         <v>141297.56961748001</v>
       </c>
-      <c r="F80" s="53">
+      <c r="F80" s="69">
         <v>33662.107755605903</v>
       </c>
-      <c r="G80" s="53">
+      <c r="G80" s="70">
         <v>58</v>
       </c>
-      <c r="H80" s="53">
+      <c r="H80" s="70">
         <v>54841.067049693796</v>
       </c>
-      <c r="I80" s="54">
+      <c r="I80" s="71">
         <v>18</v>
       </c>
-      <c r="J80" s="55">
+      <c r="J80" s="72">
         <v>6.2241226692176896</v>
       </c>
-      <c r="K80" s="55">
+      <c r="K80" s="72">
         <v>67.789598559894998</v>
       </c>
-      <c r="L80" s="56">
+      <c r="L80" s="73">
         <v>74.013721229112704</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" s="46" t="s">
+      <c r="A81" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B81" s="52" t="s">
+      <c r="B81" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="53">
+      <c r="C81" s="57">
         <v>498205.88500000001</v>
       </c>
-      <c r="D81" s="53">
+      <c r="D81" s="58">
         <v>347154.08509754</v>
       </c>
-      <c r="E81" s="54">
+      <c r="E81" s="59">
         <v>151051.79990246001</v>
       </c>
-      <c r="F81" s="53">
+      <c r="F81" s="57">
         <v>67939.649656450405</v>
       </c>
-      <c r="G81" s="53">
+      <c r="G81" s="58">
         <v>133</v>
       </c>
-      <c r="H81" s="53">
+      <c r="H81" s="58">
         <v>125112.825703394</v>
       </c>
-      <c r="I81" s="54">
+      <c r="I81" s="59">
         <v>53</v>
       </c>
-      <c r="J81" s="55">
+      <c r="J81" s="60">
         <v>8.1362611205763091</v>
       </c>
-      <c r="K81" s="55">
+      <c r="K81" s="60">
         <v>40.442528366795003</v>
       </c>
-      <c r="L81" s="56">
+      <c r="L81" s="61">
         <v>48.578789487371303</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A82" s="46" t="s">
+      <c r="A82" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="52" t="s">
+      <c r="B82" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="53">
+      <c r="C82" s="57">
         <v>1035674.1139999999</v>
       </c>
-      <c r="D82" s="53">
+      <c r="D82" s="58">
         <v>409564.76956926001</v>
       </c>
-      <c r="E82" s="54">
+      <c r="E82" s="59">
         <v>626109.34443073999</v>
       </c>
-      <c r="F82" s="53">
+      <c r="F82" s="57">
         <v>50423.772502589403</v>
       </c>
-      <c r="G82" s="53">
+      <c r="G82" s="58">
         <v>94</v>
       </c>
-      <c r="H82" s="53">
+      <c r="H82" s="58">
         <v>165278.78417827599</v>
       </c>
-      <c r="I82" s="54">
+      <c r="I82" s="59">
         <v>51</v>
       </c>
-      <c r="J82" s="55">
+      <c r="J82" s="60">
         <v>6.3406610310966496</v>
       </c>
-      <c r="K82" s="55">
+      <c r="K82" s="60">
         <v>71.054544609372698</v>
       </c>
-      <c r="L82" s="56">
+      <c r="L82" s="61">
         <v>77.3952056404693</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="46" t="s">
+      <c r="A83" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B83" s="57" t="s">
+      <c r="B83" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="C83" s="58">
+      <c r="C83" s="63">
         <v>5937024.1909999996</v>
       </c>
-      <c r="D83" s="58">
+      <c r="D83" s="64">
         <v>3420495.6127240299</v>
       </c>
-      <c r="E83" s="59">
+      <c r="E83" s="65">
         <v>2516528.5782759702</v>
       </c>
-      <c r="F83" s="58">
+      <c r="F83" s="63">
         <v>529381.31654249202</v>
       </c>
-      <c r="G83" s="58">
+      <c r="G83" s="64">
         <v>982</v>
       </c>
-      <c r="H83" s="58">
+      <c r="H83" s="64">
         <v>1528658.03456455</v>
       </c>
-      <c r="I83" s="59">
+      <c r="I83" s="65">
         <v>455</v>
       </c>
-      <c r="J83" s="60">
+      <c r="J83" s="66">
         <v>19.0572558087792</v>
       </c>
-      <c r="K83" s="60">
+      <c r="K83" s="66">
         <v>34.315774775028302</v>
       </c>
-      <c r="L83" s="61">
+      <c r="L83" s="67">
         <v>53.373030583807498</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" s="46" t="s">
+      <c r="A84" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="52" t="s">
+      <c r="B84" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="C84" s="53">
+      <c r="C84" s="69">
         <v>562362.48300000001</v>
       </c>
-      <c r="D84" s="53">
+      <c r="D84" s="70">
         <v>178860.96167397001</v>
       </c>
-      <c r="E84" s="54">
+      <c r="E84" s="71">
         <v>383501.52132603002</v>
       </c>
-      <c r="F84" s="53">
+      <c r="F84" s="69">
         <v>20517.6750815413</v>
       </c>
-      <c r="G84" s="53">
+      <c r="G84" s="70">
         <v>38</v>
       </c>
-      <c r="H84" s="53">
+      <c r="H84" s="70">
         <v>66606.470428089393</v>
       </c>
-      <c r="I84" s="54">
+      <c r="I84" s="71">
         <v>26</v>
       </c>
-      <c r="J84" s="55">
+      <c r="J84" s="72">
         <v>5.271444860181</v>
       </c>
-      <c r="K84" s="55">
+      <c r="K84" s="72">
         <v>82.388161255102105</v>
       </c>
-      <c r="L84" s="56">
+      <c r="L84" s="73">
         <v>87.659606115283097</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="46" t="s">
+      <c r="A85" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="52" t="s">
+      <c r="B85" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="C85" s="53">
+      <c r="C85" s="57">
         <v>117896.338</v>
       </c>
-      <c r="D85" s="53">
+      <c r="D85" s="58">
         <v>50041.130403000003</v>
       </c>
-      <c r="E85" s="54">
+      <c r="E85" s="59">
         <v>67855.207597000001</v>
       </c>
-      <c r="F85" s="53">
+      <c r="F85" s="57">
         <v>9314.4230916271499</v>
       </c>
-      <c r="G85" s="53">
-        <v>17</v>
-      </c>
-      <c r="H85" s="53">
+      <c r="G85" s="58">
+        <v>17</v>
+      </c>
+      <c r="H85" s="58">
         <v>18838.018391882801</v>
       </c>
-      <c r="I85" s="54">
+      <c r="I85" s="59">
         <v>8</v>
       </c>
-      <c r="J85" s="55">
+      <c r="J85" s="60">
         <v>8.1509558587241209</v>
       </c>
-      <c r="K85" s="55">
+      <c r="K85" s="60">
         <v>58.897306127614101</v>
       </c>
-      <c r="L85" s="56">
+      <c r="L85" s="61">
         <v>67.048261986338204</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="46" t="s">
+      <c r="A86" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="52" t="s">
+      <c r="B86" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="53">
+      <c r="C86" s="57">
         <v>720706.522</v>
       </c>
-      <c r="D86" s="53">
+      <c r="D86" s="58">
         <v>360688.07031991001</v>
       </c>
-      <c r="E86" s="54">
+      <c r="E86" s="59">
         <v>360018.45168008999</v>
       </c>
-      <c r="F86" s="53">
+      <c r="F86" s="57">
         <v>54382.094131558697</v>
       </c>
-      <c r="G86" s="53">
+      <c r="G86" s="58">
         <v>100</v>
       </c>
-      <c r="H86" s="53">
+      <c r="H86" s="58">
         <v>131048.218041133</v>
       </c>
-      <c r="I86" s="54">
+      <c r="I86" s="59">
         <v>36</v>
       </c>
-      <c r="J86" s="55">
+      <c r="J86" s="60">
         <v>6.5869907357302502</v>
       </c>
-      <c r="K86" s="55">
+      <c r="K86" s="60">
         <v>66.164013647214503</v>
       </c>
-      <c r="L86" s="56">
+      <c r="L86" s="61">
         <v>72.7510043829447</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A87" s="46" t="s">
+      <c r="A87" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="52" t="s">
+      <c r="B87" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="C87" s="53">
+      <c r="C87" s="57">
         <v>2643981.3319999999</v>
       </c>
-      <c r="D87" s="53">
+      <c r="D87" s="58">
         <v>1065577.9979455599</v>
       </c>
-      <c r="E87" s="54">
+      <c r="E87" s="59">
         <v>1578403.33405444</v>
       </c>
-      <c r="F87" s="53">
+      <c r="F87" s="57">
         <v>125051.26745685699</v>
       </c>
-      <c r="G87" s="53">
+      <c r="G87" s="58">
         <v>236</v>
       </c>
-      <c r="H87" s="53">
+      <c r="H87" s="58">
         <v>428076.02892605</v>
       </c>
-      <c r="I87" s="54">
+      <c r="I87" s="59">
         <v>125</v>
       </c>
-      <c r="J87" s="55">
+      <c r="J87" s="60">
         <v>8.8946147899141206</v>
       </c>
-      <c r="K87" s="55">
+      <c r="K87" s="60">
         <v>48.137045543959999</v>
       </c>
-      <c r="L87" s="56">
-        <v>57.0316603338741</v>
+      <c r="L87" s="61">
+        <v>57.0316603338742</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="46" t="s">
+      <c r="A88" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="52" t="s">
+      <c r="B88" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="C88" s="53">
+      <c r="C88" s="57">
         <v>75677.817999999999</v>
       </c>
-      <c r="D88" s="53">
+      <c r="D88" s="58">
         <v>51835.6786641</v>
       </c>
-      <c r="E88" s="54">
+      <c r="E88" s="59">
         <v>23842.139335899999</v>
       </c>
-      <c r="F88" s="53">
+      <c r="F88" s="57">
         <v>9186.1110450953292</v>
       </c>
-      <c r="G88" s="53">
+      <c r="G88" s="58">
         <v>14</v>
       </c>
-      <c r="H88" s="53">
+      <c r="H88" s="58">
         <v>22465.162758746501</v>
       </c>
-      <c r="I88" s="54">
+      <c r="I88" s="59">
         <v>7</v>
       </c>
-      <c r="J88" s="55">
+      <c r="J88" s="60">
         <v>8.2032432464491993</v>
       </c>
-      <c r="K88" s="55">
+      <c r="K88" s="60">
         <v>50.568601571469003</v>
       </c>
-      <c r="L88" s="56">
+      <c r="L88" s="61">
         <v>58.7718448179182</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" s="46" t="s">
+      <c r="A89" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B89" s="52" t="s">
+      <c r="B89" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="C89" s="53">
+      <c r="C89" s="57">
         <v>2464068.906</v>
       </c>
-      <c r="D89" s="53">
+      <c r="D89" s="58">
         <v>1662683.2586767599</v>
       </c>
-      <c r="E89" s="54">
+      <c r="E89" s="59">
         <v>801385.64732323994</v>
       </c>
-      <c r="F89" s="53">
+      <c r="F89" s="57">
         <v>300004.21407803701</v>
       </c>
-      <c r="G89" s="53">
+      <c r="G89" s="58">
         <v>549</v>
       </c>
-      <c r="H89" s="53">
+      <c r="H89" s="58">
         <v>754364.92256360105</v>
       </c>
-      <c r="I89" s="54">
+      <c r="I89" s="59">
         <v>238</v>
       </c>
-      <c r="J89" s="55">
+      <c r="J89" s="60">
         <v>15.205654563732001</v>
       </c>
-      <c r="K89" s="55">
+      <c r="K89" s="60">
         <v>35.863544985080502</v>
       </c>
-      <c r="L89" s="56">
+      <c r="L89" s="61">
         <v>51.069199548812399</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="46" t="s">
+      <c r="A90" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="57" t="s">
+      <c r="B90" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="C90" s="58">
+      <c r="C90" s="63">
         <v>1180898.577</v>
       </c>
-      <c r="D90" s="58">
+      <c r="D90" s="64">
         <v>964256.95208618103</v>
       </c>
-      <c r="E90" s="59">
+      <c r="E90" s="65">
         <v>216641.62491382001</v>
       </c>
-      <c r="F90" s="58">
+      <c r="F90" s="63">
         <v>158585.603979234</v>
       </c>
-      <c r="G90" s="58">
+      <c r="G90" s="64">
         <v>304</v>
       </c>
-      <c r="H90" s="58">
+      <c r="H90" s="64">
         <v>444311.44457955298</v>
       </c>
-      <c r="I90" s="59">
+      <c r="I90" s="65">
         <v>132</v>
       </c>
-      <c r="J90" s="60">
+      <c r="J90" s="66">
         <v>24.127206820607299</v>
       </c>
-      <c r="K90" s="60">
+      <c r="K90" s="66">
         <v>26.1361092802942</v>
       </c>
-      <c r="L90" s="61">
+      <c r="L90" s="67">
         <v>50.263316100901498</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A91" s="46" t="s">
+      <c r="A91" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B91" s="52" t="s">
+      <c r="B91" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="C91" s="53">
+      <c r="C91" s="69">
         <v>714370.11199999996</v>
       </c>
-      <c r="D91" s="53">
+      <c r="D91" s="70">
         <v>249807.68585327</v>
       </c>
-      <c r="E91" s="54">
+      <c r="E91" s="71">
         <v>464562.42614673002</v>
       </c>
-      <c r="F91" s="53">
+      <c r="F91" s="69">
         <v>32242.483151528199</v>
       </c>
-      <c r="G91" s="53">
+      <c r="G91" s="70">
         <v>59</v>
       </c>
-      <c r="H91" s="53">
+      <c r="H91" s="70">
         <v>90927.539736478895</v>
       </c>
-      <c r="I91" s="54">
+      <c r="I91" s="71">
         <v>33</v>
       </c>
-      <c r="J91" s="55">
+      <c r="J91" s="72">
         <v>5.4857228195511496</v>
       </c>
-      <c r="K91" s="55">
+      <c r="K91" s="72">
         <v>79.476042103303996</v>
       </c>
-      <c r="L91" s="56">
+      <c r="L91" s="73">
         <v>84.961764922855195</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" s="46" t="s">
+      <c r="A92" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B92" s="52" t="s">
+      <c r="B92" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="C92" s="53">
+      <c r="C92" s="57">
         <v>359373.33600000001</v>
       </c>
-      <c r="D92" s="53">
+      <c r="D92" s="58">
         <v>123039.02128951999</v>
       </c>
-      <c r="E92" s="54">
+      <c r="E92" s="59">
         <v>236334.31471047999</v>
       </c>
-      <c r="F92" s="53">
+      <c r="F92" s="57">
         <v>12410.865434568301</v>
       </c>
-      <c r="G92" s="53">
+      <c r="G92" s="58">
         <v>20</v>
       </c>
-      <c r="H92" s="53">
+      <c r="H92" s="58">
         <v>46982.905976334703</v>
       </c>
-      <c r="I92" s="54">
+      <c r="I92" s="59">
         <v>10</v>
       </c>
-      <c r="J92" s="55">
+      <c r="J92" s="60">
         <v>7.5338582435182699</v>
       </c>
-      <c r="K92" s="55">
+      <c r="K92" s="60">
         <v>53.603708331114497</v>
       </c>
-      <c r="L92" s="56">
+      <c r="L92" s="61">
         <v>61.1375665746328</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" s="46" t="s">
+      <c r="A93" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B93" s="52" t="s">
+      <c r="B93" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="C93" s="53">
+      <c r="C93" s="57">
         <v>5026.6329999999998</v>
       </c>
-      <c r="D93" s="53">
+      <c r="D93" s="58">
         <v>2268.3994422199999</v>
       </c>
-      <c r="E93" s="54">
+      <c r="E93" s="59">
         <v>2758.23355778</v>
       </c>
-      <c r="F93" s="53">
+      <c r="F93" s="57">
         <v>604.25046168579502</v>
       </c>
-      <c r="G93" s="53">
+      <c r="G93" s="58">
         <v>1</v>
       </c>
-      <c r="H93" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="I93" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="J93" s="55">
+      <c r="H93" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="60">
         <v>9.1564362557872805</v>
       </c>
-      <c r="K93" s="55">
+      <c r="K93" s="60">
         <v>51.793643347386897</v>
       </c>
-      <c r="L93" s="56">
+      <c r="L93" s="61">
         <v>60.950079603174203</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A94" s="46" t="s">
+      <c r="A94" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B94" s="52" t="s">
+      <c r="B94" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C94" s="53">
+      <c r="C94" s="57">
         <v>62570.163</v>
       </c>
-      <c r="D94" s="53">
+      <c r="D94" s="58">
         <v>38252.488640659998</v>
       </c>
-      <c r="E94" s="54">
+      <c r="E94" s="59">
         <v>24317.674359339999</v>
       </c>
-      <c r="F94" s="53">
+      <c r="F94" s="57">
         <v>3542.9484040411598</v>
       </c>
-      <c r="G94" s="53">
+      <c r="G94" s="58">
         <v>7</v>
       </c>
-      <c r="H94" s="53">
+      <c r="H94" s="58">
         <v>14057.192162612801</v>
       </c>
-      <c r="I94" s="54">
+      <c r="I94" s="59">
         <v>4</v>
       </c>
-      <c r="J94" s="55">
+      <c r="J94" s="60">
         <v>10.609592498659801</v>
       </c>
-      <c r="K94" s="55">
+      <c r="K94" s="60">
         <v>42.081712022565704</v>
       </c>
-      <c r="L94" s="56">
+      <c r="L94" s="61">
         <v>52.691304521225398</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" s="46" t="s">
+      <c r="A95" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="52" t="s">
+      <c r="B95" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="53">
+      <c r="C95" s="57">
         <v>346591.962</v>
       </c>
-      <c r="D95" s="53">
+      <c r="D95" s="58">
         <v>88357.168577529999</v>
       </c>
-      <c r="E95" s="54">
+      <c r="E95" s="59">
         <v>258234.79342246999</v>
       </c>
-      <c r="F95" s="53">
+      <c r="F95" s="57">
         <v>6959.6426287476597</v>
       </c>
-      <c r="G95" s="53">
+      <c r="G95" s="58">
         <v>13</v>
       </c>
-      <c r="H95" s="53">
+      <c r="H95" s="58">
         <v>24860.834271379299</v>
       </c>
-      <c r="I95" s="54">
+      <c r="I95" s="59">
         <v>12</v>
       </c>
-      <c r="J95" s="55">
+      <c r="J95" s="60">
         <v>5.1070203451753304</v>
       </c>
-      <c r="K95" s="55">
+      <c r="K95" s="60">
         <v>80.109980985609198</v>
       </c>
-      <c r="L95" s="56">
+      <c r="L95" s="61">
         <v>85.217001330784498</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="46" t="s">
+      <c r="A96" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="57" t="s">
+      <c r="B96" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="C96" s="58">
+      <c r="C96" s="63">
         <v>191272.85</v>
       </c>
-      <c r="D96" s="58">
+      <c r="D96" s="64">
         <v>80169.125024449997</v>
       </c>
-      <c r="E96" s="59">
+      <c r="E96" s="65">
         <v>111103.72497554999</v>
       </c>
-      <c r="F96" s="58">
+      <c r="F96" s="63">
         <v>11120.9496393343</v>
       </c>
-      <c r="G96" s="58">
+      <c r="G96" s="64">
         <v>23</v>
       </c>
-      <c r="H96" s="58">
+      <c r="H96" s="64">
         <v>26678.9922823169</v>
       </c>
-      <c r="I96" s="59">
+      <c r="I96" s="65">
         <v>14</v>
       </c>
-      <c r="J96" s="60">
+      <c r="J96" s="66">
         <v>10.1004571732388</v>
       </c>
-      <c r="K96" s="60">
+      <c r="K96" s="66">
         <v>45.695951506624397</v>
       </c>
-      <c r="L96" s="61">
+      <c r="L96" s="67">
         <v>55.796408679863198</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A97" s="46" t="s">
+      <c r="A97" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B97" s="52" t="s">
+      <c r="B97" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="C97" s="53">
+      <c r="C97" s="69">
         <v>996967.35199999996</v>
       </c>
-      <c r="D97" s="53">
+      <c r="D97" s="70">
         <v>397594.95270134002</v>
       </c>
-      <c r="E97" s="54">
+      <c r="E97" s="71">
         <v>599372.39929865999</v>
       </c>
-      <c r="F97" s="53">
+      <c r="F97" s="69">
         <v>58762.341310541997</v>
       </c>
-      <c r="G97" s="53">
+      <c r="G97" s="70">
         <v>107</v>
       </c>
-      <c r="H97" s="53">
+      <c r="H97" s="70">
         <v>145869.11595511399</v>
       </c>
-      <c r="I97" s="54">
+      <c r="I97" s="71">
         <v>49</v>
       </c>
-      <c r="J97" s="55">
+      <c r="J97" s="72">
         <v>5.4597651172947002</v>
       </c>
-      <c r="K97" s="55">
+      <c r="K97" s="72">
         <v>77.441803446143396</v>
       </c>
-      <c r="L97" s="56">
+      <c r="L97" s="73">
         <v>82.901568563438104</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="46" t="s">
+      <c r="A98" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B98" s="57" t="s">
+      <c r="B98" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="C98" s="58">
+      <c r="C98" s="63">
         <v>813522.33100000001</v>
       </c>
-      <c r="D98" s="58">
+      <c r="D98" s="64">
         <v>372657.95568966999</v>
       </c>
-      <c r="E98" s="59">
+      <c r="E98" s="65">
         <v>440864.37531033001</v>
       </c>
-      <c r="F98" s="58">
+      <c r="F98" s="63">
         <v>48755.192936924403</v>
       </c>
-      <c r="G98" s="58">
+      <c r="G98" s="64">
         <v>87</v>
       </c>
-      <c r="H98" s="58">
+      <c r="H98" s="64">
         <v>153883.076336147</v>
       </c>
-      <c r="I98" s="59">
+      <c r="I98" s="65">
         <v>45</v>
       </c>
-      <c r="J98" s="60">
+      <c r="J98" s="66">
         <v>7.7089175178284401</v>
       </c>
-      <c r="K98" s="60">
+      <c r="K98" s="66">
         <v>52.823814842535697</v>
       </c>
-      <c r="L98" s="61">
+      <c r="L98" s="67">
         <v>60.532732360364101</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" s="62"/>
-      <c r="B99" s="63"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="64"/>
-      <c r="G99" s="64"/>
-      <c r="H99" s="64"/>
-      <c r="I99" s="64"/>
-      <c r="J99" s="64"/>
-      <c r="K99" s="64"/>
-      <c r="L99" s="64"/>
+      <c r="A99" s="74"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="45"/>
+      <c r="K99" s="45"/>
+      <c r="L99" s="45"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="76"/>
+      <c r="I100" s="76"/>
+      <c r="J100" s="76"/>
+      <c r="K100" s="76"/>
+      <c r="L100" s="76"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="76"/>
+      <c r="H101" s="76"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="76"/>
+      <c r="K101" s="76"/>
+      <c r="L101" s="76"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="76"/>
+      <c r="I102" s="76"/>
+      <c r="J102" s="76"/>
+      <c r="K102" s="76"/>
+      <c r="L102" s="76"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="76"/>
+      <c r="K103" s="76"/>
+      <c r="L103" s="76"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
+      <c r="H104" s="76"/>
+      <c r="I104" s="76"/>
+      <c r="J104" s="76"/>
+      <c r="K104" s="76"/>
+      <c r="L104" s="76"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="76"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="76"/>
+      <c r="K105" s="76"/>
+      <c r="L105" s="76"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="76"/>
+      <c r="I106" s="76"/>
+      <c r="J106" s="76"/>
+      <c r="K106" s="76"/>
+      <c r="L106" s="76"/>
     </row>
     <row r="107" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="66" t="s">
+      <c r="B107" s="77" t="s">
         <v>170</v>
       </c>
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="76"/>
+      <c r="I107" s="76"/>
+      <c r="J107" s="76"/>
+      <c r="K107" s="76"/>
+      <c r="L107" s="76"/>
     </row>
     <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="66"/>
+      <c r="B108" s="77"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="76"/>
+      <c r="I108" s="76"/>
+      <c r="J108" s="76"/>
+      <c r="K108" s="76"/>
+      <c r="L108" s="76"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="76"/>
+      <c r="I109" s="76"/>
+      <c r="J109" s="76"/>
+      <c r="K109" s="76"/>
+      <c r="L109" s="76"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="76"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="76"/>
+      <c r="I110" s="76"/>
+      <c r="J110" s="76"/>
+      <c r="K110" s="76"/>
+      <c r="L110" s="76"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B111" s="2"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="76"/>
+      <c r="I111" s="76"/>
+      <c r="J111" s="76"/>
+      <c r="K111" s="76"/>
+      <c r="L111" s="76"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C112" s="76"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="76"/>
+      <c r="I112" s="76"/>
+      <c r="J112" s="76"/>
+      <c r="K112" s="76"/>
+      <c r="L112" s="76"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
         <v>174</v>
       </c>
+      <c r="C113" s="76"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="76"/>
+      <c r="I113" s="76"/>
+      <c r="J113" s="76"/>
+      <c r="K113" s="76"/>
+      <c r="L113" s="76"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B114" s="2"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+      <c r="K114" s="76"/>
+      <c r="L114" s="76"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{6662C2FB-2736-4C73-91F8-3A4EC7F61F6D}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F2F785AB-58CB-4681-9283-970773767E22}"/>
-    <hyperlink ref="B107" r:id="rId1" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{3031917E-4B84-4C55-976F-8C73E854FF7E}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{DCA951C4-5CC9-4584-AE45-BFD84E969DA6}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{95B2C682-410E-4CAD-AD03-F90FBDAD96EA}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{750DC14E-E23F-4F21-8C1A-E86388FCAE39}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{76862F61-AFEF-42E3-BB5D-46B92958434A}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{7BB21DF3-A6CE-481C-A9E6-6FBB893B7D82}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3BDA4844-AE0E-4077-BA99-B57FC2FBB1B8}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{A2663E2A-A510-4161-AB78-995D6B9E24D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab05.xlsx
+++ b/AfDD_2023_Annex_Table_Tab05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF0BDF7B-89D0-4DDA-ADEF-D296688D0192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC48880-666A-4D8C-88A7-4D20322FA5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{5BD0B1D1-910F-45A6-A279-DC25B96CED7A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{557E428E-B6B1-45AD-9DEC-F815F2F839FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: United Nations Department of Economic and Social Affairs Population Division World Population Prospects: the 2022 Revision and World Urbanization Prospects 2018.</t>
@@ -1443,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B8C36B-7682-43CF-A45C-70A39C1EA5C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1163EAA-4548-4E4B-AD63-C722F197DFBC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2878,7 +2878,7 @@
         <v>67.749654622490098</v>
       </c>
       <c r="L38" s="34">
-        <v>74.639998122487796</v>
+        <v>74.639998122487697</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -4816,7 +4816,7 @@
         <v>35.863544985080502</v>
       </c>
       <c r="L89" s="61">
-        <v>51.069199548812399</v>
+        <v>51.069199548812499</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5390,11 +5390,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{750DC14E-E23F-4F21-8C1A-E86388FCAE39}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{76862F61-AFEF-42E3-BB5D-46B92958434A}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{7BB21DF3-A6CE-481C-A9E6-6FBB893B7D82}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3BDA4844-AE0E-4077-BA99-B57FC2FBB1B8}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{A2663E2A-A510-4161-AB78-995D6B9E24D5}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E4135E59-A47D-4B3C-A26C-5DC138060BA6}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{ED42FE82-4B60-49FA-8A01-A2E39186BA25}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{76D795CB-255D-44B5-8F7C-29ED079984B6}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{74597F65-3ADF-4E8A-9E62-3735FD17B5C6}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{073DD1CE-DF9F-463C-B9CD-A6A54BE38CC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab05.xlsx
+++ b/AfDD_2023_Annex_Table_Tab05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC48880-666A-4D8C-88A7-4D20322FA5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{555B0133-9785-4B7B-A607-C5B214ECE501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{557E428E-B6B1-45AD-9DEC-F815F2F839FF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{08D2BC9A-2CC7-4345-A329-E15FFBB2451E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab05'!$A$2:$L$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab05'!$A$1:$L$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,34 +48,34 @@
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
-    <t>Population (thousands), 2020</t>
-  </si>
-  <si>
-    <t>Urban population (thousands), 2020</t>
-  </si>
-  <si>
-    <t>Rural population (thousands), 2020</t>
-  </si>
-  <si>
-    <t>Population living in urban agglomerations of 300,000 to 1 million inhabitants (thousands), 2020</t>
-  </si>
-  <si>
-    <t>Number of urban agglomerations of 300,000 to 1 million inhabitants, 2020</t>
-  </si>
-  <si>
-    <t>Population living in urban agglomerations of over 1 million inhabitants (thousands), 2020</t>
-  </si>
-  <si>
-    <t>Number of urban agglomerations of over 1 million inhabitants, 2020</t>
-  </si>
-  <si>
-    <t>Old-age dependency ratio 65+/(15-64)*100, 2020</t>
-  </si>
-  <si>
-    <t>Child dependency ratio &lt;15/(15-64)*100, 2020</t>
-  </si>
-  <si>
-    <t>Total dependency ratio (child dependency ratio + old-age dependency ratio), 2020</t>
+    <t>Population (thousands), 2022</t>
+  </si>
+  <si>
+    <t>Urban population (thousands), 2022</t>
+  </si>
+  <si>
+    <t>Rural population (thousands), 2022</t>
+  </si>
+  <si>
+    <t>Population living in urban agglomerations of 300,000 to 1 million inhabitants (thousands), 2022</t>
+  </si>
+  <si>
+    <t>Number of urban agglomerations of 300,000 to 1 million inhabitants, 2022</t>
+  </si>
+  <si>
+    <t>Population living in urban agglomerations of over 1 million inhabitants (thousands), 2022</t>
+  </si>
+  <si>
+    <t>Number of urban agglomerations of over 1 million inhabitants, 2022</t>
+  </si>
+  <si>
+    <t>Old-age dependency ratio 65+/(15-64)*100, 2022</t>
+  </si>
+  <si>
+    <t>Child dependency ratio &lt;15/(15-64)*100, 2022</t>
+  </si>
+  <si>
+    <t>Total dependency ratio (child dependency ratio + old-age dependency ratio), 2022</t>
   </si>
   <si>
     <t>AGO</t>
@@ -267,7 +267,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -399,7 +399,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -546,7 +546,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Source: United Nations Department of Economic and Social Affairs Population Division World Population Prospects: the 2022 Revision and World Urbanization Prospects 2018.</t>
+    <t>Source: World Population Prospects: the 2022 Revision and World Urbanization Prospects 2018 - United Nations Department of Economic and Social Affairs Population Division.</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -1443,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1163EAA-4548-4E4B-AD63-C722F197DFBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18549190-99C7-47CE-BB61-5711ACA615C9}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1521,34 +1521,34 @@
         <v>14</v>
       </c>
       <c r="C3" s="11">
-        <v>33428.485999999997</v>
+        <v>35588.987000000001</v>
       </c>
       <c r="D3" s="12">
-        <v>22338.585769500001</v>
+        <v>24229.338239469998</v>
       </c>
       <c r="E3" s="13">
-        <v>11089.900230499999</v>
+        <v>11359.648760530001</v>
       </c>
       <c r="F3" s="11">
-        <v>5223.9184326896902</v>
+        <v>5741.3599441631904</v>
       </c>
       <c r="G3" s="12">
         <v>8</v>
       </c>
       <c r="H3" s="12">
-        <v>8482.3204805591595</v>
+        <v>9106.1939433800508</v>
       </c>
       <c r="I3" s="13">
         <v>1</v>
       </c>
       <c r="J3" s="14">
-        <v>4.9708607250249797</v>
+        <v>4.9634001150444602</v>
       </c>
       <c r="K3" s="14">
-        <v>86.955126331815805</v>
+        <v>85.931636946134006</v>
       </c>
       <c r="L3" s="15">
-        <v>91.925987056840796</v>
+        <v>90.895037061178499</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1559,13 +1559,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="17">
-        <v>2546.402</v>
+        <v>2630.2959999999998</v>
       </c>
       <c r="D4" s="18">
-        <v>1804.81334554</v>
+        <v>1899.7049830399999</v>
       </c>
       <c r="E4" s="19">
-        <v>741.58865446000004</v>
+        <v>730.59101696000005</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>17</v>
@@ -1580,13 +1580,13 @@
         <v>17</v>
       </c>
       <c r="J4" s="20">
-        <v>5.60754333389393</v>
+        <v>5.7326371741376203</v>
       </c>
       <c r="K4" s="20">
-        <v>52.418450486321397</v>
+        <v>51.1477203052794</v>
       </c>
       <c r="L4" s="21">
-        <v>58.025993820215298</v>
+        <v>56.880357479417</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -1597,13 +1597,13 @@
         <v>19</v>
       </c>
       <c r="C5" s="23">
-        <v>1180.655</v>
+        <v>1201.67</v>
       </c>
       <c r="D5" s="24">
-        <v>285.37612005</v>
+        <v>295.32241920000001</v>
       </c>
       <c r="E5" s="25">
-        <v>895.27887995000003</v>
+        <v>906.34758079999995</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>17</v>
@@ -1618,13 +1618,13 @@
         <v>17</v>
       </c>
       <c r="J5" s="26">
-        <v>6.5135523754560696</v>
+        <v>6.5276292141542402</v>
       </c>
       <c r="K5" s="26">
-        <v>58.468540351102703</v>
+        <v>56.592514565268203</v>
       </c>
       <c r="L5" s="27">
-        <v>64.982092726558804</v>
+        <v>63.120143779422399</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -1635,13 +1635,13 @@
         <v>21</v>
       </c>
       <c r="C6" s="23">
-        <v>2254.1</v>
+        <v>2305.826</v>
       </c>
       <c r="D6" s="24">
-        <v>654.32014800000002</v>
+        <v>690.43347917999995</v>
       </c>
       <c r="E6" s="25">
-        <v>1599.7798519999999</v>
+        <v>1615.3925208200001</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>17</v>
@@ -1656,13 +1656,13 @@
         <v>17</v>
       </c>
       <c r="J6" s="26">
-        <v>6.8404265592053397</v>
+        <v>6.7863250741113301</v>
       </c>
       <c r="K6" s="26">
-        <v>55.598553538253597</v>
+        <v>54.962688294688803</v>
       </c>
       <c r="L6" s="27">
-        <v>62.438980097458902</v>
+        <v>61.749013368800099</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -1673,34 +1673,34 @@
         <v>23</v>
       </c>
       <c r="C7" s="23">
-        <v>19377.061000000002</v>
+        <v>20405.316999999999</v>
       </c>
       <c r="D7" s="24">
-        <v>3376.84042047</v>
+        <v>3668.8759965999998</v>
       </c>
       <c r="E7" s="25">
-        <v>16000.22057953</v>
+        <v>16736.441003399999</v>
       </c>
       <c r="F7" s="23">
-        <v>890.59318735643399</v>
+        <v>946.65569162617498</v>
       </c>
       <c r="G7" s="24">
         <v>1</v>
       </c>
       <c r="H7" s="24">
-        <v>1071.58193569997</v>
+        <v>1163.0396269283999</v>
       </c>
       <c r="I7" s="25">
         <v>1</v>
       </c>
       <c r="J7" s="26">
-        <v>5.21467440730604</v>
+        <v>4.7604670571329804</v>
       </c>
       <c r="K7" s="26">
-        <v>81.7596590336166</v>
+        <v>77.725704275609701</v>
       </c>
       <c r="L7" s="27">
-        <v>86.974333440922607</v>
+        <v>82.4861713327427</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -1711,34 +1711,34 @@
         <v>25</v>
       </c>
       <c r="C8" s="23">
-        <v>31178.239000000001</v>
+        <v>32969.517999999996</v>
       </c>
       <c r="D8" s="24">
-        <v>11559.02032686</v>
+        <v>12590.06983866</v>
       </c>
       <c r="E8" s="25">
-        <v>19619.21867314</v>
+        <v>20379.448161339998</v>
       </c>
       <c r="F8" s="23">
-        <v>2536.5292190913801</v>
+        <v>2774.0714255387602</v>
       </c>
       <c r="G8" s="24">
         <v>5</v>
       </c>
       <c r="H8" s="24">
-        <v>2717.7785990878801</v>
+        <v>2832.6614726759099</v>
       </c>
       <c r="I8" s="25">
         <v>2</v>
       </c>
       <c r="J8" s="26">
-        <v>4.8567719628864703</v>
+        <v>4.7641316578042101</v>
       </c>
       <c r="K8" s="26">
-        <v>81.932084345612694</v>
+        <v>80.728345097770898</v>
       </c>
       <c r="L8" s="27">
-        <v>86.788856308499106</v>
+        <v>85.492476755575098</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -1749,16 +1749,16 @@
         <v>27</v>
       </c>
       <c r="C9" s="23">
-        <v>2489.098</v>
+        <v>2567.0120000000002</v>
       </c>
       <c r="D9" s="24">
-        <v>1295.1523623400001</v>
+        <v>1385.0569947199999</v>
       </c>
       <c r="E9" s="25">
-        <v>1193.9456376600001</v>
+        <v>1181.95500528</v>
       </c>
       <c r="F9" s="23">
-        <v>398.00190902553902</v>
+        <v>421.85966732444098</v>
       </c>
       <c r="G9" s="24">
         <v>1</v>
@@ -1770,13 +1770,13 @@
         <v>17</v>
       </c>
       <c r="J9" s="26">
-        <v>6.7478905279461401</v>
+        <v>6.6387373153291103</v>
       </c>
       <c r="K9" s="26">
-        <v>60.577946941870501</v>
+        <v>60.6131643672731</v>
       </c>
       <c r="L9" s="27">
-        <v>67.325837469816705</v>
+        <v>67.251901682602295</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1787,34 +1787,34 @@
         <v>29</v>
       </c>
       <c r="C10" s="23">
-        <v>58801.925999999999</v>
+        <v>59893.885000000002</v>
       </c>
       <c r="D10" s="24">
-        <v>39605.449238039997</v>
+        <v>40928.48631475</v>
       </c>
       <c r="E10" s="25">
-        <v>19196.476761959999</v>
+        <v>18965.398685249998</v>
       </c>
       <c r="F10" s="23">
-        <v>5724.6252066198103</v>
+        <v>5932.3049702362896</v>
       </c>
       <c r="G10" s="24">
         <v>9</v>
       </c>
       <c r="H10" s="24">
-        <v>21301.517201197999</v>
+        <v>22092.929982593902</v>
       </c>
       <c r="I10" s="25">
         <v>6</v>
       </c>
       <c r="J10" s="26">
-        <v>9.19484424043603</v>
+        <v>8.9892174703940597</v>
       </c>
       <c r="K10" s="26">
-        <v>44.038859524111302</v>
+        <v>43.5516223789108</v>
       </c>
       <c r="L10" s="27">
-        <v>53.2337037645474</v>
+        <v>52.540839849304803</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1825,34 +1825,34 @@
         <v>31</v>
       </c>
       <c r="C11" s="17">
-        <v>18927.715</v>
+        <v>20017.674999999999</v>
       </c>
       <c r="D11" s="18">
-        <v>8447.2499273499998</v>
+        <v>9160.2882567500001</v>
       </c>
       <c r="E11" s="19">
-        <v>10480.46507265</v>
+        <v>10857.386743249999</v>
       </c>
       <c r="F11" s="17">
-        <v>1244.74126424219</v>
+        <v>1320.18318048585</v>
       </c>
       <c r="G11" s="18">
         <v>2</v>
       </c>
       <c r="H11" s="18">
-        <v>2811.0301078684902</v>
+        <v>3074.6674948944901</v>
       </c>
       <c r="I11" s="19">
         <v>1</v>
       </c>
       <c r="J11" s="20">
-        <v>3.1688460806647401</v>
+        <v>3.15455609656328</v>
       </c>
       <c r="K11" s="20">
-        <v>80.015705639842196</v>
+        <v>77.364088680137101</v>
       </c>
       <c r="L11" s="21">
-        <v>83.184551720507002</v>
+        <v>80.518644776700299</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1863,34 +1863,34 @@
         <v>33</v>
       </c>
       <c r="C12" s="23">
-        <v>15669.665999999999</v>
+        <v>16320.537</v>
       </c>
       <c r="D12" s="24">
-        <v>5052.21371172</v>
+        <v>5287.0379611500002</v>
       </c>
       <c r="E12" s="25">
-        <v>10617.452288279999</v>
+        <v>11033.499038849999</v>
       </c>
       <c r="F12" s="23">
-        <v>908.10770928479496</v>
+        <v>921.102645923566</v>
       </c>
       <c r="G12" s="24">
         <v>2</v>
       </c>
       <c r="H12" s="24">
-        <v>1355.9222230139301</v>
+        <v>1378.8886498064301</v>
       </c>
       <c r="I12" s="25">
         <v>1</v>
       </c>
       <c r="J12" s="26">
-        <v>6.0868926919504096</v>
+        <v>5.9271784301092696</v>
       </c>
       <c r="K12" s="26">
-        <v>74.198369136892495</v>
+        <v>72.503466545850998</v>
       </c>
       <c r="L12" s="27">
-        <v>80.285261828842906</v>
+        <v>78.430644975960206</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1901,34 +1901,34 @@
         <v>35</v>
       </c>
       <c r="C13" s="30">
-        <v>185853.348</v>
+        <v>193900.723</v>
       </c>
       <c r="D13" s="31">
-        <v>94419.021369869995</v>
+        <v>100134.61448352</v>
       </c>
       <c r="E13" s="32">
-        <v>91434.326630130003</v>
+        <v>93766.108516480002</v>
       </c>
       <c r="F13" s="30">
-        <v>16926.5169283098</v>
+        <v>18057.537525298299</v>
       </c>
       <c r="G13" s="31">
         <v>28</v>
       </c>
       <c r="H13" s="31">
-        <v>37740.150547427402</v>
+        <v>39648.381170279201</v>
       </c>
       <c r="I13" s="32">
         <v>12</v>
       </c>
       <c r="J13" s="33">
-        <v>5.9202302904770097</v>
+        <v>5.8244279604780598</v>
       </c>
       <c r="K13" s="33">
-        <v>67.596329532943898</v>
+        <v>66.112095145692294</v>
       </c>
       <c r="L13" s="34">
-        <v>73.516559823421005</v>
+        <v>71.936523106170398</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -1939,13 +1939,13 @@
         <v>37</v>
       </c>
       <c r="C14" s="23">
-        <v>12220.226000000001</v>
+        <v>12889.575999999999</v>
       </c>
       <c r="D14" s="24">
-        <v>1675.1485800800001</v>
+        <v>1858.2901719199999</v>
       </c>
       <c r="E14" s="25">
-        <v>10545.07741992</v>
+        <v>11031.285828079999</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>17</v>
@@ -1954,19 +1954,19 @@
         <v>17</v>
       </c>
       <c r="H14" s="24">
-        <v>1036.8376492963901</v>
+        <v>1158.5087418170699</v>
       </c>
       <c r="I14" s="25">
         <v>1</v>
       </c>
       <c r="J14" s="26">
-        <v>4.8545413903679897</v>
+        <v>4.7964757587724502</v>
       </c>
       <c r="K14" s="26">
-        <v>91.945520579554</v>
+        <v>88.453021461433295</v>
       </c>
       <c r="L14" s="27">
-        <v>96.800061969921998</v>
+        <v>93.249497220205697</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -1977,34 +1977,34 @@
         <v>39</v>
       </c>
       <c r="C15" s="23">
-        <v>26491.087</v>
+        <v>27914.536</v>
       </c>
       <c r="D15" s="24">
-        <v>15248.2696772</v>
+        <v>16395.044428879999</v>
       </c>
       <c r="E15" s="25">
-        <v>11242.8173228</v>
+        <v>11519.491571119999</v>
       </c>
       <c r="F15" s="23">
-        <v>2333.2667239245202</v>
+        <v>2537.9640728353602</v>
       </c>
       <c r="G15" s="24">
         <v>5</v>
       </c>
       <c r="H15" s="24">
-        <v>7812.8027869170701</v>
+        <v>8455.6421795665101</v>
       </c>
       <c r="I15" s="25">
         <v>2</v>
       </c>
       <c r="J15" s="26">
-        <v>5.0093193650865597</v>
+        <v>4.8411377285554504</v>
       </c>
       <c r="K15" s="26">
-        <v>78.013981051200105</v>
+        <v>76.578885404420603</v>
       </c>
       <c r="L15" s="27">
-        <v>83.023300416286702</v>
+        <v>81.420023132975999</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -2015,34 +2015,34 @@
         <v>41</v>
       </c>
       <c r="C16" s="23">
-        <v>5343.02</v>
+        <v>5579.1440000000002</v>
       </c>
       <c r="D16" s="24">
-        <v>2254.6475796</v>
+        <v>2405.7268927999999</v>
       </c>
       <c r="E16" s="25">
-        <v>3088.3724204</v>
-      </c>
-      <c r="F16" s="23">
-        <v>965.51233275532104</v>
-      </c>
-      <c r="G16" s="24">
+        <v>3173.4171071999999</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="24">
+        <v>1014.4289527526799</v>
+      </c>
+      <c r="I16" s="25">
         <v>1</v>
       </c>
-      <c r="H16" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>17</v>
-      </c>
       <c r="J16" s="26">
-        <v>5.0270097734655597</v>
+        <v>5.0882032710059804</v>
       </c>
       <c r="K16" s="26">
-        <v>97.760691850992103</v>
+        <v>97.530112299647797</v>
       </c>
       <c r="L16" s="27">
-        <v>102.78770162445799</v>
+        <v>102.618315570654</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -2053,13 +2053,13 @@
         <v>43</v>
       </c>
       <c r="C17" s="36">
-        <v>16644.701000000001</v>
+        <v>17723.314999999999</v>
       </c>
       <c r="D17" s="37">
-        <v>3914.8336752</v>
+        <v>4264.7612884500004</v>
       </c>
       <c r="E17" s="38">
-        <v>12729.8673248</v>
+        <v>13458.553711549999</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>17</v>
@@ -2068,19 +2068,19 @@
         <v>17</v>
       </c>
       <c r="H17" s="37">
-        <v>1453.95973320183</v>
+        <v>1574.1338981229601</v>
       </c>
       <c r="I17" s="38">
         <v>1</v>
       </c>
       <c r="J17" s="39">
-        <v>4.0531061974201599</v>
+        <v>3.9782103021694901</v>
       </c>
       <c r="K17" s="39">
-        <v>95.346193586645001</v>
+        <v>94.110379557142394</v>
       </c>
       <c r="L17" s="40">
-        <v>99.399299784065207</v>
+        <v>98.088589859311895</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -2091,13 +2091,13 @@
         <v>45</v>
       </c>
       <c r="C18" s="36">
-        <v>5702.174</v>
+        <v>5970.424</v>
       </c>
       <c r="D18" s="37">
-        <v>3867.7276024600001</v>
+        <v>4103.8306406399997</v>
       </c>
       <c r="E18" s="38">
-        <v>1834.4463975399999</v>
+        <v>1866.59335936</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>17</v>
@@ -2106,19 +2106,19 @@
         <v>17</v>
       </c>
       <c r="H18" s="37">
-        <v>3612.0355290140501</v>
+        <v>3838.5750447053101</v>
       </c>
       <c r="I18" s="38">
         <v>2</v>
       </c>
       <c r="J18" s="39">
-        <v>4.7551796046678403</v>
+        <v>4.8390892317664402</v>
       </c>
       <c r="K18" s="39">
-        <v>74.841078790211398</v>
+        <v>73.006942346886206</v>
       </c>
       <c r="L18" s="40">
-        <v>79.5962583948793</v>
+        <v>77.8460315786526</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -2129,34 +2129,34 @@
         <v>47</v>
       </c>
       <c r="C19" s="17">
-        <v>92853.164000000004</v>
+        <v>99010.212</v>
       </c>
       <c r="D19" s="18">
-        <v>42376.326986319997</v>
+        <v>46373.412994439997</v>
       </c>
       <c r="E19" s="19">
-        <v>50476.83701368</v>
+        <v>52636.799005560002</v>
       </c>
       <c r="F19" s="17">
-        <v>5903.6138361724898</v>
+        <v>5430.3318610450797</v>
       </c>
       <c r="G19" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="18">
-        <v>24009.370619600799</v>
+        <v>27306.8557910772</v>
       </c>
       <c r="I19" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J19" s="20">
-        <v>5.9413862936150998</v>
+        <v>5.7782707076838502</v>
       </c>
       <c r="K19" s="20">
-        <v>92.057420551079801</v>
+        <v>92.076661555675201</v>
       </c>
       <c r="L19" s="21">
-        <v>97.998806844694897</v>
+        <v>97.854932263359004</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -2167,16 +2167,16 @@
         <v>49</v>
       </c>
       <c r="C20" s="36">
-        <v>1596.049</v>
+        <v>1674.9079999999999</v>
       </c>
       <c r="D20" s="37">
-        <v>1166.7118190000001</v>
+        <v>1239.5994108</v>
       </c>
       <c r="E20" s="38">
-        <v>429.33718099999999</v>
+        <v>435.30858919999997</v>
       </c>
       <c r="F20" s="36">
-        <v>471.30818061125802</v>
+        <v>508.56921639178597</v>
       </c>
       <c r="G20" s="37">
         <v>1</v>
@@ -2188,13 +2188,13 @@
         <v>17</v>
       </c>
       <c r="J20" s="39">
-        <v>5.4620059739170603</v>
+        <v>5.3522653481748899</v>
       </c>
       <c r="K20" s="39">
-        <v>67.018315113318593</v>
+        <v>65.927179576330602</v>
       </c>
       <c r="L20" s="40">
-        <v>72.480321087235595</v>
+        <v>71.279444924505398</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -2205,16 +2205,16 @@
         <v>51</v>
       </c>
       <c r="C21" s="36">
-        <v>2292.5729999999999</v>
+        <v>2388.9920000000002</v>
       </c>
       <c r="D21" s="37">
-        <v>2065.4248671599998</v>
+        <v>2167.6518912000001</v>
       </c>
       <c r="E21" s="38">
-        <v>227.14813283999999</v>
+        <v>221.3401088</v>
       </c>
       <c r="F21" s="36">
-        <v>888.98960897024995</v>
+        <v>914.54845777609796</v>
       </c>
       <c r="G21" s="37">
         <v>1</v>
@@ -2226,13 +2226,13 @@
         <v>17</v>
       </c>
       <c r="J21" s="39">
-        <v>6.55498342178951</v>
+        <v>6.4970510246202702</v>
       </c>
       <c r="K21" s="39">
-        <v>61.320120558152603</v>
+        <v>60.646325849535799</v>
       </c>
       <c r="L21" s="40">
-        <v>67.875103979942097</v>
+        <v>67.143376874156104</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2243,13 +2243,13 @@
         <v>53</v>
       </c>
       <c r="C22" s="23">
-        <v>218.64099999999999</v>
+        <v>227.38</v>
       </c>
       <c r="D22" s="24">
-        <v>162.56832914</v>
+        <v>172.25171900000001</v>
       </c>
       <c r="E22" s="25">
-        <v>56.072670860000002</v>
+        <v>55.128281000000001</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>17</v>
@@ -2264,13 +2264,13 @@
         <v>17</v>
       </c>
       <c r="J22" s="26">
-        <v>6.8196775255018096</v>
+        <v>6.6296887346420199</v>
       </c>
       <c r="K22" s="26">
-        <v>73.050345508390905</v>
+        <v>69.5265172055839</v>
       </c>
       <c r="L22" s="27">
-        <v>79.870023033892707</v>
+        <v>76.156205940225902</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2281,34 +2281,34 @@
         <v>54</v>
       </c>
       <c r="C23" s="30">
-        <v>163361.63500000001</v>
+        <v>173378.48699999999</v>
       </c>
       <c r="D23" s="31">
-        <v>72731.659116159994</v>
+        <v>78980.569438129998</v>
       </c>
       <c r="E23" s="32">
-        <v>90629.975883840001</v>
+        <v>94397.917561869996</v>
       </c>
       <c r="F23" s="30">
-        <v>10562.6906824338</v>
+        <v>9391.4136080483204</v>
       </c>
       <c r="G23" s="31">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H23" s="31">
-        <v>37925.0063180301</v>
+        <v>43348.144608041701</v>
       </c>
       <c r="I23" s="32">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J23" s="33">
-        <v>5.3863566162035097</v>
+        <v>5.3111546785989798</v>
       </c>
       <c r="K23" s="33">
-        <v>81.261518621060503</v>
+        <v>79.761780584072795</v>
       </c>
       <c r="L23" s="34">
-        <v>86.647875237264003</v>
+        <v>85.072935262671805</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -2319,13 +2319,13 @@
         <v>56</v>
       </c>
       <c r="C24" s="23">
-        <v>806.16600000000005</v>
+        <v>836.774</v>
       </c>
       <c r="D24" s="24">
-        <v>236.85157079999999</v>
+        <v>249.89418735999999</v>
       </c>
       <c r="E24" s="25">
-        <v>569.31442919999995</v>
+        <v>586.87981263999995</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>17</v>
@@ -2340,13 +2340,13 @@
         <v>17</v>
       </c>
       <c r="J24" s="26">
-        <v>7.57856383786247</v>
+        <v>7.41749704791697</v>
       </c>
       <c r="K24" s="26">
-        <v>67.261055325424607</v>
+        <v>65.933583310890597</v>
       </c>
       <c r="L24" s="27">
-        <v>74.839619163286997</v>
+        <v>73.351080358807593</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -2357,16 +2357,16 @@
         <v>58</v>
       </c>
       <c r="C25" s="23">
-        <v>1090.1559999999999</v>
+        <v>1120.8489999999999</v>
       </c>
       <c r="D25" s="24">
-        <v>850.99757671999998</v>
+        <v>878.52144620000001</v>
       </c>
       <c r="E25" s="25">
-        <v>239.15842327999999</v>
+        <v>242.3275538</v>
       </c>
       <c r="F25" s="23">
-        <v>628.16445510196502</v>
+        <v>644.87105659362396</v>
       </c>
       <c r="G25" s="24">
         <v>1</v>
@@ -2378,13 +2378,13 @@
         <v>17</v>
       </c>
       <c r="J25" s="26">
-        <v>6.9275528414954701</v>
+        <v>6.9712375609100699</v>
       </c>
       <c r="K25" s="26">
-        <v>48.469777572512797</v>
+        <v>46.705989135591203</v>
       </c>
       <c r="L25" s="27">
-        <v>55.397330414008202</v>
+        <v>53.6772266965013</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -2395,16 +2395,16 @@
         <v>60</v>
       </c>
       <c r="C26" s="23">
-        <v>3555.8679999999999</v>
+        <v>3684.0320000000002</v>
       </c>
       <c r="D26" s="24">
-        <v>1470.2447419600001</v>
+        <v>1570.31864</v>
       </c>
       <c r="E26" s="25">
-        <v>2085.6232580400001</v>
+        <v>2113.7133600000002</v>
       </c>
       <c r="F26" s="23">
-        <v>630.35923939327904</v>
+        <v>671.35713647571197</v>
       </c>
       <c r="G26" s="24">
         <v>1</v>
@@ -2416,13 +2416,13 @@
         <v>17</v>
       </c>
       <c r="J26" s="26">
-        <v>7.1909738263024297</v>
+        <v>7.0669518563217704</v>
       </c>
       <c r="K26" s="26">
-        <v>72.734867279563801</v>
+        <v>69.019704374634102</v>
       </c>
       <c r="L26" s="27">
-        <v>79.925841105866198</v>
+        <v>76.086656230955796</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -2433,34 +2433,34 @@
         <v>62</v>
       </c>
       <c r="C27" s="23">
-        <v>117190.91099999999</v>
+        <v>123379.924</v>
       </c>
       <c r="D27" s="24">
-        <v>25424.56814145</v>
+        <v>27959.124577639999</v>
       </c>
       <c r="E27" s="25">
-        <v>91766.342858549993</v>
+        <v>95420.799422359996</v>
       </c>
       <c r="F27" s="23">
-        <v>1737.8653325465</v>
+        <v>1897.8317769507801</v>
       </c>
       <c r="G27" s="24">
         <v>4</v>
       </c>
       <c r="H27" s="24">
-        <v>4982.1087817573298</v>
+        <v>5463.1228323806299</v>
       </c>
       <c r="I27" s="25">
         <v>1</v>
       </c>
       <c r="J27" s="26">
-        <v>5.5344435598381496</v>
+        <v>5.4879286163743899</v>
       </c>
       <c r="K27" s="26">
-        <v>71.279233549259899</v>
+        <v>69.233593748517507</v>
       </c>
       <c r="L27" s="27">
-        <v>76.813677109097995</v>
+        <v>74.721522364891896</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2471,34 +2471,34 @@
         <v>64</v>
       </c>
       <c r="C28" s="23">
-        <v>51985.78</v>
+        <v>54027.487000000001</v>
       </c>
       <c r="D28" s="24">
-        <v>14553.419110999999</v>
+        <v>15669.051779740001</v>
       </c>
       <c r="E28" s="25">
-        <v>37432.360889000003</v>
+        <v>38358.435220259998</v>
       </c>
       <c r="F28" s="23">
-        <v>1478.7585243201399</v>
+        <v>1580.3821905155</v>
       </c>
       <c r="G28" s="24">
         <v>4</v>
       </c>
       <c r="H28" s="24">
-        <v>5861.0732283868301</v>
+        <v>6269.4403188758197</v>
       </c>
       <c r="I28" s="25">
         <v>2</v>
       </c>
       <c r="J28" s="26">
-        <v>4.8143079502940296</v>
+        <v>4.8436749142188802</v>
       </c>
       <c r="K28" s="26">
-        <v>66.936454096584896</v>
+        <v>63.746285106600702</v>
       </c>
       <c r="L28" s="27">
-        <v>71.750762046878904</v>
+        <v>68.589960020819603</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -2509,34 +2509,34 @@
         <v>66</v>
       </c>
       <c r="C29" s="23">
-        <v>28225.177</v>
+        <v>29611.714</v>
       </c>
       <c r="D29" s="24">
-        <v>10876.289705179999</v>
+        <v>11809.74377748</v>
       </c>
       <c r="E29" s="25">
-        <v>17348.887294820001</v>
+        <v>17801.970222520002</v>
       </c>
       <c r="F29" s="23">
-        <v>805.47991505011896</v>
+        <v>884.80683370572501</v>
       </c>
       <c r="G29" s="24">
         <v>2</v>
       </c>
       <c r="H29" s="24">
-        <v>3433.5921942208001</v>
+        <v>3755.2299391213401</v>
       </c>
       <c r="I29" s="25">
         <v>1</v>
       </c>
       <c r="J29" s="26">
-        <v>5.6916850250640003</v>
+        <v>5.8153864199522003</v>
       </c>
       <c r="K29" s="26">
-        <v>69.641872104297306</v>
+        <v>67.852733750714805</v>
       </c>
       <c r="L29" s="27">
-        <v>75.333557129361296</v>
+        <v>73.668120170666995</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -2547,13 +2547,13 @@
         <v>68</v>
       </c>
       <c r="C30" s="23">
-        <v>1297.828</v>
+        <v>1299.4690000000001</v>
       </c>
       <c r="D30" s="24">
-        <v>528.99469280000005</v>
+        <v>530.31329889999995</v>
       </c>
       <c r="E30" s="25">
-        <v>768.83330720000004</v>
+        <v>769.15570109999999</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>17</v>
@@ -2568,13 +2568,13 @@
         <v>17</v>
       </c>
       <c r="J30" s="26">
-        <v>16.5523489344476</v>
+        <v>18.043400631483198</v>
       </c>
       <c r="K30" s="26">
-        <v>23.922622571807999</v>
+        <v>23.001379537903599</v>
       </c>
       <c r="L30" s="27">
-        <v>40.474971506255599</v>
+        <v>41.044780169386797</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -2585,13 +2585,13 @@
         <v>70</v>
       </c>
       <c r="C31" s="23">
-        <v>13146.361999999999</v>
+        <v>13776.698</v>
       </c>
       <c r="D31" s="24">
-        <v>2291.6738238399998</v>
+        <v>2441.3686525799999</v>
       </c>
       <c r="E31" s="25">
-        <v>10854.68817616</v>
+        <v>11335.32934742</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>17</v>
@@ -2600,19 +2600,19 @@
         <v>17</v>
       </c>
       <c r="H31" s="24">
-        <v>1137.22112228225</v>
+        <v>1217.7348229361801</v>
       </c>
       <c r="I31" s="25">
         <v>1</v>
       </c>
       <c r="J31" s="26">
-        <v>5.3883325112859204</v>
+        <v>5.4802006536822798</v>
       </c>
       <c r="K31" s="26">
-        <v>68.310092051252994</v>
+        <v>65.9372257971077</v>
       </c>
       <c r="L31" s="27">
-        <v>73.698424562538904</v>
+        <v>71.417426450790003</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -2623,13 +2623,13 @@
         <v>72</v>
       </c>
       <c r="C32" s="23">
-        <v>105.53</v>
+        <v>107.11799999999999</v>
       </c>
       <c r="D32" s="24">
-        <v>60.728293800000003</v>
+        <v>62.552627280000003</v>
       </c>
       <c r="E32" s="25">
-        <v>44.801706199999998</v>
+        <v>44.565372719999999</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>17</v>
@@ -2644,13 +2644,13 @@
         <v>17</v>
       </c>
       <c r="J32" s="26">
-        <v>11.0635906293265</v>
+        <v>11.8660637907858</v>
       </c>
       <c r="K32" s="26">
-        <v>33.615714657783997</v>
+        <v>33.604899045446501</v>
       </c>
       <c r="L32" s="27">
-        <v>44.679305287110502</v>
+        <v>45.470962836232303</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -2661,72 +2661,72 @@
         <v>74</v>
       </c>
       <c r="C33" s="23">
-        <v>16537.016</v>
+        <v>17597.510999999999</v>
       </c>
       <c r="D33" s="24">
-        <v>7630.34455256</v>
+        <v>8327.8461056399992</v>
       </c>
       <c r="E33" s="25">
-        <v>8906.6714474399996</v>
+        <v>9269.6648943599994</v>
       </c>
       <c r="F33" s="23">
-        <v>1680.79161953792</v>
+        <v>1838.9621813689801</v>
       </c>
       <c r="G33" s="24">
         <v>3</v>
       </c>
       <c r="H33" s="24">
-        <v>3358.4257864336</v>
+        <v>3683.4441121371701</v>
       </c>
       <c r="I33" s="25">
         <v>2</v>
       </c>
       <c r="J33" s="26">
-        <v>5.2270471532981899</v>
+        <v>5.1129074342635796</v>
       </c>
       <c r="K33" s="26">
-        <v>94.595351926047996</v>
+        <v>93.830699444552295</v>
       </c>
       <c r="L33" s="27">
-        <v>99.822399079346198</v>
+        <v>98.943606878815899</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="17">
-        <v>10606.227000000001</v>
-      </c>
-      <c r="D34" s="18">
-        <v>2142.3517917300001</v>
-      </c>
-      <c r="E34" s="19">
-        <v>8463.8752082699993</v>
-      </c>
-      <c r="F34" s="17">
-        <v>314.22392507255898</v>
-      </c>
-      <c r="G34" s="18">
+      <c r="C34" s="36">
+        <v>10913.164000000001</v>
+      </c>
+      <c r="D34" s="37">
+        <v>2274.9581674400001</v>
+      </c>
+      <c r="E34" s="38">
+        <v>8638.2058325599992</v>
+      </c>
+      <c r="F34" s="36">
+        <v>335.44516794502499</v>
+      </c>
+      <c r="G34" s="37">
         <v>1</v>
       </c>
-      <c r="H34" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="20">
-        <v>5.41688481663458</v>
-      </c>
-      <c r="K34" s="20">
-        <v>87.999827850725495</v>
-      </c>
-      <c r="L34" s="21">
-        <v>93.416712667360002</v>
+      <c r="H34" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="39">
+        <v>5.4284367008222798</v>
+      </c>
+      <c r="K34" s="39">
+        <v>82.384513979479095</v>
+      </c>
+      <c r="L34" s="40">
+        <v>87.812950680301398</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -2737,34 +2737,34 @@
         <v>78</v>
       </c>
       <c r="C35" s="23">
-        <v>44440.485999999997</v>
+        <v>46874.203999999998</v>
       </c>
       <c r="D35" s="24">
-        <v>15666.60452958</v>
+        <v>16854.088790239999</v>
       </c>
       <c r="E35" s="25">
-        <v>28773.881470420001</v>
+        <v>30020.115209759999</v>
       </c>
       <c r="F35" s="23">
-        <v>3044.0473367310001</v>
+        <v>2220.1967539807301</v>
       </c>
       <c r="G35" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H35" s="24">
-        <v>5949.2449564378803</v>
+        <v>7362.3613606367699</v>
       </c>
       <c r="I35" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" s="26">
-        <v>6.0160794759570297</v>
+        <v>6.2973842391276396</v>
       </c>
       <c r="K35" s="26">
-        <v>74.214868324146195</v>
+        <v>73.652456983865704</v>
       </c>
       <c r="L35" s="27">
-        <v>80.230947800103195</v>
+        <v>79.949841222993399</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -2775,34 +2775,34 @@
         <v>80</v>
       </c>
       <c r="C36" s="23">
-        <v>61704.517999999996</v>
+        <v>65497.748</v>
       </c>
       <c r="D36" s="24">
-        <v>21736.65055586</v>
+        <v>24025.88392136</v>
       </c>
       <c r="E36" s="25">
-        <v>39967.86744414</v>
+        <v>41471.864078639999</v>
       </c>
       <c r="F36" s="23">
-        <v>2482.5301079723599</v>
+        <v>2698.5795308400998</v>
       </c>
       <c r="G36" s="24">
         <v>5</v>
       </c>
       <c r="H36" s="24">
-        <v>7688.7392364331199</v>
+        <v>8505.4191602694409</v>
       </c>
       <c r="I36" s="25">
         <v>2</v>
       </c>
       <c r="J36" s="26">
-        <v>5.9018553849514896</v>
+        <v>5.7965643394299704</v>
       </c>
       <c r="K36" s="26">
-        <v>82.795392919619403</v>
+        <v>80.982795461590499</v>
       </c>
       <c r="L36" s="27">
-        <v>88.697248304570905</v>
+        <v>86.779359801020405</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2813,13 +2813,13 @@
         <v>82</v>
       </c>
       <c r="C37" s="23">
-        <v>44404.610999999997</v>
+        <v>47249.584999999999</v>
       </c>
       <c r="D37" s="24">
-        <v>11080.72662894</v>
+        <v>12360.018940149999</v>
       </c>
       <c r="E37" s="25">
-        <v>33323.884371059998</v>
+        <v>34889.566059850004</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>17</v>
@@ -2828,19 +2828,19 @@
         <v>17</v>
       </c>
       <c r="H37" s="24">
-        <v>3103.8291979671899</v>
+        <v>3434.3557750544101</v>
       </c>
       <c r="I37" s="25">
         <v>1</v>
       </c>
       <c r="J37" s="26">
-        <v>3.1611430532088001</v>
+        <v>3.16502907794349</v>
       </c>
       <c r="K37" s="26">
-        <v>86.718034485834494</v>
+        <v>83.665114269277595</v>
       </c>
       <c r="L37" s="27">
-        <v>89.879177539043297</v>
+        <v>86.830143347221096</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2851,34 +2851,34 @@
         <v>83</v>
       </c>
       <c r="C38" s="30">
-        <v>395096.636</v>
+        <v>415976.277</v>
       </c>
       <c r="D38" s="31">
-        <v>114550.44571622</v>
+        <v>125013.68491200999</v>
       </c>
       <c r="E38" s="32">
-        <v>280546.19028377999</v>
+        <v>290962.59208799002</v>
       </c>
       <c r="F38" s="30">
-        <v>12802.220455725799</v>
+        <v>12772.4326283762</v>
       </c>
       <c r="G38" s="31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H38" s="31">
-        <v>35514.234503918997</v>
+        <v>39691.108321411797</v>
       </c>
       <c r="I38" s="32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J38" s="33">
-        <v>6.8903434999976199</v>
+        <v>7.0566188059451802</v>
       </c>
       <c r="K38" s="33">
-        <v>67.749654622490098</v>
+        <v>65.6822124247266</v>
       </c>
       <c r="L38" s="34">
-        <v>74.639998122487697</v>
+        <v>72.738831230671707</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -2889,34 +2889,34 @@
         <v>85</v>
       </c>
       <c r="C39" s="36">
-        <v>43451.665999999997</v>
+        <v>44903.224999999999</v>
       </c>
       <c r="D39" s="37">
-        <v>32038.216891780001</v>
+        <v>33575.039397</v>
       </c>
       <c r="E39" s="38">
-        <v>11413.44910822</v>
+        <v>11328.185603</v>
       </c>
       <c r="F39" s="36">
-        <v>3299.2889580177598</v>
+        <v>3440.45502446401</v>
       </c>
       <c r="G39" s="37">
         <v>7</v>
       </c>
       <c r="H39" s="37">
-        <v>2775.2238176713499</v>
+        <v>2874.3634664910301</v>
       </c>
       <c r="I39" s="38">
         <v>1</v>
       </c>
       <c r="J39" s="39">
-        <v>9.5009623257473095</v>
+        <v>10.144358848108499</v>
       </c>
       <c r="K39" s="39">
-        <v>48.3885117996685</v>
+        <v>48.664057491727597</v>
       </c>
       <c r="L39" s="40">
-        <v>57.889474125415802</v>
+        <v>58.8084163398361</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -2927,34 +2927,34 @@
         <v>87</v>
       </c>
       <c r="C40" s="23">
-        <v>107465.13400000001</v>
+        <v>110990.103</v>
       </c>
       <c r="D40" s="24">
-        <v>45976.80827922</v>
+        <v>47689.117556010002</v>
       </c>
       <c r="E40" s="25">
-        <v>61488.325720779998</v>
+        <v>63300.985443990001</v>
       </c>
       <c r="F40" s="23">
-        <v>5450.76932558517</v>
+        <v>5621.3582570828803</v>
       </c>
       <c r="G40" s="24">
         <v>11</v>
       </c>
       <c r="H40" s="24">
-        <v>27331.7749519709</v>
+        <v>28404.1977818872</v>
       </c>
       <c r="I40" s="25">
         <v>2</v>
       </c>
       <c r="J40" s="26">
-        <v>7.58476465394632</v>
+        <v>7.7582837039916299</v>
       </c>
       <c r="K40" s="26">
-        <v>53.494836225872703</v>
+        <v>52.741872183043199</v>
       </c>
       <c r="L40" s="27">
-        <v>61.079600879818997</v>
+        <v>60.5001558870349</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -2965,34 +2965,34 @@
         <v>89</v>
       </c>
       <c r="C41" s="36">
-        <v>6653.942</v>
+        <v>6812.3410000000003</v>
       </c>
       <c r="D41" s="37">
-        <v>5369.1323392200002</v>
+        <v>5538.5694798200002</v>
       </c>
       <c r="E41" s="38">
-        <v>1284.8096607800001</v>
+        <v>1273.7715201799999</v>
       </c>
       <c r="F41" s="36">
-        <v>1703.18613986848</v>
+        <v>1798.4870512129</v>
       </c>
       <c r="G41" s="37">
         <v>2</v>
       </c>
       <c r="H41" s="37">
-        <v>1163.64555754857</v>
+        <v>1174.0185655544001</v>
       </c>
       <c r="I41" s="38">
         <v>1</v>
       </c>
       <c r="J41" s="39">
-        <v>7.3030862927141298</v>
+        <v>7.2782530629024897</v>
       </c>
       <c r="K41" s="39">
-        <v>44.683895804700398</v>
+        <v>42.327722440905099</v>
       </c>
       <c r="L41" s="40">
-        <v>51.986982097414497</v>
+        <v>49.605975503807599</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -3003,13 +3003,13 @@
         <v>91</v>
       </c>
       <c r="C42" s="36">
-        <v>4498.6040000000003</v>
+        <v>4736.1390000000001</v>
       </c>
       <c r="D42" s="37">
-        <v>2488.9426350799999</v>
+        <v>2695.9524029700001</v>
       </c>
       <c r="E42" s="38">
-        <v>2009.6613649200001</v>
+        <v>2040.18659703</v>
       </c>
       <c r="F42" s="36" t="s">
         <v>17</v>
@@ -3018,19 +3018,19 @@
         <v>17</v>
       </c>
       <c r="H42" s="37">
-        <v>1236.26982002761</v>
+        <v>1347.0014944081299</v>
       </c>
       <c r="I42" s="38">
         <v>1</v>
       </c>
       <c r="J42" s="39">
-        <v>6.0842150235594801</v>
+        <v>5.8425584255842598</v>
       </c>
       <c r="K42" s="39">
-        <v>78.013072505260695</v>
+        <v>75.411885730556193</v>
       </c>
       <c r="L42" s="40">
-        <v>84.097287528820203</v>
+        <v>81.254444156140394</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -3041,34 +3041,34 @@
         <v>93</v>
       </c>
       <c r="C43" s="23">
-        <v>36688.771999999997</v>
+        <v>37457.970999999998</v>
       </c>
       <c r="D43" s="24">
-        <v>23309.110627040001</v>
+        <v>24196.350947160001</v>
       </c>
       <c r="E43" s="25">
-        <v>13379.661372959999</v>
+        <v>13261.62005284</v>
       </c>
       <c r="F43" s="23">
-        <v>4219.8010442725199</v>
+        <v>3336.80641851165</v>
       </c>
       <c r="G43" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H43" s="24">
-        <v>7976.1270641983301</v>
+        <v>9237.5099434469303</v>
       </c>
       <c r="I43" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J43" s="26">
-        <v>10.875299372530099</v>
+        <v>11.7519814717896</v>
       </c>
       <c r="K43" s="26">
-        <v>41.199604069725503</v>
+        <v>40.466111621715399</v>
       </c>
       <c r="L43" s="27">
-        <v>52.074903442255597</v>
+        <v>52.218093093504997</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3079,34 +3079,34 @@
         <v>95</v>
       </c>
       <c r="C44" s="23">
-        <v>12161.723</v>
+        <v>12356.117</v>
       </c>
       <c r="D44" s="24">
-        <v>8460.6674566399997</v>
+        <v>8675.72399038</v>
       </c>
       <c r="E44" s="25">
-        <v>3701.0555433599998</v>
+        <v>3680.3930096200002</v>
       </c>
       <c r="F44" s="23">
-        <v>643.86509500731597</v>
+        <v>655.37613064650202</v>
       </c>
       <c r="G44" s="24">
         <v>1</v>
       </c>
       <c r="H44" s="24">
-        <v>2416.5832769887702</v>
+        <v>2485.06554076669</v>
       </c>
       <c r="I44" s="25">
         <v>1</v>
       </c>
       <c r="J44" s="26">
-        <v>12.905515055471399</v>
+        <v>13.6393198854019</v>
       </c>
       <c r="K44" s="26">
-        <v>37.535024123365602</v>
+        <v>37.557412553347</v>
       </c>
       <c r="L44" s="27">
-        <v>50.440539178837</v>
+        <v>51.196732438748803</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3117,34 +3117,34 @@
         <v>96</v>
       </c>
       <c r="C45" s="30">
-        <v>210919.84099999999</v>
+        <v>217255.89600000001</v>
       </c>
       <c r="D45" s="31">
-        <v>117642.87822898</v>
+        <v>122370.75377333999</v>
       </c>
       <c r="E45" s="32">
-        <v>93276.96277102</v>
+        <v>94885.142226659998</v>
       </c>
       <c r="F45" s="30">
-        <v>15316.9105627512</v>
+        <v>14852.4828819179</v>
       </c>
       <c r="G45" s="31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H45" s="31">
-        <v>42899.624488405498</v>
+        <v>45522.1567925544</v>
       </c>
       <c r="I45" s="32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J45" s="33">
-        <v>9.0423071206614605</v>
+        <v>9.4024592329630607</v>
       </c>
       <c r="K45" s="33">
-        <v>50.5524907547656</v>
+        <v>49.528177003549096</v>
       </c>
       <c r="L45" s="34">
-        <v>59.594797875426998</v>
+        <v>58.9306362365121</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -3155,34 +3155,34 @@
         <v>98</v>
       </c>
       <c r="C46" s="23">
-        <v>12643.123</v>
+        <v>13352.864</v>
       </c>
       <c r="D46" s="24">
-        <v>6121.1680004500004</v>
+        <v>6614.2076537599996</v>
       </c>
       <c r="E46" s="25">
-        <v>6521.9549995500001</v>
+        <v>6738.6563462399999</v>
       </c>
       <c r="F46" s="23">
-        <v>1453.05883109152</v>
+        <v>1534.955918696</v>
       </c>
       <c r="G46" s="24">
         <v>3</v>
       </c>
       <c r="H46" s="24">
-        <v>1101.7666739767501</v>
+        <v>1241.8743089063601</v>
       </c>
       <c r="I46" s="25">
         <v>1</v>
       </c>
       <c r="J46" s="26">
-        <v>5.6991902226045097</v>
+        <v>5.6226666514608201</v>
       </c>
       <c r="K46" s="26">
-        <v>78.807893961467698</v>
+        <v>77.848744534652099</v>
       </c>
       <c r="L46" s="27">
-        <v>84.507084184072198</v>
+        <v>83.471411186113002</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -3193,13 +3193,13 @@
         <v>100</v>
       </c>
       <c r="C47" s="23">
-        <v>21522.626</v>
+        <v>22673.761999999999</v>
       </c>
       <c r="D47" s="24">
-        <v>6587.4301398199996</v>
+        <v>7227.7151127400002</v>
       </c>
       <c r="E47" s="25">
-        <v>14935.19586018</v>
+        <v>15446.046887259999</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>17</v>
@@ -3208,19 +3208,19 @@
         <v>17</v>
       </c>
       <c r="H47" s="24">
-        <v>3863.6249627430502</v>
+        <v>4236.8739210946096</v>
       </c>
       <c r="I47" s="25">
         <v>2</v>
       </c>
       <c r="J47" s="26">
-        <v>4.83278799182097</v>
+        <v>4.7139210946869303</v>
       </c>
       <c r="K47" s="26">
-        <v>83.842652354100196</v>
+        <v>81.354791938809598</v>
       </c>
       <c r="L47" s="27">
-        <v>88.675440345921203</v>
+        <v>86.068713033496493</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -3231,13 +3231,13 @@
         <v>102</v>
       </c>
       <c r="C48" s="36">
-        <v>582.64</v>
+        <v>593.15</v>
       </c>
       <c r="D48" s="37">
-        <v>388.34121279999999</v>
+        <v>400.6431675</v>
       </c>
       <c r="E48" s="38">
-        <v>194.29878719999999</v>
+        <v>192.5068325</v>
       </c>
       <c r="F48" s="36" t="s">
         <v>17</v>
@@ -3252,13 +3252,13 @@
         <v>17</v>
       </c>
       <c r="J48" s="39">
-        <v>7.9441542512804801</v>
+        <v>8.1321150759352996</v>
       </c>
       <c r="K48" s="39">
-        <v>40.011020850738603</v>
+        <v>38.3457216940363</v>
       </c>
       <c r="L48" s="40">
-        <v>47.955175102019098</v>
+        <v>46.477836769971603</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
@@ -3269,34 +3269,34 @@
         <v>104</v>
       </c>
       <c r="C49" s="23">
-        <v>26811.79</v>
+        <v>28160.542000000001</v>
       </c>
       <c r="D49" s="24">
-        <v>13863.3041374</v>
+        <v>14829.62302262</v>
       </c>
       <c r="E49" s="25">
-        <v>12948.4858626</v>
+        <v>13330.918977380001</v>
       </c>
       <c r="F49" s="23">
-        <v>585.861442893196</v>
+        <v>605.44222725628299</v>
       </c>
       <c r="G49" s="24">
         <v>1</v>
       </c>
       <c r="H49" s="24">
-        <v>5329.9975035670104</v>
+        <v>5648.6769813175197</v>
       </c>
       <c r="I49" s="25">
         <v>1</v>
       </c>
       <c r="J49" s="26">
-        <v>4.3417468914270803</v>
+        <v>4.26872208930852</v>
       </c>
       <c r="K49" s="26">
-        <v>75.900801289646395</v>
+        <v>73.894999966784795</v>
       </c>
       <c r="L49" s="27">
-        <v>80.242548181073502</v>
+        <v>78.163722056093306</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -3307,16 +3307,16 @@
         <v>106</v>
       </c>
       <c r="C50" s="23">
-        <v>2573.9949999999999</v>
+        <v>2705.9920000000002</v>
       </c>
       <c r="D50" s="24">
-        <v>1610.8575509</v>
+        <v>1727.83001184</v>
       </c>
       <c r="E50" s="25">
-        <v>963.13744910000003</v>
+        <v>978.16198815999996</v>
       </c>
       <c r="F50" s="23">
-        <v>505.80979865863998</v>
+        <v>523.41732270313003</v>
       </c>
       <c r="G50" s="24">
         <v>1</v>
@@ -3328,13 +3328,13 @@
         <v>17</v>
       </c>
       <c r="J50" s="26">
-        <v>4.5790110906868504</v>
+        <v>4.4502136918702204</v>
       </c>
       <c r="K50" s="26">
-        <v>81.920521212288094</v>
+        <v>78.975363581211397</v>
       </c>
       <c r="L50" s="27">
-        <v>86.499532302974899</v>
+        <v>83.425577273081601</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -3345,34 +3345,34 @@
         <v>108</v>
       </c>
       <c r="C51" s="17">
-        <v>32180.401999999998</v>
+        <v>33475.870000000003</v>
       </c>
       <c r="D51" s="18">
-        <v>18455.138742980002</v>
+        <v>19621.8812005</v>
       </c>
       <c r="E51" s="19">
-        <v>13725.26325702</v>
+        <v>13853.988799500001</v>
       </c>
       <c r="F51" s="17">
-        <v>1662.1508028179401</v>
+        <v>733.10130353233001</v>
       </c>
       <c r="G51" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" s="18">
-        <v>6137.9962393444603</v>
+        <v>7601.7406026805402</v>
       </c>
       <c r="I51" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J51" s="20">
-        <v>5.7707982468570398</v>
+        <v>5.9738178243285098</v>
       </c>
       <c r="K51" s="20">
-        <v>63.683761300800803</v>
+        <v>62.071596981797001</v>
       </c>
       <c r="L51" s="21">
-        <v>69.454559547657794</v>
+        <v>68.045414806125606</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -3383,13 +3383,13 @@
         <v>110</v>
       </c>
       <c r="C52" s="23">
-        <v>13205.152</v>
+        <v>13859.34</v>
       </c>
       <c r="D52" s="24">
-        <v>4869.3998000000001</v>
+        <v>5220.5361911999998</v>
       </c>
       <c r="E52" s="25">
-        <v>8335.7522000000008</v>
+        <v>8638.8038087999994</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>17</v>
@@ -3398,19 +3398,19 @@
         <v>17</v>
       </c>
       <c r="H52" s="24">
-        <v>1861.35555619306</v>
+        <v>1961.37806790833</v>
       </c>
       <c r="I52" s="25">
         <v>1</v>
       </c>
       <c r="J52" s="26">
-        <v>6.2139127677716601</v>
+        <v>6.0291769322317004</v>
       </c>
       <c r="K52" s="26">
-        <v>77.259414862510596</v>
+        <v>75.346429284663401</v>
       </c>
       <c r="L52" s="27">
-        <v>83.473327630282199</v>
+        <v>81.375606216895093</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -3421,16 +3421,16 @@
         <v>112</v>
       </c>
       <c r="C53" s="23">
-        <v>2015.828</v>
+        <v>2105.5659999999998</v>
       </c>
       <c r="D53" s="24">
-        <v>890.91534288000003</v>
+        <v>948.36798206000003</v>
       </c>
       <c r="E53" s="25">
-        <v>1124.9126571199999</v>
+        <v>1157.19801794</v>
       </c>
       <c r="F53" s="23">
-        <v>604.25046168579502</v>
+        <v>645.49384626878998</v>
       </c>
       <c r="G53" s="24">
         <v>1</v>
@@ -3442,13 +3442,13 @@
         <v>17</v>
       </c>
       <c r="J53" s="26">
-        <v>4.98028235630475</v>
+        <v>4.9414854749821497</v>
       </c>
       <c r="K53" s="26">
-        <v>72.901101170175394</v>
+        <v>70.292497723834103</v>
       </c>
       <c r="L53" s="27">
-        <v>77.881383526480107</v>
+        <v>75.233983198816304</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
@@ -3459,13 +3459,13 @@
         <v>114</v>
       </c>
       <c r="C54" s="23">
-        <v>5087.5839999999998</v>
+        <v>5302.6809999999996</v>
       </c>
       <c r="D54" s="24">
-        <v>2650.0716297600002</v>
+        <v>2813.8676726499998</v>
       </c>
       <c r="E54" s="25">
-        <v>2437.5123702400001</v>
+        <v>2488.8133273499998</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>17</v>
@@ -3474,19 +3474,19 @@
         <v>17</v>
       </c>
       <c r="H54" s="24">
-        <v>1512.39867414677</v>
+        <v>1604.3733994961301</v>
       </c>
       <c r="I54" s="25">
         <v>1</v>
       </c>
       <c r="J54" s="26">
-        <v>6.1181473685410701</v>
+        <v>5.8900256372722204</v>
       </c>
       <c r="K54" s="26">
-        <v>75.145721073476196</v>
+        <v>72.143639901748401</v>
       </c>
       <c r="L54" s="27">
-        <v>81.263868442017298</v>
+        <v>78.033665539020603</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
@@ -3497,34 +3497,34 @@
         <v>116</v>
       </c>
       <c r="C55" s="23">
-        <v>21224.04</v>
+        <v>22593.59</v>
       </c>
       <c r="D55" s="24">
-        <v>9319.2637235999991</v>
+        <v>10265.8494883</v>
       </c>
       <c r="E55" s="25">
-        <v>11904.7762764</v>
+        <v>12327.7405117</v>
       </c>
       <c r="F55" s="23">
-        <v>404.159307326202</v>
+        <v>445.85242368909002</v>
       </c>
       <c r="G55" s="24">
         <v>1</v>
       </c>
       <c r="H55" s="24">
-        <v>2738.9755154726499</v>
+        <v>2958.1200543227301</v>
       </c>
       <c r="I55" s="25">
         <v>1</v>
       </c>
       <c r="J55" s="26">
-        <v>5.0021940565854104</v>
+        <v>4.7219150889063899</v>
       </c>
       <c r="K55" s="26">
-        <v>95.414199828460397</v>
+        <v>93.573750993295207</v>
       </c>
       <c r="L55" s="27">
-        <v>100.41639388504601</v>
+        <v>98.295666082201706</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -3535,72 +3535,72 @@
         <v>118</v>
       </c>
       <c r="C56" s="23">
-        <v>24333.638999999999</v>
+        <v>26207.976999999999</v>
       </c>
       <c r="D56" s="24">
-        <v>4045.7108201400001</v>
+        <v>4427.5756343800003</v>
       </c>
       <c r="E56" s="25">
-        <v>20287.928179859999</v>
+        <v>21780.40136562</v>
       </c>
       <c r="F56" s="23">
-        <v>494.43957016365698</v>
+        <v>548.11396416270395</v>
       </c>
       <c r="G56" s="24">
         <v>1</v>
       </c>
       <c r="H56" s="24">
-        <v>1305.7430420762601</v>
+        <v>1396.50284722572</v>
       </c>
       <c r="I56" s="25">
         <v>1</v>
       </c>
       <c r="J56" s="26">
-        <v>5.0099467237011996</v>
+        <v>4.9308392948423396</v>
       </c>
       <c r="K56" s="26">
-        <v>100.683971446893</v>
+        <v>100.194864856678</v>
       </c>
       <c r="L56" s="27">
-        <v>105.693918170594</v>
+        <v>105.12570415152101</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="36">
-        <v>208327.40400000001</v>
-      </c>
-      <c r="D57" s="37">
-        <v>108242.75257031999</v>
-      </c>
-      <c r="E57" s="38">
-        <v>100084.65142968</v>
-      </c>
-      <c r="F57" s="36">
-        <v>22075.4164354485</v>
-      </c>
-      <c r="G57" s="37">
-        <v>39</v>
-      </c>
-      <c r="H57" s="37">
-        <v>36117.612111671202</v>
-      </c>
-      <c r="I57" s="38">
-        <v>11</v>
-      </c>
-      <c r="J57" s="39">
-        <v>5.6126728760559699</v>
-      </c>
-      <c r="K57" s="39">
-        <v>81.318650258438794</v>
-      </c>
-      <c r="L57" s="40">
-        <v>86.931323134494704</v>
+      <c r="C57" s="23">
+        <v>218541.212</v>
+      </c>
+      <c r="D57" s="24">
+        <v>116965.44207452</v>
+      </c>
+      <c r="E57" s="25">
+        <v>101575.76992548</v>
+      </c>
+      <c r="F57" s="23">
+        <v>21693.357191343999</v>
+      </c>
+      <c r="G57" s="24">
+        <v>37</v>
+      </c>
+      <c r="H57" s="24">
+        <v>40841.880542831401</v>
+      </c>
+      <c r="I57" s="25">
+        <v>13</v>
+      </c>
+      <c r="J57" s="26">
+        <v>5.5102587407386396</v>
+      </c>
+      <c r="K57" s="26">
+        <v>79.740439734597402</v>
+      </c>
+      <c r="L57" s="27">
+        <v>85.250698475335994</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -3611,34 +3611,34 @@
         <v>122</v>
       </c>
       <c r="C58" s="23">
-        <v>16436.12</v>
+        <v>17316.449000000001</v>
       </c>
       <c r="D58" s="24">
-        <v>7909.3896664000004</v>
+        <v>8499.9521561399997</v>
       </c>
       <c r="E58" s="25">
-        <v>8526.7303336000004</v>
+        <v>8816.4968438600008</v>
       </c>
       <c r="F58" s="23">
-        <v>692.39497888914298</v>
+        <v>738.60289692041601</v>
       </c>
       <c r="G58" s="24">
         <v>2</v>
       </c>
       <c r="H58" s="24">
-        <v>3000.9429895244002</v>
+        <v>3176.4261352527801</v>
       </c>
       <c r="I58" s="25">
         <v>1</v>
       </c>
       <c r="J58" s="26">
-        <v>5.7944330601548204</v>
+        <v>5.6651419412058397</v>
       </c>
       <c r="K58" s="26">
-        <v>76.814757239097204</v>
+        <v>74.805355194332193</v>
       </c>
       <c r="L58" s="27">
-        <v>82.609190299252006</v>
+        <v>80.470497135537997</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
@@ -3649,13 +3649,13 @@
         <v>124</v>
       </c>
       <c r="C59" s="23">
-        <v>8233.9699999999993</v>
+        <v>8605.7180000000008</v>
       </c>
       <c r="D59" s="24">
-        <v>3534.2669430999999</v>
+        <v>3771.9722565799998</v>
       </c>
       <c r="E59" s="25">
-        <v>4699.7030568999999</v>
+        <v>4833.7457434199996</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>17</v>
@@ -3664,19 +3664,19 @@
         <v>17</v>
       </c>
       <c r="H59" s="24">
-        <v>1229.83638644348</v>
+        <v>1307.08461070559</v>
       </c>
       <c r="I59" s="25">
         <v>1</v>
       </c>
       <c r="J59" s="26">
-        <v>5.5148004750861697</v>
+        <v>5.4247803261878298</v>
       </c>
       <c r="K59" s="26">
-        <v>69.715746348588993</v>
+        <v>67.333619332700707</v>
       </c>
       <c r="L59" s="27">
-        <v>75.230546823675198</v>
+        <v>72.758399658888607</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3687,13 +3687,13 @@
         <v>126</v>
       </c>
       <c r="C60" s="17">
-        <v>8442.58</v>
+        <v>8848.6980000000003</v>
       </c>
       <c r="D60" s="18">
-        <v>3613.4242399999998</v>
+        <v>3886.4366485800001</v>
       </c>
       <c r="E60" s="19">
-        <v>4829.1557599999996</v>
+        <v>4962.2613514200002</v>
       </c>
       <c r="F60" s="17" t="s">
         <v>17</v>
@@ -3702,19 +3702,19 @@
         <v>17</v>
       </c>
       <c r="H60" s="18">
-        <v>1840.58571502826</v>
+        <v>1938.96333368756</v>
       </c>
       <c r="I60" s="19">
         <v>1</v>
       </c>
       <c r="J60" s="20">
-        <v>5.41806950701441</v>
+        <v>5.5088788372750699</v>
       </c>
       <c r="K60" s="20">
-        <v>71.748663052228096</v>
+        <v>70.2229083057682</v>
       </c>
       <c r="L60" s="21">
-        <v>77.166732559242504</v>
+        <v>75.731787143043306</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3725,34 +3725,34 @@
         <v>127</v>
       </c>
       <c r="C61" s="30">
-        <v>403620.89299999998</v>
+        <v>424343.41100000002</v>
       </c>
       <c r="D61" s="31">
-        <v>192101.43452055001</v>
+        <v>207221.90027337</v>
       </c>
       <c r="E61" s="32">
-        <v>211519.45847945</v>
+        <v>217121.51072662999</v>
       </c>
       <c r="F61" s="30">
-        <v>28477.541628974599</v>
+        <v>27468.337094572798</v>
       </c>
       <c r="G61" s="31">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H61" s="31">
-        <v>66040.8353701874</v>
+        <v>73913.8948054293</v>
       </c>
       <c r="I61" s="32">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J61" s="33">
-        <v>5.5221431923928304</v>
+        <v>5.4522639134155</v>
       </c>
       <c r="K61" s="33">
-        <v>76.344591749927304</v>
+        <v>74.409648268327302</v>
       </c>
       <c r="L61" s="34">
-        <v>81.866734942320207</v>
+        <v>79.861912181742795</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3763,34 +3763,34 @@
         <v>128</v>
       </c>
       <c r="C62" s="44">
-        <v>1358852.3529999999</v>
+        <v>1424854.794</v>
       </c>
       <c r="D62" s="45">
-        <v>591445.43895177997</v>
+        <v>633721.52288037003</v>
       </c>
       <c r="E62" s="46">
-        <v>767406.91404822003</v>
+        <v>791133.27111962996</v>
       </c>
       <c r="F62" s="44">
-        <v>84085.880258195393</v>
+        <v>82542.203738213502</v>
       </c>
       <c r="G62" s="45">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H62" s="45">
-        <v>220119.85122796899</v>
+        <v>242123.68569771599</v>
       </c>
       <c r="I62" s="46">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="J62" s="47">
-        <v>6.31907985297092</v>
+        <v>6.3525194276743502</v>
       </c>
       <c r="K62" s="47">
-        <v>70.449924970580497</v>
+        <v>68.737809938999206</v>
       </c>
       <c r="L62" s="48">
-        <v>76.769004823551398</v>
+        <v>75.090329366673501</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3801,34 +3801,34 @@
         <v>129</v>
       </c>
       <c r="C63" s="50">
-        <v>6435230.0760000004</v>
+        <v>6503015.0650000004</v>
       </c>
       <c r="D63" s="51">
-        <v>3767649.6978215701</v>
+        <v>3867249.7199285799</v>
       </c>
       <c r="E63" s="52">
-        <v>2667580.3781784298</v>
+        <v>2635765.3450714201</v>
       </c>
       <c r="F63" s="50">
-        <v>597320.96619894297</v>
+        <v>596649.48133876105</v>
       </c>
       <c r="G63" s="51">
-        <v>1115</v>
+        <v>1095</v>
       </c>
       <c r="H63" s="51">
-        <v>1653770.86026795</v>
+        <v>1724844.8851338299</v>
       </c>
       <c r="I63" s="52">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="J63" s="53">
-        <v>17.3287530523729</v>
+        <v>18.045613344403598</v>
       </c>
       <c r="K63" s="53">
-        <v>35.285476782358302</v>
+        <v>34.634192577034199</v>
       </c>
       <c r="L63" s="54">
-        <v>52.614229834731297</v>
+        <v>52.679805921437797</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
@@ -3839,34 +3839,34 @@
         <v>130</v>
       </c>
       <c r="C64" s="44">
-        <v>646831.90099999995</v>
+        <v>655268.07900000003</v>
       </c>
       <c r="D64" s="45">
-        <v>524206.43205131002</v>
+        <v>534230.59753966995</v>
       </c>
       <c r="E64" s="46">
-        <v>122625.46894869</v>
+        <v>121037.48146033</v>
       </c>
       <c r="F64" s="44">
-        <v>70265.776135291293</v>
+        <v>71136.094973135099</v>
       </c>
       <c r="G64" s="45">
         <v>133</v>
       </c>
       <c r="H64" s="45">
-        <v>240923.214438417</v>
+        <v>246608.434482621</v>
       </c>
       <c r="I64" s="46">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J64" s="47">
-        <v>12.813497223087399</v>
+        <v>13.3446848894226</v>
       </c>
       <c r="K64" s="47">
-        <v>36.650098763589902</v>
+        <v>35.578856277312902</v>
       </c>
       <c r="L64" s="48">
-        <v>49.463595986677198</v>
+        <v>48.923541166735497</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -3877,34 +3877,34 @@
         <v>131</v>
       </c>
       <c r="C65" s="57">
-        <v>4255472.66</v>
+        <v>4312340.6320000002</v>
       </c>
       <c r="D65" s="58">
-        <v>2040218.00165573</v>
+        <v>2121816.0990317101</v>
       </c>
       <c r="E65" s="59">
-        <v>2215254.6583442702</v>
+        <v>2190524.5329682902</v>
       </c>
       <c r="F65" s="57">
-        <v>321068.36454404599</v>
+        <v>319298.15297392599</v>
       </c>
       <c r="G65" s="58">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="H65" s="58">
-        <v>890126.51799300802</v>
+        <v>949626.64803554304</v>
       </c>
       <c r="I65" s="59">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="J65" s="60">
-        <v>9.3570018025028094</v>
+        <v>9.8563610990591002</v>
       </c>
       <c r="K65" s="60">
-        <v>45.9084341565529</v>
+        <v>44.633444926245197</v>
       </c>
       <c r="L65" s="61">
-        <v>55.265435959055701</v>
+        <v>54.489806025304297</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3915,34 +3915,34 @@
         <v>132</v>
       </c>
       <c r="C66" s="63">
-        <v>7794082.4289999995</v>
+        <v>7927869.8590000002</v>
       </c>
       <c r="D66" s="64">
-        <v>4359095.1367733497</v>
+        <v>4500971.2428089501</v>
       </c>
       <c r="E66" s="65">
-        <v>3434987.2922266498</v>
+        <v>3426898.61619105</v>
       </c>
       <c r="F66" s="63">
-        <v>681406.84645713796</v>
+        <v>679191.68507697503</v>
       </c>
       <c r="G66" s="64">
-        <v>1267</v>
+        <v>1240</v>
       </c>
       <c r="H66" s="64">
-        <v>1873890.7114959201</v>
+        <v>1966968.5708315501</v>
       </c>
       <c r="I66" s="65">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="J66" s="66">
-        <v>14.248326354094701</v>
+        <v>14.7739704868731</v>
       </c>
       <c r="K66" s="66">
-        <v>45.124234306524102</v>
+        <v>44.176137331159097</v>
       </c>
       <c r="L66" s="67">
-        <v>59.372560660618802</v>
+        <v>58.950107818032301</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
@@ -3953,34 +3953,34 @@
         <v>133</v>
       </c>
       <c r="C67" s="69">
-        <v>609295.17700000003</v>
+        <v>639568.91299999994</v>
       </c>
       <c r="D67" s="70">
-        <v>211691.20718970001</v>
+        <v>227259.48164948</v>
       </c>
       <c r="E67" s="71">
-        <v>397603.96981029998</v>
+        <v>412309.43135052</v>
       </c>
       <c r="F67" s="69">
-        <v>26750.342980197802</v>
+        <v>26431.902747614</v>
       </c>
       <c r="G67" s="70">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H67" s="70">
-        <v>89022.241589473706</v>
+        <v>97330.931353874199</v>
       </c>
       <c r="I67" s="71">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J67" s="72">
-        <v>6.8913965733272802</v>
+        <v>7.0089569599853503</v>
       </c>
       <c r="K67" s="72">
-        <v>66.278995970978301</v>
+        <v>64.453625179350993</v>
       </c>
       <c r="L67" s="73">
-        <v>73.1703925443055</v>
+        <v>71.462582139336405</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
@@ -3991,34 +3991,34 @@
         <v>134</v>
       </c>
       <c r="C68" s="57">
-        <v>653836.25699999998</v>
+        <v>684216.08</v>
       </c>
       <c r="D68" s="58">
-        <v>306692.20724160998</v>
+        <v>327354.26116025</v>
       </c>
       <c r="E68" s="59">
-        <v>347144.04975839</v>
+        <v>356861.81883975002</v>
       </c>
       <c r="F68" s="57">
-        <v>47444.0382172276</v>
+        <v>44255.752080445702</v>
       </c>
       <c r="G68" s="58">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H68" s="58">
-        <v>115414.467842848</v>
+        <v>128591.683055646</v>
       </c>
       <c r="I68" s="59">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J68" s="60">
-        <v>6.22172239080375</v>
+        <v>6.2385842499764097</v>
       </c>
       <c r="K68" s="60">
-        <v>73.412854916758107</v>
+        <v>71.797731682600599</v>
       </c>
       <c r="L68" s="61">
-        <v>79.634577307561898</v>
+        <v>78.036315932576997</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
@@ -4029,34 +4029,34 @@
         <v>135</v>
       </c>
       <c r="C69" s="57">
-        <v>194067.72399999999</v>
+        <v>303364.46999999997</v>
       </c>
       <c r="D69" s="58">
-        <v>53479.970491450003</v>
+        <v>105002.98462762999</v>
       </c>
       <c r="E69" s="59">
-        <v>140587.75350855</v>
+        <v>198361.48537236999</v>
       </c>
       <c r="F69" s="57">
-        <v>4275.5125573650603</v>
+        <v>10044.738750345699</v>
       </c>
       <c r="G69" s="58">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H69" s="58">
-        <v>18827.700434365801</v>
+        <v>47892.314610030102</v>
       </c>
       <c r="I69" s="59">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J69" s="60">
-        <v>4.9228441844571398</v>
+        <v>5.0412360217933099</v>
       </c>
       <c r="K69" s="60">
-        <v>80.784220330595204</v>
+        <v>79.606516804451999</v>
       </c>
       <c r="L69" s="61">
-        <v>85.707064515052295</v>
+        <v>84.647752826245295</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
@@ -4067,34 +4067,34 @@
         <v>136</v>
       </c>
       <c r="C70" s="57">
-        <v>209936.48300000001</v>
+        <v>222744.17199999999</v>
       </c>
       <c r="D70" s="58">
-        <v>97361.918709499994</v>
+        <v>105651.27633018</v>
       </c>
       <c r="E70" s="59">
-        <v>112574.5642905</v>
+        <v>117092.89566982001</v>
       </c>
       <c r="F70" s="57">
-        <v>15786.6091151235</v>
+        <v>15132.7735522115</v>
       </c>
       <c r="G70" s="58">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H70" s="58">
-        <v>47544.547920871599</v>
+        <v>53672.073374357897</v>
       </c>
       <c r="I70" s="59">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J70" s="60">
-        <v>5.3487638892856797</v>
+        <v>5.2949084432834201</v>
       </c>
       <c r="K70" s="60">
-        <v>80.601716906601197</v>
+        <v>79.065898909081596</v>
       </c>
       <c r="L70" s="61">
-        <v>85.950480795886904</v>
+        <v>84.360807352365001</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
@@ -4105,34 +4105,34 @@
         <v>137</v>
       </c>
       <c r="C71" s="57">
-        <v>403620.89299999998</v>
+        <v>424343.41100000002</v>
       </c>
       <c r="D71" s="58">
-        <v>192101.43452055001</v>
+        <v>207221.90027337</v>
       </c>
       <c r="E71" s="59">
-        <v>211519.45847945</v>
+        <v>217121.51072662999</v>
       </c>
       <c r="F71" s="57">
-        <v>28477.541628974599</v>
+        <v>27468.337094572798</v>
       </c>
       <c r="G71" s="58">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H71" s="58">
-        <v>66040.8353701874</v>
+        <v>73913.894805429198</v>
       </c>
       <c r="I71" s="59">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J71" s="60">
-        <v>5.5221431923928304</v>
+        <v>5.4522639134155</v>
       </c>
       <c r="K71" s="60">
-        <v>76.344591749927304</v>
+        <v>74.409648268327302</v>
       </c>
       <c r="L71" s="61">
-        <v>81.866734942320207</v>
+        <v>79.861912181742795</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
@@ -4143,34 +4143,34 @@
         <v>138</v>
       </c>
       <c r="C72" s="57">
-        <v>289811.05499999999</v>
+        <v>304846.75599999999</v>
       </c>
       <c r="D72" s="58">
-        <v>78819.257073939996</v>
+        <v>85893.928447049999</v>
       </c>
       <c r="E72" s="59">
-        <v>210991.79792606001</v>
+        <v>218952.82755295001</v>
       </c>
       <c r="F72" s="57">
-        <v>9514.2104327033703</v>
+        <v>9189.0462638303597</v>
       </c>
       <c r="G72" s="58">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H72" s="58">
-        <v>23254.681950982798</v>
+        <v>26212.7243990848</v>
       </c>
       <c r="I72" s="59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J72" s="60">
-        <v>5.5360540846285797</v>
+        <v>5.5466937999977599</v>
       </c>
       <c r="K72" s="60">
-        <v>75.368551885584395</v>
+        <v>72.779794630314797</v>
       </c>
       <c r="L72" s="61">
-        <v>80.904605970212998</v>
+        <v>78.326488430312594</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
@@ -4181,34 +4181,34 @@
         <v>139</v>
       </c>
       <c r="C73" s="57">
-        <v>370845.73100000003</v>
+        <v>390263.75799999997</v>
       </c>
       <c r="D73" s="58">
-        <v>170234.86317463001</v>
+        <v>183186.41529034</v>
       </c>
       <c r="E73" s="59">
-        <v>200610.86782536999</v>
+        <v>207077.34270966001</v>
       </c>
       <c r="F73" s="57">
-        <v>26118.140787504799</v>
+        <v>27071.255750889199</v>
       </c>
       <c r="G73" s="58">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H73" s="58">
-        <v>72871.852597682097</v>
+        <v>79215.886060747202</v>
       </c>
       <c r="I73" s="59">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J73" s="60">
-        <v>6.9957333131273298</v>
+        <v>7.0600914088770299</v>
       </c>
       <c r="K73" s="60">
-        <v>65.328585841215798</v>
+        <v>64.035812757446493</v>
       </c>
       <c r="L73" s="61">
-        <v>72.324319154343101</v>
+        <v>71.095904166323606</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
@@ -4219,34 +4219,34 @@
         <v>140</v>
       </c>
       <c r="C74" s="57">
-        <v>103454.70699999999</v>
+        <v>106265.79300000001</v>
       </c>
       <c r="D74" s="58">
-        <v>71666.06994976</v>
+        <v>74681.63621733</v>
       </c>
       <c r="E74" s="59">
-        <v>31788.637050239999</v>
+        <v>31584.156782670001</v>
       </c>
       <c r="F74" s="57">
-        <v>9866.1412371660808</v>
+        <v>9231.1246248350599</v>
       </c>
       <c r="G74" s="58">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H74" s="58">
-        <v>15567.8495364346</v>
+        <v>17117.9590106672</v>
       </c>
       <c r="I74" s="59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J74" s="60">
-        <v>9.3338156140044894</v>
+        <v>9.7312943387573405</v>
       </c>
       <c r="K74" s="60">
-        <v>49.964021660544098</v>
+        <v>48.885437967650198</v>
       </c>
       <c r="L74" s="61">
-        <v>59.297837274548598</v>
+        <v>58.616732306407599</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4257,34 +4257,34 @@
         <v>141</v>
       </c>
       <c r="C75" s="63">
-        <v>67423.834000000003</v>
+        <v>71484.600999999995</v>
       </c>
       <c r="D75" s="64">
-        <v>35339.430981179998</v>
+        <v>38340.670946689999</v>
       </c>
       <c r="E75" s="65">
-        <v>32084.403018820001</v>
+        <v>33143.930053310003</v>
       </c>
       <c r="F75" s="63">
-        <v>8364.6981134668604</v>
+        <v>9160.9252159707394</v>
       </c>
       <c r="G75" s="64">
         <v>14</v>
       </c>
       <c r="H75" s="64">
-        <v>11200.099079647</v>
+        <v>11938.855416056</v>
       </c>
       <c r="I75" s="65">
         <v>3</v>
       </c>
       <c r="J75" s="66">
-        <v>5.9143493641997003</v>
+        <v>5.8861642116816304</v>
       </c>
       <c r="K75" s="66">
-        <v>70.969935641346694</v>
+        <v>68.964943733471898</v>
       </c>
       <c r="L75" s="67">
-        <v>76.884285005546403</v>
+        <v>74.851107945153501</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
@@ -4295,34 +4295,34 @@
         <v>142</v>
       </c>
       <c r="C76" s="69">
-        <v>668864.34100000001</v>
+        <v>679783.76899999997</v>
       </c>
       <c r="D76" s="70">
-        <v>335157.77365083998</v>
+        <v>348162.69866115</v>
       </c>
       <c r="E76" s="71">
-        <v>333706.56734915997</v>
+        <v>331621.07033885003</v>
       </c>
       <c r="F76" s="69">
-        <v>45865.698790888302</v>
+        <v>42599.394266525298</v>
       </c>
       <c r="G76" s="70">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H76" s="70">
-        <v>111911.025125888</v>
+        <v>121585.617726418</v>
       </c>
       <c r="I76" s="71">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J76" s="72">
-        <v>10.956319054145199</v>
+        <v>11.957739592219699</v>
       </c>
       <c r="K76" s="72">
-        <v>35.453312508884899</v>
+        <v>34.637017488171097</v>
       </c>
       <c r="L76" s="73">
-        <v>46.409631563030203</v>
+        <v>46.594757080390799</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
@@ -4333,34 +4333,34 @@
         <v>143</v>
       </c>
       <c r="C77" s="57">
-        <v>431235.32699999999</v>
+        <v>408206.57500000001</v>
       </c>
       <c r="D77" s="58">
-        <v>364411.14120646002</v>
+        <v>345586.21813152003</v>
       </c>
       <c r="E77" s="59">
-        <v>66824.185793540004</v>
+        <v>62620.356868479998</v>
       </c>
       <c r="F77" s="57">
-        <v>43671.465281224897</v>
+        <v>40223.143425310598</v>
       </c>
       <c r="G77" s="58">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H77" s="58">
-        <v>174367.11460417099</v>
+        <v>169586.02954146199</v>
       </c>
       <c r="I77" s="59">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J77" s="60">
-        <v>13.2792324407827</v>
+        <v>13.7080401410393</v>
       </c>
       <c r="K77" s="60">
-        <v>38.4019397252221</v>
+        <v>36.841425139043601</v>
       </c>
       <c r="L77" s="61">
-        <v>51.681172166004799</v>
+        <v>50.549465280082899</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
@@ -4371,34 +4371,34 @@
         <v>144</v>
       </c>
       <c r="C78" s="57">
-        <v>445290.45299999998</v>
+        <v>447315.89</v>
       </c>
       <c r="D78" s="58">
-        <v>333483.72905378003</v>
+        <v>336684.42221250001</v>
       </c>
       <c r="E78" s="59">
-        <v>111806.72394621999</v>
+        <v>110631.46778750001</v>
       </c>
       <c r="F78" s="57">
-        <v>51631.3883686154</v>
+        <v>52103.813557996997</v>
       </c>
       <c r="G78" s="58">
         <v>102</v>
       </c>
       <c r="H78" s="58">
-        <v>76189.000616365694</v>
+        <v>77013.899426478805</v>
       </c>
       <c r="I78" s="59">
         <v>32</v>
       </c>
       <c r="J78" s="60">
-        <v>30.5787280185951</v>
+        <v>31.448227548685399</v>
       </c>
       <c r="K78" s="60">
-        <v>23.822110727002499</v>
+        <v>23.6621216253141</v>
       </c>
       <c r="L78" s="61">
-        <v>54.400838745597703</v>
+        <v>55.110349173999502</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4409,34 +4409,34 @@
         <v>145</v>
       </c>
       <c r="C79" s="63">
-        <v>1370360.7169999999</v>
+        <v>1379532.811</v>
       </c>
       <c r="D79" s="64">
-        <v>1110142.32269731</v>
+        <v>1123095.84213953</v>
       </c>
       <c r="E79" s="65">
-        <v>260218.39430268999</v>
+        <v>256436.96886046999</v>
       </c>
       <c r="F79" s="63">
-        <v>185807.068443492</v>
+        <v>185516.44786625501</v>
       </c>
       <c r="G79" s="64">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H79" s="64">
-        <v>515462.19508173002</v>
+        <v>524404.77985183895</v>
       </c>
       <c r="I79" s="65">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J79" s="66">
-        <v>27.617446965291201</v>
+        <v>28.608162894544702</v>
       </c>
       <c r="K79" s="66">
-        <v>26.1442230705292</v>
+        <v>25.807148593905598</v>
       </c>
       <c r="L79" s="67">
-        <v>53.761670035820401</v>
+        <v>54.4153114884503</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
@@ -4447,34 +4447,34 @@
         <v>146</v>
       </c>
       <c r="C80" s="69">
-        <v>323178.239</v>
+        <v>131304.64499999999</v>
       </c>
       <c r="D80" s="70">
-        <v>181880.66938251999</v>
+        <v>80490.344085289995</v>
       </c>
       <c r="E80" s="71">
-        <v>141297.56961748001</v>
+        <v>50814.300914710002</v>
       </c>
       <c r="F80" s="69">
-        <v>33662.107755605903</v>
+        <v>12738.864861952999</v>
       </c>
       <c r="G80" s="70">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="H80" s="70">
-        <v>54841.067049693796</v>
+        <v>19914.286412661899</v>
       </c>
       <c r="I80" s="71">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J80" s="72">
-        <v>6.2241226692176896</v>
+        <v>6.2455738135128396</v>
       </c>
       <c r="K80" s="72">
-        <v>67.789598559894998</v>
+        <v>66.675636561273294</v>
       </c>
       <c r="L80" s="73">
-        <v>74.013721229112704</v>
+        <v>72.921210374786199</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
@@ -4485,34 +4485,34 @@
         <v>147</v>
       </c>
       <c r="C81" s="57">
-        <v>498205.88500000001</v>
+        <v>504916.65</v>
       </c>
       <c r="D81" s="58">
-        <v>347154.08509754</v>
+        <v>353533.95569680998</v>
       </c>
       <c r="E81" s="59">
-        <v>151051.79990246001</v>
+        <v>151382.69430318999</v>
       </c>
       <c r="F81" s="57">
-        <v>67939.649656450405</v>
+        <v>69336.793787322007</v>
       </c>
       <c r="G81" s="58">
         <v>133</v>
       </c>
       <c r="H81" s="58">
-        <v>125112.825703394</v>
+        <v>127650.09864637601</v>
       </c>
       <c r="I81" s="59">
         <v>53</v>
       </c>
       <c r="J81" s="60">
-        <v>8.1362611205763091</v>
+        <v>8.6618319559111292</v>
       </c>
       <c r="K81" s="60">
-        <v>40.442528366795003</v>
+        <v>40.034172906128298</v>
       </c>
       <c r="L81" s="61">
-        <v>48.578789487371303</v>
+        <v>48.696004862039402</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
@@ -4523,34 +4523,34 @@
         <v>148</v>
       </c>
       <c r="C82" s="57">
-        <v>1035674.1139999999</v>
+        <v>1293550.149</v>
       </c>
       <c r="D82" s="58">
-        <v>409564.76956926001</v>
+        <v>553231.17879508005</v>
       </c>
       <c r="E82" s="59">
-        <v>626109.34443073999</v>
+        <v>740318.97020492004</v>
       </c>
       <c r="F82" s="57">
-        <v>50423.772502589403</v>
+        <v>69803.338876260503</v>
       </c>
       <c r="G82" s="58">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="H82" s="58">
-        <v>165278.78417827599</v>
+        <v>222209.39928505401</v>
       </c>
       <c r="I82" s="59">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="J82" s="60">
-        <v>6.3406610310966496</v>
+        <v>6.3768252490746899</v>
       </c>
       <c r="K82" s="60">
-        <v>71.054544609372698</v>
+        <v>69.206485706664097</v>
       </c>
       <c r="L82" s="61">
-        <v>77.3952056404693</v>
+        <v>75.583310955738796</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4561,34 +4561,34 @@
         <v>149</v>
       </c>
       <c r="C83" s="63">
-        <v>5937024.1909999996</v>
+        <v>5998098.415</v>
       </c>
       <c r="D83" s="64">
-        <v>3420495.6127240299</v>
+        <v>3513715.7642317698</v>
       </c>
       <c r="E83" s="65">
-        <v>2516528.5782759702</v>
+        <v>2484382.6507682302</v>
       </c>
       <c r="F83" s="63">
-        <v>529381.31654249202</v>
+        <v>527312.68755143997</v>
       </c>
       <c r="G83" s="64">
-        <v>982</v>
+        <v>962</v>
       </c>
       <c r="H83" s="64">
-        <v>1528658.03456455</v>
+        <v>1597194.7864874499</v>
       </c>
       <c r="I83" s="65">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="J83" s="66">
-        <v>19.0572558087792</v>
+        <v>19.8100850584791</v>
       </c>
       <c r="K83" s="66">
-        <v>34.315774775028302</v>
+        <v>33.618811660452401</v>
       </c>
       <c r="L83" s="67">
-        <v>53.373030583807498</v>
+        <v>53.428896718931497</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
@@ -4599,34 +4599,34 @@
         <v>150</v>
       </c>
       <c r="C84" s="69">
-        <v>562362.48300000001</v>
+        <v>614584.91299999994</v>
       </c>
       <c r="D84" s="70">
-        <v>178860.96167397001</v>
+        <v>204209.04408912</v>
       </c>
       <c r="E84" s="71">
-        <v>383501.52132603002</v>
+        <v>410375.86891088</v>
       </c>
       <c r="F84" s="69">
-        <v>20517.6750815413</v>
+        <v>20482.7195659465</v>
       </c>
       <c r="G84" s="70">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H84" s="70">
-        <v>66606.470428089393</v>
+        <v>78443.841054975797</v>
       </c>
       <c r="I84" s="71">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J84" s="72">
-        <v>5.271444860181</v>
+        <v>5.1160740094947803</v>
       </c>
       <c r="K84" s="72">
-        <v>82.388161255102105</v>
+        <v>80.125092549761405</v>
       </c>
       <c r="L84" s="73">
-        <v>87.659606115283097</v>
+        <v>85.2411665592562</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
@@ -4637,34 +4637,34 @@
         <v>151</v>
       </c>
       <c r="C85" s="57">
-        <v>117896.338</v>
+        <v>123020.05</v>
       </c>
       <c r="D85" s="58">
-        <v>50041.130403000003</v>
+        <v>53113.979159050003</v>
       </c>
       <c r="E85" s="59">
-        <v>67855.207597000001</v>
+        <v>69906.070840949993</v>
       </c>
       <c r="F85" s="57">
-        <v>9314.4230916271499</v>
+        <v>9872.0646975008003</v>
       </c>
       <c r="G85" s="58">
         <v>17</v>
       </c>
       <c r="H85" s="58">
-        <v>18838.018391882801</v>
+        <v>19780.730769376201</v>
       </c>
       <c r="I85" s="59">
         <v>8</v>
       </c>
       <c r="J85" s="60">
-        <v>8.1509558587241209</v>
+        <v>8.3010769251223095</v>
       </c>
       <c r="K85" s="60">
-        <v>58.897306127614101</v>
+        <v>55.963989055494501</v>
       </c>
       <c r="L85" s="61">
-        <v>67.048261986338204</v>
+        <v>64.265065980616797</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
@@ -4675,34 +4675,34 @@
         <v>152</v>
       </c>
       <c r="C86" s="57">
-        <v>720706.522</v>
+        <v>732895.86</v>
       </c>
       <c r="D86" s="58">
-        <v>360688.07031991001</v>
+        <v>375760.54379074002</v>
       </c>
       <c r="E86" s="59">
-        <v>360018.45168008999</v>
+        <v>357135.31620926003</v>
       </c>
       <c r="F86" s="57">
-        <v>54382.094131558697</v>
+        <v>52483.7148093254</v>
       </c>
       <c r="G86" s="58">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H86" s="58">
-        <v>131048.218041133</v>
+        <v>140412.896094592</v>
       </c>
       <c r="I86" s="59">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J86" s="60">
-        <v>6.5869907357302502</v>
+        <v>6.8114839567596599</v>
       </c>
       <c r="K86" s="60">
-        <v>66.164013647214503</v>
+        <v>64.000886455004306</v>
       </c>
       <c r="L86" s="61">
-        <v>72.7510043829447</v>
+        <v>70.812370411763993</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
@@ -4713,34 +4713,34 @@
         <v>153</v>
       </c>
       <c r="C87" s="57">
-        <v>2643981.3319999999</v>
+        <v>2693951.3429999999</v>
       </c>
       <c r="D87" s="58">
-        <v>1065577.9979455599</v>
+        <v>1112286.1398562901</v>
       </c>
       <c r="E87" s="59">
-        <v>1578403.33405444</v>
+        <v>1581665.20314371</v>
       </c>
       <c r="F87" s="57">
-        <v>125051.26745685699</v>
+        <v>126536.187665802</v>
       </c>
       <c r="G87" s="58">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H87" s="58">
-        <v>428076.02892605</v>
+        <v>452780.02273475198</v>
       </c>
       <c r="I87" s="59">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J87" s="60">
-        <v>8.8946147899141206</v>
+        <v>9.5733059550726392</v>
       </c>
       <c r="K87" s="60">
-        <v>48.137045543959999</v>
+        <v>47.103825178954999</v>
       </c>
       <c r="L87" s="61">
-        <v>57.0316603338742</v>
+        <v>56.677131134027597</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
@@ -4751,34 +4751,34 @@
         <v>154</v>
       </c>
       <c r="C88" s="57">
-        <v>75677.817999999999</v>
+        <v>77266.903000000006</v>
       </c>
       <c r="D88" s="58">
-        <v>51835.6786641</v>
+        <v>53689.382373230001</v>
       </c>
       <c r="E88" s="59">
-        <v>23842.139335899999</v>
+        <v>23577.520626770001</v>
       </c>
       <c r="F88" s="57">
-        <v>9186.1110450953292</v>
+        <v>9575.7693629415098</v>
       </c>
       <c r="G88" s="58">
         <v>14</v>
       </c>
       <c r="H88" s="58">
-        <v>22465.162758746501</v>
+        <v>23266.948548148299</v>
       </c>
       <c r="I88" s="59">
         <v>7</v>
       </c>
       <c r="J88" s="60">
-        <v>8.2032432464491993</v>
+        <v>8.3616517181488099</v>
       </c>
       <c r="K88" s="60">
-        <v>50.568601571469003</v>
+        <v>49.602159208019799</v>
       </c>
       <c r="L88" s="61">
-        <v>58.7718448179182</v>
+        <v>57.963810926168598</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
@@ -4789,34 +4789,34 @@
         <v>155</v>
       </c>
       <c r="C89" s="57">
-        <v>2464068.906</v>
+        <v>2446950.415</v>
       </c>
       <c r="D89" s="58">
-        <v>1662683.2586767599</v>
+        <v>1690052.7266664701</v>
       </c>
       <c r="E89" s="59">
-        <v>801385.64732323994</v>
+        <v>756897.68833352998</v>
       </c>
       <c r="F89" s="57">
-        <v>300004.21407803701</v>
+        <v>295892.427962007</v>
       </c>
       <c r="G89" s="58">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="H89" s="58">
-        <v>754364.92256360105</v>
+        <v>791212.08132592903</v>
       </c>
       <c r="I89" s="59">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="J89" s="60">
-        <v>15.205654563732001</v>
+        <v>15.334099441680699</v>
       </c>
       <c r="K89" s="60">
-        <v>35.863544985080502</v>
+        <v>35.142999631219901</v>
       </c>
       <c r="L89" s="61">
-        <v>51.069199548812499</v>
+        <v>50.4770990729006</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4827,34 +4827,34 @@
         <v>156</v>
       </c>
       <c r="C90" s="63">
-        <v>1180898.577</v>
+        <v>1210898.679</v>
       </c>
       <c r="D90" s="64">
-        <v>964256.95208618103</v>
+        <v>986846.95398316998</v>
       </c>
       <c r="E90" s="65">
-        <v>216641.62491382001</v>
+        <v>224051.72501682999</v>
       </c>
       <c r="F90" s="63">
-        <v>158585.603979234</v>
+        <v>159954.211843903</v>
       </c>
       <c r="G90" s="64">
         <v>304</v>
       </c>
       <c r="H90" s="64">
-        <v>444311.44457955298</v>
+        <v>452967.10789241001</v>
       </c>
       <c r="I90" s="65">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J90" s="66">
-        <v>24.127206820607299</v>
+        <v>25.1984016702405</v>
       </c>
       <c r="K90" s="66">
-        <v>26.1361092802942</v>
+        <v>26.085424225187499</v>
       </c>
       <c r="L90" s="67">
-        <v>50.263316100901498</v>
+        <v>51.283825895428002</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
@@ -4865,34 +4865,34 @@
         <v>157</v>
       </c>
       <c r="C91" s="69">
-        <v>714370.11199999996</v>
+        <v>755567.929</v>
       </c>
       <c r="D91" s="70">
-        <v>249807.68585327</v>
+        <v>272265.47929455998</v>
       </c>
       <c r="E91" s="71">
-        <v>464562.42614673002</v>
+        <v>483302.44970544003</v>
       </c>
       <c r="F91" s="69">
-        <v>32242.483151528199</v>
+        <v>31841.0889131599</v>
       </c>
       <c r="G91" s="70">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H91" s="70">
-        <v>90927.539736478895</v>
+        <v>101820.75609719301</v>
       </c>
       <c r="I91" s="71">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J91" s="72">
-        <v>5.4857228195511496</v>
+        <v>5.4085107914600101</v>
       </c>
       <c r="K91" s="72">
-        <v>79.476042103303996</v>
+        <v>77.427618697221007</v>
       </c>
       <c r="L91" s="73">
-        <v>84.961764922855195</v>
+        <v>82.836129488681095</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
@@ -4903,34 +4903,34 @@
         <v>158</v>
       </c>
       <c r="C92" s="57">
-        <v>359373.33600000001</v>
+        <v>369611.52299999999</v>
       </c>
       <c r="D92" s="58">
-        <v>123039.02128951999</v>
+        <v>130793.22148036001</v>
       </c>
       <c r="E92" s="59">
-        <v>236334.31471047999</v>
+        <v>238818.30151963999</v>
       </c>
       <c r="F92" s="57">
-        <v>12410.865434568301</v>
+        <v>13432.580416515901</v>
       </c>
       <c r="G92" s="58">
         <v>20</v>
       </c>
       <c r="H92" s="58">
-        <v>46982.905976334703</v>
+        <v>49914.5988410235</v>
       </c>
       <c r="I92" s="59">
         <v>10</v>
       </c>
       <c r="J92" s="60">
-        <v>7.5338582435182699</v>
+        <v>7.7211050105217502</v>
       </c>
       <c r="K92" s="60">
-        <v>53.603708331114497</v>
+        <v>52.0170767827899</v>
       </c>
       <c r="L92" s="61">
-        <v>61.1375665746328</v>
+        <v>59.738181793311597</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
@@ -4941,16 +4941,16 @@
         <v>159</v>
       </c>
       <c r="C93" s="57">
-        <v>5026.6329999999998</v>
+        <v>5169.4570000000003</v>
       </c>
       <c r="D93" s="58">
-        <v>2268.3994422199999</v>
+        <v>2364.0229820999998</v>
       </c>
       <c r="E93" s="59">
-        <v>2758.23355778</v>
+        <v>2805.4340179000001</v>
       </c>
       <c r="F93" s="57">
-        <v>604.25046168579502</v>
+        <v>645.49384626878998</v>
       </c>
       <c r="G93" s="58">
         <v>1</v>
@@ -4962,13 +4962,13 @@
         <v>17</v>
       </c>
       <c r="J93" s="60">
-        <v>9.1564362557872805</v>
+        <v>9.5050417926242403</v>
       </c>
       <c r="K93" s="60">
-        <v>51.793643347386897</v>
+        <v>50.117433086282503</v>
       </c>
       <c r="L93" s="61">
-        <v>60.950079603174203</v>
+        <v>59.622474878906701</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
@@ -4979,34 +4979,34 @@
         <v>160</v>
       </c>
       <c r="C94" s="57">
-        <v>62570.163</v>
+        <v>62153.894999999997</v>
       </c>
       <c r="D94" s="58">
-        <v>38252.488640659998</v>
+        <v>37854.28219541</v>
       </c>
       <c r="E94" s="59">
-        <v>24317.674359339999</v>
+        <v>24299.61280459</v>
       </c>
       <c r="F94" s="57">
-        <v>3542.9484040411598</v>
+        <v>3031.9093685072598</v>
       </c>
       <c r="G94" s="58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H94" s="58">
-        <v>14057.192162612801</v>
+        <v>14401.066917562801</v>
       </c>
       <c r="I94" s="59">
         <v>4</v>
       </c>
       <c r="J94" s="60">
-        <v>10.609592498659801</v>
+        <v>11.450571896216299</v>
       </c>
       <c r="K94" s="60">
-        <v>42.081712022565704</v>
+        <v>41.639599445307297</v>
       </c>
       <c r="L94" s="61">
-        <v>52.691304521225398</v>
+        <v>53.0901713415236</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
@@ -5017,34 +5017,34 @@
         <v>161</v>
       </c>
       <c r="C95" s="57">
-        <v>346591.962</v>
+        <v>365868.05599999998</v>
       </c>
       <c r="D95" s="58">
-        <v>88357.168577529999</v>
+        <v>96487.05202232</v>
       </c>
       <c r="E95" s="59">
-        <v>258234.79342246999</v>
+        <v>269381.00397768</v>
       </c>
       <c r="F95" s="57">
-        <v>6959.6426287476597</v>
+        <v>6415.1848507831901</v>
       </c>
       <c r="G95" s="58">
+        <v>12</v>
+      </c>
+      <c r="H95" s="58">
+        <v>28070.3776173363</v>
+      </c>
+      <c r="I95" s="59">
         <v>13</v>
       </c>
-      <c r="H95" s="58">
-        <v>24860.834271379299</v>
-      </c>
-      <c r="I95" s="59">
-        <v>12</v>
-      </c>
       <c r="J95" s="60">
-        <v>5.1070203451753304</v>
+        <v>5.0424970565884202</v>
       </c>
       <c r="K95" s="60">
-        <v>80.109980985609198</v>
+        <v>77.920846973013894</v>
       </c>
       <c r="L95" s="61">
-        <v>85.217001330784498</v>
+        <v>82.963344029602297</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5055,34 +5055,34 @@
         <v>162</v>
       </c>
       <c r="C96" s="63">
-        <v>191272.85</v>
+        <v>197936.46799999999</v>
       </c>
       <c r="D96" s="64">
-        <v>80169.125024449997</v>
+        <v>83703.99861558</v>
       </c>
       <c r="E96" s="65">
-        <v>111103.72497554999</v>
+        <v>114232.46938441999</v>
       </c>
       <c r="F96" s="63">
-        <v>11120.9496393343</v>
+        <v>11611.123890818801</v>
       </c>
       <c r="G96" s="64">
         <v>23</v>
       </c>
       <c r="H96" s="64">
-        <v>26678.9922823169</v>
+        <v>27844.840082846</v>
       </c>
       <c r="I96" s="65">
         <v>14</v>
       </c>
       <c r="J96" s="66">
-        <v>10.1004571732388</v>
+        <v>10.426100919589899</v>
       </c>
       <c r="K96" s="66">
-        <v>45.695951506624397</v>
+        <v>45.122265462884499</v>
       </c>
       <c r="L96" s="67">
-        <v>55.796408679863198</v>
+        <v>55.548366382474399</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
@@ -5093,34 +5093,34 @@
         <v>163</v>
       </c>
       <c r="C97" s="69">
-        <v>996967.35199999996</v>
+        <v>1064465.7420000001</v>
       </c>
       <c r="D97" s="70">
-        <v>397594.95270134002</v>
+        <v>437806.55198761</v>
       </c>
       <c r="E97" s="71">
-        <v>599372.39929865999</v>
+        <v>626659.19001239003</v>
       </c>
       <c r="F97" s="69">
-        <v>58762.341310541997</v>
+        <v>59801.1349200927</v>
       </c>
       <c r="G97" s="70">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H97" s="70">
-        <v>145869.11595511399</v>
+        <v>163870.677794733</v>
       </c>
       <c r="I97" s="71">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J97" s="72">
-        <v>5.4597651172947002</v>
+        <v>5.4035149076696403</v>
       </c>
       <c r="K97" s="72">
-        <v>77.441803446143396</v>
+        <v>75.564080269034406</v>
       </c>
       <c r="L97" s="73">
-        <v>82.901568563438104</v>
+        <v>80.967595176703895</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5131,34 +5131,34 @@
         <v>164</v>
       </c>
       <c r="C98" s="63">
-        <v>813522.33100000001</v>
+        <v>845258.19400000002</v>
       </c>
       <c r="D98" s="64">
-        <v>372657.95568966999</v>
+        <v>393887.89660923003</v>
       </c>
       <c r="E98" s="65">
-        <v>440864.37531033001</v>
+        <v>451370.29739076999</v>
       </c>
       <c r="F98" s="63">
-        <v>48755.192936924403</v>
+        <v>51964.526503209403</v>
       </c>
       <c r="G98" s="64">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H98" s="64">
-        <v>153883.076336147</v>
+        <v>161077.47319824799</v>
       </c>
       <c r="I98" s="65">
         <v>45</v>
       </c>
       <c r="J98" s="66">
-        <v>7.7089175178284401</v>
+        <v>8.0320332316099901</v>
       </c>
       <c r="K98" s="66">
-        <v>52.823814842535697</v>
+        <v>51.262973563895002</v>
       </c>
       <c r="L98" s="67">
-        <v>60.532732360364101</v>
+        <v>59.295006795505003</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
@@ -5390,11 +5390,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E4135E59-A47D-4B3C-A26C-5DC138060BA6}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{ED42FE82-4B60-49FA-8A01-A2E39186BA25}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{76D795CB-255D-44B5-8F7C-29ED079984B6}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{74597F65-3ADF-4E8A-9E62-3735FD17B5C6}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{073DD1CE-DF9F-463C-B9CD-A6A54BE38CC0}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{82FCBF5F-97AC-4EE7-8048-A62B21E89A6D}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{348238C7-6AEA-4219-9B90-0069CE7BCB22}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{5655B753-2C14-4B88-A7D2-154ED63FBBF2}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{11F215DD-011C-4B4B-856B-2514AA555B9B}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{B793638D-1FF9-4E6E-A730-22741C80C22C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab05.xlsx
+++ b/AfDD_2023_Annex_Table_Tab05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{555B0133-9785-4B7B-A607-C5B214ECE501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3EEFC7E-345F-43BA-94FC-FFB25D5A1C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{08D2BC9A-2CC7-4345-A329-E15FFBB2451E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5BD966DA-DE5A-4091-B565-765183C4EC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -1443,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18549190-99C7-47CE-BB61-5711ACA615C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DF699-892F-474A-BB3D-7CE6E412A087}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5390,11 +5390,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{82FCBF5F-97AC-4EE7-8048-A62B21E89A6D}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{348238C7-6AEA-4219-9B90-0069CE7BCB22}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{5655B753-2C14-4B88-A7D2-154ED63FBBF2}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{11F215DD-011C-4B4B-856B-2514AA555B9B}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{B793638D-1FF9-4E6E-A730-22741C80C22C}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{CB69385B-2548-4ACB-BBB9-6A165D810E1D}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{703949EC-D38D-4649-9ABB-C3EFDFA3A6F5}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{BC2E418F-6667-4FCE-9510-48C4196E0089}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{1B6F015F-DC16-4621-9366-D98BCBB72C71}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{A41607E0-321D-4380-A0ED-C241E770BF96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab05.xlsx
+++ b/AfDD_2023_Annex_Table_Tab05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3EEFC7E-345F-43BA-94FC-FFB25D5A1C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F95D3A90-4607-4B56-B1C9-1F532F0185C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5BD966DA-DE5A-4091-B565-765183C4EC6D}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{9AF1F2E0-D2C7-4C71-9A3B-A9D68805D71F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: World Population Prospects: the 2022 Revision and World Urbanization Prospects 2018 - United Nations Department of Economic and Social Affairs Population Division.</t>
@@ -1443,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DF699-892F-474A-BB3D-7CE6E412A087}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B057C7E-15FE-45A3-A1C7-6198859E49C5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4170,7 +4170,7 @@
         <v>72.779794630314797</v>
       </c>
       <c r="L72" s="61">
-        <v>78.326488430312594</v>
+        <v>78.326488430312494</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
@@ -5093,34 +5093,34 @@
         <v>163</v>
       </c>
       <c r="C97" s="69">
-        <v>1064465.7420000001</v>
+        <v>842549.25199999998</v>
       </c>
       <c r="D97" s="70">
-        <v>437806.55198761</v>
+        <v>348533.71888524003</v>
       </c>
       <c r="E97" s="71">
-        <v>626659.19001239003</v>
+        <v>494015.53311476001</v>
       </c>
       <c r="F97" s="69">
-        <v>59801.1349200927</v>
+        <v>48796.272602885401</v>
       </c>
       <c r="G97" s="70">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="H97" s="70">
-        <v>163870.677794733</v>
+        <v>117932.369893483</v>
       </c>
       <c r="I97" s="71">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J97" s="72">
-        <v>5.4035149076696403</v>
+        <v>5.4141204157620599</v>
       </c>
       <c r="K97" s="72">
-        <v>75.564080269034406</v>
+        <v>72.908692094416395</v>
       </c>
       <c r="L97" s="73">
-        <v>80.967595176703895</v>
+        <v>78.322812510178395</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5131,34 +5131,34 @@
         <v>164</v>
       </c>
       <c r="C98" s="63">
-        <v>845258.19400000002</v>
+        <v>692226.44200000004</v>
       </c>
       <c r="D98" s="64">
-        <v>393887.89660923003</v>
+        <v>318611.69368165999</v>
       </c>
       <c r="E98" s="65">
-        <v>451370.29739076999</v>
+        <v>373614.74831833999</v>
       </c>
       <c r="F98" s="63">
-        <v>51964.526503209403</v>
+        <v>36149.9535672317</v>
       </c>
       <c r="G98" s="64">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="H98" s="64">
-        <v>161077.47319824799</v>
+        <v>129607.049632435</v>
       </c>
       <c r="I98" s="65">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J98" s="66">
-        <v>8.0320332316099901</v>
+        <v>8.7123928268905999</v>
       </c>
       <c r="K98" s="66">
-        <v>51.262973563895002</v>
+        <v>47.823885843296999</v>
       </c>
       <c r="L98" s="67">
-        <v>59.295006795505003</v>
+        <v>56.5362786701875</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
@@ -5390,11 +5390,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{CB69385B-2548-4ACB-BBB9-6A165D810E1D}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{703949EC-D38D-4649-9ABB-C3EFDFA3A6F5}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{BC2E418F-6667-4FCE-9510-48C4196E0089}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{1B6F015F-DC16-4621-9366-D98BCBB72C71}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{A41607E0-321D-4380-A0ED-C241E770BF96}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{76F64F12-14DF-4F77-9C6D-F0ABA4CAD562}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{EE0EBBC2-A60B-41EB-BED2-FDE3A0727EC7}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{C2256FE1-BE0A-40AF-BAAB-91B453AC8F11}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{E7EE8323-23CC-41CB-82BA-1B8A6D013C80}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{28085D96-FF83-49B1-AAD3-3FD0600E6A86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab05.xlsx
+++ b/AfDD_2023_Annex_Table_Tab05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F95D3A90-4607-4B56-B1C9-1F532F0185C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4163A215-7CBB-4C08-A428-2269CBE4F773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{9AF1F2E0-D2C7-4C71-9A3B-A9D68805D71F}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{9F9C9288-E85F-4FFE-91DB-B0E12794A781}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="176">
   <si>
     <t>Table 5: Demographic estimates</t>
   </si>
@@ -552,16 +552,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B057C7E-15FE-45A3-A1C7-6198859E49C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37FF17C-DD2B-4878-9A0A-1D0537E5DE95}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5304,7 +5307,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C109" s="76"/>
       <c r="D109" s="76"/>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C110" s="76"/>
       <c r="D110" s="76"/>
@@ -5333,7 +5336,9 @@
       <c r="L110" s="76"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="C111" s="76"/>
       <c r="D111" s="76"/>
       <c r="E111" s="76"/>
@@ -5347,7 +5352,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C112" s="76"/>
       <c r="D112" s="76"/>
@@ -5362,7 +5367,7 @@
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
@@ -5390,13 +5395,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{76F64F12-14DF-4F77-9C6D-F0ABA4CAD562}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{EE0EBBC2-A60B-41EB-BED2-FDE3A0727EC7}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{C2256FE1-BE0A-40AF-BAAB-91B453AC8F11}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{E7EE8323-23CC-41CB-82BA-1B8A6D013C80}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{28085D96-FF83-49B1-AAD3-3FD0600E6A86}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E2C93D00-534E-42EF-A9D5-DE25E378FE6D}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{3CF6FD97-38F6-4919-A604-33813C44E1C5}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{39247C2C-6243-4121-9C72-B2CAD41B7586}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{5B72ECB1-D311-4AAB-B2F5-FA63A55F8691}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{D14A25AE-24DB-4660-9311-78EC15BCDEA1}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{601A61CD-15F4-4B62-815B-ACF281D8B0E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab05.xlsx
+++ b/AfDD_2023_Annex_Table_Tab05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4163A215-7CBB-4C08-A428-2269CBE4F773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7D9E6AF-34C3-4587-904D-5D986EDE5F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{9F9C9288-E85F-4FFE-91DB-B0E12794A781}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{94F80B98-837A-45AA-AEB0-947C33B083F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab05'!$A$2:$L$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab05'!$A$1:$L$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1446,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37FF17C-DD2B-4878-9A0A-1D0537E5DE95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE21C165-8802-406D-BA7A-D4D18F25CBEE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1454,16 +1454,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.36328125" style="78" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" style="79" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="12.36328125" style="78" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.33203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="12.33203125" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1478,7 +1478,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>90.895037061178499</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>56.880357479417</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>63.120143779422399</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>61.749013368800099</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>82.4861713327427</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>85.492476755575098</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>67.251901682602295</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>52.540839849304803</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>80.518644776700299</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>78.430644975960206</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>34</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>71.936523106170398</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>93.249497220205697</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>38</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>81.420023132975999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>102.618315570654</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>42</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>98.088589859311895</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>44</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>77.8460315786526</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>46</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>97.854932263359004</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>48</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>71.279444924505398</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>50</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>67.143376874156104</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>76.156205940225902</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
         <v>34</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>85.072935262671805</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>55</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>73.351080358807593</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>57</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>53.6772266965013</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>59</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>76.086656230955796</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>61</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>74.721522364891896</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>63</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>68.589960020819603</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>65</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>73.668120170666995</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>67</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>41.044780169386797</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>69</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>71.417426450790003</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>71</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>45.470962836232303</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>73</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>98.943606878815899</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>75</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>87.812950680301398</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>77</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>79.949841222993399</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>79</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>86.779359801020405</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>81</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>86.830143347221096</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="28" t="s">
         <v>34</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>72.738831230671707</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>84</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>58.8084163398361</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>86</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>60.5001558870349</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>88</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>49.605975503807599</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>90</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>81.254444156140394</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>92</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>52.218093093504997</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>94</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>51.196732438748803</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="28" t="s">
         <v>34</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>58.9306362365121</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>97</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>83.471411186113002</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>99</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>86.068713033496493</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>101</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>46.477836769971603</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>103</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>78.163722056093306</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>105</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>83.425577273081601</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>107</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>68.045414806125606</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>109</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>81.375606216895093</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>111</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>75.233983198816304</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>113</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>78.033665539020603</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>115</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>98.295666082201706</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>117</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>105.12570415152101</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>119</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>85.250698475335994</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>121</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>80.470497135537997</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>123</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>72.758399658888607</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>125</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>75.731787143043306</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="28" t="s">
         <v>34</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>79.861912181742795</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="42" t="s">
         <v>34</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>75.090329366673501</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="42" t="s">
         <v>34</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>52.679805921437797</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="55" t="s">
         <v>34</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>48.923541166735497</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="55" t="s">
         <v>34</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>54.489806025304297</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="55" t="s">
         <v>34</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>58.950107818032301</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="55" t="s">
         <v>34</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>71.462582139336405</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="55" t="s">
         <v>34</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>78.036315932576997</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="55" t="s">
         <v>34</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>84.647752826245295</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="55" t="s">
         <v>34</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>84.360807352365001</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="55" t="s">
         <v>34</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>79.861912181742795</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="55" t="s">
         <v>34</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>78.326488430312494</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="55" t="s">
         <v>34</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>71.095904166323606</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="55" t="s">
         <v>34</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>58.616732306407599</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="55" t="s">
         <v>34</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>74.851107945153501</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="55" t="s">
         <v>34</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>46.594757080390799</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="55" t="s">
         <v>34</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>50.549465280082899</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="55" t="s">
         <v>34</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>55.110349173999502</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="55" t="s">
         <v>34</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>54.4153114884503</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="55" t="s">
         <v>34</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>72.921210374786199</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="55" t="s">
         <v>34</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>48.696004862039402</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="55" t="s">
         <v>34</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>75.583310955738796</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="55" t="s">
         <v>34</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>53.428896718931497</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="55" t="s">
         <v>34</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>85.2411665592562</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="55" t="s">
         <v>34</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>64.265065980616797</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="55" t="s">
         <v>34</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>70.812370411763993</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="55" t="s">
         <v>34</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>56.677131134027597</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="55" t="s">
         <v>34</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>57.963810926168598</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="55" t="s">
         <v>34</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>50.4770990729006</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="55" t="s">
         <v>34</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>51.283825895428002</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="55" t="s">
         <v>34</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>82.836129488681095</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="55" t="s">
         <v>34</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>59.738181793311597</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="55" t="s">
         <v>34</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>59.622474878906701</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="55" t="s">
         <v>34</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>53.0901713415236</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="55" t="s">
         <v>34</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>82.963344029602297</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="55" t="s">
         <v>34</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>55.548366382474399</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="55" t="s">
         <v>34</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>78.322812510178395</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="55" t="s">
         <v>34</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>56.5362786701875</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="45"/>
@@ -5178,7 +5178,7 @@
       <c r="K99" s="45"/>
       <c r="L99" s="45"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>165</v>
       </c>
@@ -5193,7 +5193,7 @@
       <c r="K100" s="76"/>
       <c r="L100" s="76"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>166</v>
       </c>
@@ -5208,7 +5208,7 @@
       <c r="K101" s="76"/>
       <c r="L101" s="76"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>167</v>
       </c>
@@ -5223,7 +5223,7 @@
       <c r="K102" s="76"/>
       <c r="L102" s="76"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>168</v>
       </c>
@@ -5238,7 +5238,7 @@
       <c r="K103" s="76"/>
       <c r="L103" s="76"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>169</v>
       </c>
@@ -5253,7 +5253,7 @@
       <c r="K104" s="76"/>
       <c r="L104" s="76"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
@@ -5265,7 +5265,7 @@
       <c r="K105" s="76"/>
       <c r="L105" s="76"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
       <c r="E106" s="76"/>
@@ -5277,7 +5277,7 @@
       <c r="K106" s="76"/>
       <c r="L106" s="76"/>
     </row>
-    <row r="107" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="77" t="s">
         <v>170</v>
       </c>
@@ -5292,7 +5292,7 @@
       <c r="K107" s="76"/>
       <c r="L107" s="76"/>
     </row>
-    <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="77"/>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
@@ -5305,7 +5305,7 @@
       <c r="K108" s="76"/>
       <c r="L108" s="76"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>173</v>
       </c>
@@ -5320,7 +5320,7 @@
       <c r="K109" s="76"/>
       <c r="L109" s="76"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>174</v>
       </c>
@@ -5335,7 +5335,7 @@
       <c r="K110" s="76"/>
       <c r="L110" s="76"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>175</v>
       </c>
@@ -5350,7 +5350,7 @@
       <c r="K111" s="76"/>
       <c r="L111" s="76"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>171</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="K112" s="76"/>
       <c r="L112" s="76"/>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>172</v>
       </c>
@@ -5380,7 +5380,7 @@
       <c r="K113" s="76"/>
       <c r="L113" s="76"/>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="76"/>
       <c r="D114" s="76"/>
@@ -5395,12 +5395,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E2C93D00-534E-42EF-A9D5-DE25E378FE6D}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{3CF6FD97-38F6-4919-A604-33813C44E1C5}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{39247C2C-6243-4121-9C72-B2CAD41B7586}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{5B72ECB1-D311-4AAB-B2F5-FA63A55F8691}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{D14A25AE-24DB-4660-9311-78EC15BCDEA1}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{601A61CD-15F4-4B62-815B-ACF281D8B0E8}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{EDD2EDE5-A93F-4707-8308-4E1E2C1690CD}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{27AFD239-0A97-4684-8D10-D2931A3AA1FC}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{97E2AF6D-C13F-4572-B703-D34EA32C5853}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{23C283B4-A846-4F3C-AEC5-983B71FDDD90}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{C26B9DC8-AB52-4D13-9D2E-E171B48F7DA6}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{F5004FA5-765D-4C6A-B5BC-8FA4BD86248C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId7"/>
